--- a/Bot_lazada/Data_lazada/data_1_1_1.xlsx
+++ b/Bot_lazada/Data_lazada/data_1_1_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <sheets>
-    <sheet name="https://www.lazada.co.th/shop-m" sheetId="1" r:id="rId1"/>
+    <sheet name="https://www.lazada.co.th/shop-s" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:P41"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -394,124 +394,142 @@
         <v>jBwCF src 3</v>
       </c>
       <c r="G1" t="str">
+        <v>uEds4 href 3</v>
+      </c>
+      <c r="H1" t="str">
+        <v>jBwCF src 4</v>
+      </c>
+      <c r="I1" t="str">
         <v>RfADt</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>ooOxS</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
+        <v>oa6ri</v>
+      </c>
+      <c r="L1" t="str">
         <v>IcOsH</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>_1cEkb</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>qzqFw</v>
       </c>
-      <c r="L1" t="str">
-        <v>oa6ri</v>
-      </c>
-      <c r="M1" t="str">
-        <v>uEds4 href 3</v>
-      </c>
-      <c r="N1" t="str">
-        <v>jBwCF src 4</v>
+      <c r="O1" t="str">
+        <v>uEds4 href 4</v>
+      </c>
+      <c r="P1" t="str">
+        <v>jBwCF src 5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.lazada.co.th/products/a57-ram-6gb-rom128-gb-556-720-x-1612-i3007923663.html</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3077042727.html</v>
       </c>
       <c r="B2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2f29acb893fd9ff5ba53b3671901fd4a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3456db8a4a1685d84f6067e1bd918ec7.png_200x200q80.png_.webp</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.lazada.co.th/products/a57-ram-6gb-rom128-gb-556-720-x-1612-i3007923663.html</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3077042727.html</v>
       </c>
       <c r="D2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d9b754b441d4f8bde43eaceed56d7102.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3456db8a4a1685d84f6067e1bd918ec7.png_80x80q80.png_.webp</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.lazada.co.th/products/a57-ram-6gb-rom128-gb-556-720-x-1612-i3007923663.html</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3077042727.html</v>
       </c>
       <c r="F2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d2f37792dd2d8becf3c15d313816d7dd.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3456db8a4a1685d84f6067e1bd918ec7.png_80x80q80.png_.webp</v>
       </c>
       <c r="G2" t="str">
-        <v>โทรศัพท์มือถือ  A57 RAM 6GB ROM128 GB หน้าจอ 5.56 นิ้ว ความละเอียด 720 x 1612 พิกเซล พร้อมจัดส่งในไทย</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3077042727.html</v>
       </c>
       <c r="H2" t="str">
-        <v>฿2,969.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3456db8a4a1685d84f6067e1bd918ec7.png_80x80q80.png_.webp</v>
       </c>
       <c r="I2" t="str">
-        <v>46% Off</v>
+        <v>ฮาล์ฟแชปส์ ฮาล์ฟ-แชปส์ขี่ม้าสำหรับเด็ก FOUGANZA  รุ่น 100 Mesh (สีดำ)</v>
       </c>
       <c r="J2" t="str">
-        <v>9,999+ ชิ้น</v>
+        <v>฿1,250.00</v>
       </c>
       <c r="K2" t="str">
-        <v>(2194)</v>
+        <v>Samut Prakan</v>
       </c>
       <c r="L2" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="M2" t="str">
         <v/>
       </c>
       <c r="N2" t="str">
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-gt-e1200-2g-i4317870740.html</v>
+        <v>https://www.lazada.co.th/products/golf-shoe-by-pgm-model-white-gold-for-man-size-eu35-eu45-xz016-i1699778323.html</v>
       </c>
       <c r="B3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/23337d90398332fd6f547725314ce5eb.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8ffe540c50b203b041681757cfc07a80.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-gt-e1200-2g-i4317870740.html</v>
+        <v>https://www.lazada.co.th/products/golf-shoe-by-pgm-model-white-gold-for-man-size-eu35-eu45-xz016-i1699778323.html</v>
       </c>
       <c r="D3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8e923149eea751a3c9707c1057875514.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8ffe540c50b203b041681757cfc07a80.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-gt-e1200-2g-i4317870740.html</v>
+        <v/>
       </c>
       <c r="F3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6dbb3f94c03aa54a1ecc41104bbec94b.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G3" t="str">
-        <v>( ส่งฟรี ) SAMSUNG GT E1200 ปุ่มกดมือถือ โทรศัพท์ รุ่นซัมซุง ฮีโร่ ใช้งานง่าย พกพาสะดวก 2G</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>฿232.00</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>67% Off</v>
+        <v>Golf Shoe by PGM Model White Gold for Man SIZE EU:35 - EU:45 ( XZ016)</v>
       </c>
       <c r="J3" t="str">
-        <v>9,999+ ชิ้น</v>
+        <v>฿1,090.00</v>
       </c>
       <c r="K3" t="str">
-        <v>(2432)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L3" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>31% Off</v>
       </c>
       <c r="M3" t="str">
-        <v>https://www.lazada.co.th/products/samsung-gt-e1200-2g-i4317870740.html</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8280451803bab80738c9c25519683eb7.jpg_80x80q80.jpg_.webp</v>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-3g-e3309-3g-i4181340810.html</v>
+        <v>https://www.lazada.co.th/products/golf-shoe-by-pgm-model-xz016-white-gold-for-man-size-eu35-eu45-i1388552344.html</v>
       </c>
       <c r="B4" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bee778b3cd5f0e34584ed4ff1e6e6140.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/1e059957249e31e891488d2f750612fd.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -526,218 +544,248 @@
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>SAMSUNG Hero 3G  E3309 โทรศัพท์ ซัมซุงฮีโร่ จอสี ถ่ายรูปได้ มีปุ่มกด รองรับ 3G มีเมนูภาษาไทย</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>฿554.00</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>20% Off</v>
+        <v>Golf Shoe by PGM Model (XZ016) White Gold for Man SIZE EU:35 - EU:45</v>
       </c>
       <c r="J4" t="str">
-        <v>864 ชิ้น</v>
+        <v>฿1,090.00</v>
       </c>
       <c r="K4" t="str">
-        <v>(229)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L4" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>42% Off</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>31 sold</v>
       </c>
       <c r="N4" t="str">
+        <v>(9)</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.lazada.co.th/products/a17-ram-6gb-rom-128gb-100-656-i5026608910.html</v>
+        <v>https://www.lazada.co.th/products/cv-pgm-children-girls-boys-golf-shoes-anti-skid-leather-outdoor-kids-sneakers-sports-shoes-xz054-1031-i4951310563.html</v>
       </c>
       <c r="B5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b2527480f670b47400521f33e2efeef3.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/efd601d852b2a33c1a9336d7d4f2292c.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.lazada.co.th/products/a17-ram-6gb-rom-128gb-100-656-i5026608910.html</v>
+        <v>https://www.lazada.co.th/products/cv-pgm-children-girls-boys-golf-shoes-anti-skid-leather-outdoor-kids-sneakers-sports-shoes-xz054-1031-i4951310563.html</v>
       </c>
       <c r="D5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/823d7d8fe9c604e1eb4b2fd487e43f1b.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/d37a194786655ac89c0e62068e9764da.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E5" t="str">
-        <v>https://www.lazada.co.th/products/a17-ram-6gb-rom-128gb-100-656-i5026608910.html</v>
+        <v>https://www.lazada.co.th/products/cv-pgm-children-girls-boys-golf-shoes-anti-skid-leather-outdoor-kids-sneakers-sports-shoes-xz054-1031-i4951310563.html</v>
       </c>
       <c r="F5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/800c6226e1f1636c5a6d10c39f4922cb.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3e5077761f94eb22be52f413f0d25bec.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G5" t="str">
-        <v>A17 Ram 6GB Rom 128GB เครื่องใหม่ของเเท้100% จอ 6.56 นิ้ว  สมาร์ตโฟนน้องเล็กรุ่นใหม่ ที่มาพร้อมสโลแกน “คุ้มค่ากว่าราคาโดนใจ”</v>
+        <v>https://www.lazada.co.th/products/cv-pgm-children-girls-boys-golf-shoes-anti-skid-leather-outdoor-kids-sneakers-sports-shoes-xz054-1031-i4951310563.html</v>
       </c>
       <c r="H5" t="str">
-        <v>฿2,950.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4f994eebe08c18810c16a3063ae93436.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I5" t="str">
-        <v>46% Off</v>
+        <v>cv PGM Children Girls Boys Golf Shoes Anti-skid Leather Outdoor Kids Sneakers Sports Shoes XZ054 1031</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>฿931.93</v>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="L5" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>53% Off</v>
       </c>
       <c r="M5" t="str">
         <v/>
       </c>
       <c r="N5" t="str">
         <v/>
+      </c>
+      <c r="O5" t="str">
+        <v>https://www.lazada.co.th/products/cv-pgm-children-girls-boys-golf-shoes-anti-skid-leather-outdoor-kids-sneakers-sports-shoes-xz054-1031-i4951310563.html</v>
+      </c>
+      <c r="P5" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/3e5077761f94eb22be52f413f0d25bec.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.lazada.co.th/products/nokia-105-2015-2000-15-snake-xenzia-bubblebash2-fm-2g-i3872740423.html</v>
+        <v>https://www.lazada.co.th/products/champkey-pgm-xz224-auto-golf-shoe-size-eu-40-45-i4872327160.html</v>
       </c>
       <c r="B6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/247c796917337fcabc6f46910f974126.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/b8f490095a366dda7ceccf34ac7c2e41.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.lazada.co.th/products/nokia-105-2015-2000-15-snake-xenzia-bubblebash2-fm-2g-i3872740423.html</v>
+        <v/>
       </c>
       <c r="D6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/27d763c6496a986b62dd57e3393a7420.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>https://www.lazada.co.th/products/nokia-105-2015-2000-15-snake-xenzia-bubblebash2-fm-2g-i3872740423.html</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dcdc54cd3522fdbc686fc39f45ad175e.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G6" t="str">
-        <v>Nokia 105 ( 2015 ) 2,000 รายชื่อ สนทนาต่อเนื่องนาน 15 ชั่วโมง Snake Xenzia BubbleBash2 ไฟฉาย FM 2G</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>฿229.00</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>61% Off</v>
+        <v>Champkey รองเท้ากอล์ฟผู้ชาย PGM สีดำ (XZ224) แบบผูกเชือกอัตโนมัติ Auto Golf Shoe Size EU : 40-45</v>
       </c>
       <c r="J6" t="str">
-        <v>4,507 ชิ้น</v>
+        <v>฿1,599.00</v>
       </c>
       <c r="K6" t="str">
-        <v>(1017)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L6" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>20% Off</v>
       </c>
       <c r="M6" t="str">
-        <v>https://www.lazada.co.th/products/nokia-105-2015-2000-15-snake-xenzia-bubblebash2-fm-2g-i3872740423.html</v>
+        <v/>
       </c>
       <c r="N6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/40df1e4681ea6998e5cc1757d87b60ba.jpg_80x80q80.jpg_.webp</v>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/xz160-size-eu40-eu45-i2242170984.html</v>
       </c>
       <c r="B7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f8baea32205e8adb7543b34fc6c5c13e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c3658c98ad3bb9394c3a7c67fa18b612.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/xz160-size-eu40-eu45-i2242170984.html</v>
       </c>
       <c r="D7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/7ac75efa53e92067ba2b4cf34868a508.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a49f5e9c2d3dc5c6656c799b1c10f533.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E7" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/xz160-size-eu40-eu45-i2242170984.html</v>
       </c>
       <c r="F7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b38053c9de80cc09395f1927df34cae2.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a63aa76a93116fe1bff8d49bf1280e2b.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G7" t="str">
-        <v>230 โทรศัพท์มือถือ</v>
+        <v>https://www.lazada.co.th/products/xz160-size-eu40-eu45-i2242170984.html</v>
       </c>
       <c r="H7" t="str">
-        <v>฿394.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9cb04824ad640cdb123739b0ca21b0f6.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I7" t="str">
-        <v>34% Off</v>
+        <v>รองเท้ากอล์ฟ (XZ160) รุ่นมีระบบผูกเชือกรองเท้า สวมใส่สบาย สวยงาม มีสไตล์ โดยมีสีขาว-แถบดำ/แถบแดง/แถบเขียว+สีดำแถบเงิน ให้เลือก Size :EU:40-EU:45</v>
       </c>
       <c r="J7" t="str">
-        <v>96 ชิ้น</v>
+        <v>฿1,590.00</v>
       </c>
       <c r="K7" t="str">
-        <v>(31)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L7" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>20% Off</v>
       </c>
       <c r="M7" t="str">
-        <v/>
+        <v>17 sold</v>
       </c>
       <c r="N7" t="str">
+        <v>(4)</v>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128-cph2591-smartphone-blue-ce1-005383-i4911577387.html</v>
+        <v>https://www.lazada.co.th/products/huachuang-202240-47-i3978901642.html</v>
       </c>
       <c r="B8" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/0a2846c1538281baffe0a9877da0be06.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/533158b54a638078f0a362526e52b515.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C8" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/huachuang-202240-47-i3978901642.html</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/dfd13d5dc17f5138c5476b1cfcc3bf88.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/huachuang-202240-47-i3978901642.html</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/82e301b05750ce77ca98d3d95c95726e.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G8" t="str">
-        <v>OPPO A18 4+128 (CPH2591) Smartphone Blue (CE1-005383)</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>฿4,199.00</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>HUACHUANG 2022 NEW Golf Shoes for Men Big Size 40-47 Golf Shoes Men</v>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>฿899.00</v>
       </c>
       <c r="K8" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="L8" t="str">
-        <v>สมุทรปราการ</v>
+        <v>70% Off</v>
       </c>
       <c r="M8" t="str">
-        <v/>
+        <v>40 sold</v>
       </c>
       <c r="N8" t="str">
+        <v>(10)</v>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51464gb-ai-50mp-supervooc-33w-674-90hz-5000mah-i4888389781.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz066-i1393278632.html</v>
       </c>
       <c r="B9" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9c9b84f973c70b5352206312a25a99a2.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/5bcb70a24879665c94337ab22e7b3ad1.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51464gb-ai-50mp-supervooc-33w-674-90hz-5000mah-i4888389781.html</v>
+        <v/>
       </c>
       <c r="D9" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f7359701f4fdcb3f09c038fc5919bd48.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -746,218 +794,248 @@
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>realme C51(4+64GB) กล้อง AI 50MP | ชาร์จไว SUPERVOOC 33W | จอขนาดใหญ่ 6.74นิ้ว 90Hz | แบตเตอรี่ 5000mAh</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v>฿4,400.00</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v>34% Off</v>
+        <v>รองเท้ากอล์ฟ ยี่ห้อ PGM รุ่น (XZ066) สีขาวแถบดำ</v>
       </c>
       <c r="J9" t="str">
-        <v>998 ชิ้น</v>
+        <v>฿990.00</v>
       </c>
       <c r="K9" t="str">
-        <v>(113)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L9" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>46% Off</v>
       </c>
       <c r="M9" t="str">
         <v/>
       </c>
       <c r="N9" t="str">
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.lazada.co.th/products/nokia-5710-xpressaudio-1-i4115610673.html</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3076922393.html</v>
       </c>
       <c r="B10" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sa3625fb9451f4a34a6944954e15f12d6F.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4117aaba6933d0498c6c030b572efba2.png_200x200q80.png_.webp</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.lazada.co.th/products/nokia-5710-xpressaudio-1-i4115610673.html</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3076922393.html</v>
       </c>
       <c r="D10" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sef235a8aa4104da9a4dfc0d33085dd5a8.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4117aaba6933d0498c6c030b572efba2.png_80x80q80.png_.webp</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3076922393.html</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/4117aaba6933d0498c6c030b572efba2.png_80x80q80.png_.webp</v>
       </c>
       <c r="G10" t="str">
-        <v>Nokia 5710 XpressAudio - โนเกีย มือถือปุ่มกด เครื่องประกันศูนย์ 1 ปี</v>
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3076922393.html</v>
       </c>
       <c r="H10" t="str">
-        <v>฿1,590.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4117aaba6933d0498c6c030b572efba2.png_80x80q80.png_.webp</v>
       </c>
       <c r="I10" t="str">
-        <v>41% Off</v>
+        <v>ฮาล์ฟ-แชปส์ขี่ม้าสำหรับผู้ใหญ่ FOUGANZA รุ่น 100 Mesh สีดำ</v>
       </c>
       <c r="J10" t="str">
-        <v>14 ชิ้น</v>
+        <v>฿990.00</v>
       </c>
       <c r="K10" t="str">
-        <v>(6)</v>
+        <v>Samut Prakan</v>
       </c>
       <c r="L10" t="str">
-        <v>ชัยภูมิ</v>
+        <v>23% Off</v>
       </c>
       <c r="M10" t="str">
         <v/>
       </c>
       <c r="N10" t="str">
-        <v/>
+        <v>(2)</v>
+      </c>
+      <c r="O10" t="str">
+        <v>https://www.lazada.co.th/products/fouganza-100-mesh-i3076922393.html</v>
+      </c>
+      <c r="P10" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/4117aaba6933d0498c6c030b572efba2.png_80x80q80.png_.webp</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128-5000mah-65-100-telewiz-shop-i4885700501.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-professional-2024-i4908957991.html</v>
       </c>
       <c r="B11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2ed7bad42de1cc300ef780b4c4191b63.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c23adcdb724c7c15982a68fdde0ec6c9.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128-5000mah-65-100-telewiz-shop-i4885700501.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-professional-2024-i4908957991.html</v>
       </c>
       <c r="D11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f8daeaa66204402959c57dd1d8f2f916.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/25014f7da80f7a1706bdcb3309a6fdf9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128-5000mah-65-100-telewiz-shop-i4885700501.html</v>
+        <v/>
       </c>
       <c r="F11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/854cadf2f7489aea51dd49785e74cc9a.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>โทรศัพท์มือถือ OPPO A18 4G (4/128) แบต5,000mAh จอ6.5 เครื่องแท้100% ใช้งานได้ทุกเครือข่าย พร้อมลงทะเบียนรับประกันศูนย์ไทย / Telewiz Shop</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>฿4,999.00</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>Footjoyกันน้ำรองเท้ากอล์ฟผู้ชาย Professional น้ำหนักเบานักกอล์ฟรองเท้ากลางแจ้งกอล์ฟกีฬารองเท้าผ้าใบนักกีฬา 2024</v>
       </c>
       <c r="J11" t="str">
-        <v>29 ชิ้น</v>
+        <v>฿1,248.00</v>
       </c>
       <c r="K11" t="str">
-        <v>(6)</v>
+        <v>Overseas</v>
       </c>
       <c r="L11" t="str">
-        <v>นนทบุรี</v>
+        <v>62% Off</v>
       </c>
       <c r="M11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128-5000mah-65-100-telewiz-shop-i4885700501.html</v>
+        <v/>
       </c>
       <c r="N11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f8daeaa66204402959c57dd1d8f2f916.png_80x80q80.png_.webp</v>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.lazada.co.th/products/poco-m5s-8gb256gb-15-i4672605962.html</v>
+        <v>https://www.lazada.co.th/products/ready-to-ship-i5028779749.html</v>
       </c>
       <c r="B12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/176dd78e368ae45a55c279e16c740825.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3ec385417c98ca844513b86d7a34c3e8.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C12" t="str">
-        <v>https://www.lazada.co.th/products/poco-m5s-8gb256gb-15-i4672605962.html</v>
+        <v>https://www.lazada.co.th/products/ready-to-ship-i5028779749.html</v>
       </c>
       <c r="D12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d14fe19b7a1ea1afa8f6971532234fc4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c0bbbf7eb81dbb9add6e11b34370067e.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E12" t="str">
-        <v>https://www.lazada.co.th/products/poco-m5s-8gb256gb-15-i4672605962.html</v>
+        <v>https://www.lazada.co.th/products/ready-to-ship-i5028779749.html</v>
       </c>
       <c r="F12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/32cd846ba7f171be422335ea90ed1e3e.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/071661a476aa33614b1648e484094843.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G12" t="str">
-        <v>POCO M5S 8GB+256GB รับประกัน 15 เดือน</v>
+        <v>https://www.lazada.co.th/products/ready-to-ship-i5028779749.html</v>
       </c>
       <c r="H12" t="str">
-        <v>฿4,799.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9113404216857a289ba7b9cfff446d45.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I12" t="str">
-        <v>40% Off</v>
+        <v>Ready to shipรองเท้ากีฬา รองเท้ากอล์ฟลําลอง กันน้ํา กันลื่น น้ําหนักเบาพิเศษ ระบายอากาศได้ดี เหมาะกับใส่ในบ้าน สําหรับผู้ชาย และผู้หญิง</v>
       </c>
       <c r="J12" t="str">
-        <v>3,872 ชิ้น</v>
+        <v>฿365.00</v>
       </c>
       <c r="K12" t="str">
-        <v>(1630)</v>
+        <v>Roi Et</v>
       </c>
       <c r="L12" t="str">
-        <v>สมุทรปราการ</v>
+        <v>50% Off</v>
       </c>
       <c r="M12" t="str">
         <v/>
       </c>
       <c r="N12" t="str">
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128-gb-i4886967147.html</v>
+        <v>https://www.lazada.co.th/products/in-stock-wta0-i5029796673.html</v>
       </c>
       <c r="B13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/321c849b992a5fcd2edde87eb28f8da6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3970efb1aed68116cbd90245fee67a47.jpg_webp_200x200q80.jpg_.webp</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128-gb-i4886967147.html</v>
+        <v>https://www.lazada.co.th/products/in-stock-wta0-i5029796673.html</v>
       </c>
       <c r="D13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4492b54e1314ae1cd0b9dc272a5fb529.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/2c29d711e7cc8ed3543cd6727e5d3fb3.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/in-stock-wta0-i5029796673.html</v>
       </c>
       <c r="F13" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/b7d2465d9e4545ad27fce0a736b63d7a.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="G13" t="str">
-        <v>Samsung Galaxy A05s 6/128 GB</v>
+        <v>https://www.lazada.co.th/products/in-stock-wta0-i5029796673.html</v>
       </c>
       <c r="H13" t="str">
-        <v>฿5,190.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/27b0372d52646353b8b7162581c654d1.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="I13" t="str">
-        <v>6% Off</v>
+        <v>In stock รองเท้ากอล์ฟ หนังพรีเมี่ยม หัวเข็มขัดหมุนได้ กันน้ํา กันลื่น สําหรับผู้ชาย และผู้หญิง WTA0</v>
       </c>
       <c r="J13" t="str">
-        <v>2,910 ชิ้น</v>
+        <v>฿385.00</v>
       </c>
       <c r="K13" t="str">
-        <v>(295)</v>
+        <v>Roi Et</v>
       </c>
       <c r="L13" t="str">
-        <v>ฉะเชิงเทรา</v>
+        <v>50% Off</v>
       </c>
       <c r="M13" t="str">
         <v/>
       </c>
       <c r="N13" t="str">
         <v/>
+      </c>
+      <c r="O13" t="str">
+        <v>https://www.lazada.co.th/products/in-stock-wta0-i5029796673.html</v>
+      </c>
+      <c r="P13" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/48ed0ef0df7e7280c4c4619e1d0434e1.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.lazada.co.th/products/realme-c53-6128gb-674-5000-mah-1-i4727592602.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-xz042-white-black-colour-size-eu39-eu44-i741414378.html</v>
       </c>
       <c r="B14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/fbdd7f0c1f3265b8d280f4cca3feb732.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/f8619f7e4933dae688dd10d4bd6ee54e.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.lazada.co.th/products/realme-c53-6128gb-674-5000-mah-1-i4727592602.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-xz042-white-black-colour-size-eu39-eu44-i741414378.html</v>
       </c>
       <c r="D14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/611d2c33f40e7c550658b116ed12b557.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/f8619f7e4933dae688dd10d4bd6ee54e.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -966,570 +1044,648 @@
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>REALME C53 (6/128GB) จอ 6.74 นิ้ว แบตเตอรี่ 5000 mAh มือถือ เรียลมี สินค้ารับประกันศูนย์ 1 ปี</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>฿4,980.00</v>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <v>50% Off</v>
+        <v>รองเท้ากอล์ฟ PGM MEN GOLF SHOES (XZ042) WHITE-BLACK COLOUR SIZE EU:39 - EU:44 สีขาวแถบดำ สินค้าคุณภาพดี</v>
       </c>
       <c r="J14" t="str">
-        <v>4,741 ชิ้น</v>
+        <v>฿990.00</v>
       </c>
       <c r="K14" t="str">
-        <v>(1013)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L14" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>34% Off</v>
       </c>
       <c r="M14" t="str">
-        <v/>
+        <v>20 sold</v>
       </c>
       <c r="N14" t="str">
+        <v>(8)</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a17-65-8256gb-5000-mah-1-i4936630564.html</v>
+        <v>https://www.lazada.co.th/products/v-minnute-7155-moccasin-i4707985344.html</v>
       </c>
       <c r="B15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/370af29e485784f711501aaea04a6281.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/80f052faf64c82bfcc20782edc6a43e4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C15" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a17-65-8256gb-5000-mah-1-i4936630564.html</v>
+        <v>https://www.lazada.co.th/products/v-minnute-7155-moccasin-i4707985344.html</v>
       </c>
       <c r="D15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/0b70b88ce3df23434c7a49611548a9be.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/f7d044a7858084e4c75d20b750321ab5.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E15" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a17-65-8256gb-5000-mah-1-i4936630564.html</v>
+        <v>https://www.lazada.co.th/products/v-minnute-7155-moccasin-i4707985344.html</v>
       </c>
       <c r="F15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/23bac1be70c281fb310979fa1820d581.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c1f767e8dc531a12164cc16532955f13.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G15" t="str">
-        <v>( ส่งฟรี ) OPPO A17 สมาร์ทโฟน หน้าจอ 6.5 นิ้ว | 8+256GB | สินค้าเครื่องใหม่ | 5000 mAh | มีภาษาไทย | ร้านรับประกัน 1ปี</v>
+        <v>https://www.lazada.co.th/products/v-minnute-7155-moccasin-i4707985344.html</v>
       </c>
       <c r="H15" t="str">
-        <v>฿3,399.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/ec13326976d33235c62d645ce10a5b37.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I15" t="str">
-        <v>48% Off</v>
+        <v>🍀V-Minnute รุ่น 7155 🍀รองเท้าคัชชูชายลายหนังช้างแนวMoccasin(มอสคาซิน) รองเท้ารัดส้น</v>
       </c>
       <c r="J15" t="str">
-        <v>88 ชิ้น</v>
+        <v>฿289.00</v>
       </c>
       <c r="K15" t="str">
-        <v>(35)</v>
+        <v>Bangkok</v>
       </c>
       <c r="L15" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="M15" t="str">
         <v/>
       </c>
       <c r="N15" t="str">
-        <v/>
+        <v>(0)</v>
+      </c>
+      <c r="O15" t="str">
+        <v>https://www.lazada.co.th/products/v-minnute-7155-moccasin-i4707985344.html</v>
+      </c>
+      <c r="P15" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/ec13326976d33235c62d645ce10a5b37.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.lazada.co.th/products/4g-m-horse-hug-4g-1-i4865311566.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz224-auto-golf-shoe-size-eu-40-45-i4464713253.html</v>
       </c>
       <c r="B16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9650ce4718bed3e2a6f4349693756a6e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c67da0738a3a1b4c89f14b1dcb4dc9fd.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.lazada.co.th/products/4g-m-horse-hug-4g-1-i4865311566.html</v>
+        <v/>
       </c>
       <c r="D16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/72bd6223eca1c923376204eb2bfa63a7.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E16" t="str">
-        <v>https://www.lazada.co.th/products/4g-m-horse-hug-4g-1-i4865311566.html</v>
+        <v/>
       </c>
       <c r="F16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/109f44fc912208f273c653cb8b7a8b69.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>โทรศัพท์ มือถือปุ่มกด4Gรุ่นใหม่ m-horse HUG (4Gแท้) ราคาถูก แบตอึด เสียงดัง จอสี ปุ่มกดใหญ่ เมนูภาษาไทย ประกันศูนย์ไทย 1ปี</v>
+        <v/>
       </c>
       <c r="H16" t="str">
-        <v>฿850.00</v>
+        <v/>
       </c>
       <c r="I16" t="str">
-        <v>29% Off</v>
+        <v>รองเท้ากอล์ฟผู้ชาย PGM สีดำ (XZ224) แบบผูกเชือกอัตโนมัติ Auto Golf Shoe Size EU : 40-45 พร้อมส่งทันที</v>
       </c>
       <c r="J16" t="str">
-        <v>147 ชิ้น</v>
+        <v>฿1,595.00</v>
       </c>
       <c r="K16" t="str">
-        <v>(82)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L16" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>20% Off</v>
       </c>
       <c r="M16" t="str">
-        <v>https://www.lazada.co.th/products/4g-m-horse-hug-4g-1-i4865311566.html</v>
+        <v>24 sold</v>
       </c>
       <c r="N16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3ab773e6de2d8b78cbce386d4b4c439c.jpg_80x80q80.jpg_.webp</v>
+        <v>(10)</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y97-8-256gb-ai-dual-camera-63-1-i3051743451.html</v>
+        <v>https://www.lazada.co.th/products/pu-7003-pu-100-i4707997287.html</v>
       </c>
       <c r="B17" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/539827b931ea7796f1b45088bf955371.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/00e85f235ec99ad2cab2e30f81440137.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C17" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y97-8-256gb-ai-dual-camera-63-1-i3051743451.html</v>
+        <v>https://www.lazada.co.th/products/pu-7003-pu-100-i4707997287.html</v>
       </c>
       <c r="D17" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/7a4dff630fc3f8638f68fe80ff2e4fed.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/00e85f235ec99ad2cab2e30f81440137.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E17" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y97-8-256gb-ai-dual-camera-63-1-i3051743451.html</v>
+        <v>https://www.lazada.co.th/products/pu-7003-pu-100-i4707997287.html</v>
       </c>
       <c r="F17" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/1f7b6b7166bec7413201be4751b34561.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/00e85f235ec99ad2cab2e30f81440137.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G17" t="str">
-        <v>( ส่งฟรี )VIVO Y97 ( 8 + 256GB ) + กล้องคู่ AI Dual Camera + จอกว้าง 6.3" (รับประกัน 1ปี)</v>
+        <v>https://www.lazada.co.th/products/pu-7003-pu-100-i4707997287.html</v>
       </c>
       <c r="H17" t="str">
-        <v>฿1,799.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/00e85f235ec99ad2cab2e30f81440137.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I17" t="str">
-        <v>27% Off</v>
+        <v>🍀รองเท้าPU มาโคร 7003🍀  รองเท้าpu แท้ 100%(ไม่ใช่ยาง)</v>
       </c>
       <c r="J17" t="str">
-        <v>686 ชิ้น</v>
+        <v>฿109.00</v>
       </c>
       <c r="K17" t="str">
-        <v>(199)</v>
+        <v>Bangkok</v>
       </c>
       <c r="L17" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v/>
       </c>
       <c r="M17" t="str">
-        <v/>
+        <v>9 sold</v>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>(5)</v>
+      </c>
+      <c r="O17" t="str">
+        <v>https://www.lazada.co.th/products/pu-7003-pu-100-i4707997287.html</v>
+      </c>
+      <c r="P17" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/00e85f235ec99ad2cab2e30f81440137.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.lazada.co.th/products/sumsung-galaxy-5g-i4984108706.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1388702070.html</v>
       </c>
       <c r="B18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S31617b28aa514c758e4f340cd660110bt.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4d74a86db23f98ad295cec49feb22bd5.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1388702070.html</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/ea13c63ffe9ebb8886787cb3d8206e13.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1388702070.html</v>
       </c>
       <c r="F18" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/704c360aa337bf1fb11aefe3f0ec6b41.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G18" t="str">
-        <v>sumsung Galaxy 5G</v>
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>฿914.08</v>
+        <v/>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>รองเท้ากอล์ฟที่นิยมที่สุด PGM GOLF SHOES รุ่น (XZ021) มี 4 สี</v>
       </c>
       <c r="J18" t="str">
-        <v/>
+        <v>฿590.00</v>
       </c>
       <c r="K18" t="str">
-        <v/>
+        <v>Pathum Thani</v>
       </c>
       <c r="L18" t="str">
-        <v>ปทุมธานี</v>
+        <v>69% Off</v>
       </c>
       <c r="M18" t="str">
-        <v/>
+        <v>11 sold</v>
       </c>
       <c r="N18" t="str">
+        <v>(2)</v>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno4-z-5g-657-12gb256gb-4000mah-1-i4941605033.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-ecco-boagolf-i5029876107.html</v>
       </c>
       <c r="B19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f61bb75ebb2fdac9d629faedb457a15c.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8d0740b802086e3397338a17278a0f9e.jpg_webp_200x200q80.jpg_.webp</v>
       </c>
       <c r="C19" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno4-z-5g-657-12gb256gb-4000mah-1-i4941605033.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-ecco-boagolf-i5029876107.html</v>
       </c>
       <c r="D19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ff3b8e1fe71cefd4e043f9ca9a01eb04.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8d0740b802086e3397338a17278a0f9e.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="E19" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno4-z-5g-657-12gb256gb-4000mah-1-i4941605033.html</v>
+        <v/>
       </c>
       <c r="F19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c7fe5d736bacc59c13f8dfba5f47c808.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>OPPO Reno4 Z 5G พร้อมส่ง | หน้าจอ 6.57 นิ้ว (12GB+256GB) | แบตเตอรี่ 4000mAh | รองรับภาษาไทย | ร้านค้ารับประกัน 1 ปี</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>฿4,135.00</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>48% Off</v>
+        <v>New Arrival Ecco รองเท้ากีฬา รองเท้ากอล์ฟ กันน้ํา สําหรับผู้ชาย BOAGOLF</v>
       </c>
       <c r="J19" t="str">
-        <v>78 ชิ้น</v>
+        <v>฿355.00</v>
       </c>
       <c r="K19" t="str">
-        <v>(34)</v>
+        <v>Roi Et</v>
       </c>
       <c r="L19" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>53% Off</v>
       </c>
       <c r="M19" t="str">
         <v/>
       </c>
       <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.lazada.co.th/products/4-i4294463789.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1424304865.html</v>
       </c>
       <c r="B20" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S50fd523e8146481292f8823787652f71J.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4d74a86db23f98ad295cec49feb22bd5.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1424304865.html</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/84a85803d2dc350a454cd3cf0ad32378.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-xz021-4-i1424304865.html</v>
       </c>
       <c r="F20" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/7460377e9aa2f4ef1fa19b83c7ae60f5.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G20" t="str">
-        <v>วีโก้ ซันนี่ 4 สภาพดีพร้อมใช้งานแถมฟรีสายชาร์จ</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>฿450.00</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v/>
+        <v>รองเท้ากอล์ฟที่นิยมที่สุด PGM GOLF SHOES   รุ่น (XZ021) มี 4 สี</v>
       </c>
       <c r="J20" t="str">
-        <v>15 ชิ้น</v>
+        <v>฿590.00</v>
       </c>
       <c r="K20" t="str">
-        <v>(3)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L20" t="str">
-        <v>มหาสารคาม</v>
+        <v>70% Off</v>
       </c>
       <c r="M20" t="str">
-        <v/>
+        <v>23 sold</v>
       </c>
       <c r="N20" t="str">
+        <v>(10)</v>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a79-5g4128g-i4975730116.html</v>
+        <v>https://www.lazada.co.th/products/crocs-2023-crocs-literide-camo-i4722932870.html</v>
       </c>
       <c r="B21" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/afe9ed76f8f566be210cc84cefb33346.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/061d6816de70b7514d3a83fb72f6163c.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C21" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a79-5g4128g-i4975730116.html</v>
+        <v>https://www.lazada.co.th/products/crocs-2023-crocs-literide-camo-i4722932870.html</v>
       </c>
       <c r="D21" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e35057fd3d9fe8298a0e2737150dd7e0.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/404bc652af3c99e957dc2650c1aa8f08.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/crocs-2023-crocs-literide-camo-i4722932870.html</v>
       </c>
       <c r="F21" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/374071428f72f63e60adb9e9d625ae54.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G21" t="str">
-        <v>OPPO A79 5G(4+128G)</v>
+        <v>https://www.lazada.co.th/products/crocs-2023-crocs-literide-camo-i4722932870.html</v>
       </c>
       <c r="H21" t="str">
-        <v>฿6,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/061d6816de70b7514d3a83fb72f6163c.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>Crocs 2023 รูปแบบใหม่ crocs LiteRide  Camo ชายหาดรองเท้าพักผ่อนกลางแจ้งชายหาดรองเท้าแตะรองเท้าแตะ</v>
       </c>
       <c r="J21" t="str">
-        <v>15 ชิ้น</v>
+        <v>฿350.00</v>
       </c>
       <c r="K21" t="str">
-        <v>(5)</v>
+        <v>Nakhon Nayok</v>
       </c>
       <c r="L21" t="str">
-        <v>ฉะเชิงเทรา</v>
+        <v>64% Off</v>
       </c>
       <c r="M21" t="str">
-        <v/>
+        <v>5 sold</v>
       </c>
       <c r="N21" t="str">
+        <v>(3)</v>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>https://www.lazada.co.th/products/crocs-crocband-clog-mens-and-womens-sandals-11016-410-the-same-style-in-the-store-i4877390159.html</v>
       </c>
       <c r="B22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/69d37bf00bab56f1e5926abeaed86dfc.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C22" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>https://www.lazada.co.th/products/crocs-crocband-clog-mens-and-womens-sandals-11016-410-the-same-style-in-the-store-i4877390159.html</v>
       </c>
       <c r="D22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/b201325a3082c0968804c104acd03300.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E22" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>https://www.lazada.co.th/products/crocs-crocband-clog-mens-and-womens-sandals-11016-410-the-same-style-in-the-store-i4877390159.html</v>
       </c>
       <c r="F22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/41ad25d7702ce7841b0a6474ccd92567.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G22" t="str">
-        <v>POCO C65 6GB+128GB ชิปเซ็ตทรงพลัง MediaTek Helio G85 กล้อง AI 3 ตัว 50MP | รับประกัน 15 เดือน</v>
+        <v>https://www.lazada.co.th/products/crocs-crocband-clog-mens-and-womens-sandals-11016-410-the-same-style-in-the-store-i4877390159.html</v>
       </c>
       <c r="H22" t="str">
-        <v>฿3,799.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/477791e1e6976aa730f3fe1406d2ece8.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>〖ของแท้พิเศษ〗 CROCS CROCBAND CLOG Men's and Women's SANDALS 11016-410 รองเท้าวิ่ง รองเท้ากีฬา รองเท้าแตะ The Same Style In The Store</v>
       </c>
       <c r="J22" t="str">
-        <v>1,174 ชิ้น</v>
+        <v>฿1,290.00</v>
       </c>
       <c r="K22" t="str">
-        <v>(507)</v>
+        <v>Chiang Mai</v>
       </c>
       <c r="L22" t="str">
-        <v>สมุทรปราการ</v>
+        <v>50% Off</v>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>31 sold</v>
       </c>
       <c r="N22" t="str">
-        <v/>
+        <v>(11)</v>
+      </c>
+      <c r="O22" t="str">
+        <v>https://www.lazada.co.th/products/crocs-crocband-clog-mens-and-womens-sandals-11016-410-the-same-style-in-the-store-i4877390159.html</v>
+      </c>
+      <c r="P22" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/7f3f5f79ede0ab3badbc9f1b72027d22.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51-ram464-1-i4866328807.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-xz076-i1424786837.html</v>
       </c>
       <c r="B23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S85ef0026d55740b1bb9831fc0d4f27c8n.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/cc601c793c3d447ee124b5709d10d723.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51-ram464-1-i4866328807.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-xz076-i1424786837.html</v>
       </c>
       <c r="D23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S8b87c7398daa4b7f8266108fd0c44818G.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/cc601c793c3d447ee124b5709d10d723.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E23" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51-ram464-1-i4866328807.html</v>
+        <v/>
       </c>
       <c r="F23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S434952d5f90547ddbfc889da8df59c22M.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>realme C51 (ram4/64) พร้อมของแถมพิเศษ ประกันศูนย์ 1 ปี</v>
+        <v/>
       </c>
       <c r="H23" t="str">
-        <v>฿3,690.00</v>
+        <v/>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>รองเท้ากอล์ฟสำหรับสุภาพบุรุษ PGM Men Golf Shoes สีขาวฟ้า / สีดำ - (XZ076)</v>
       </c>
       <c r="J23" t="str">
-        <v>338 ชิ้น</v>
+        <v>฿990.00</v>
       </c>
       <c r="K23" t="str">
-        <v>(83)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L23" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>46% Off</v>
       </c>
       <c r="M23" t="str">
-        <v>https://www.lazada.co.th/products/realme-c51-ram464-1-i4866328807.html</v>
+        <v/>
       </c>
       <c r="N23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S8b87c7398daa4b7f8266108fd0c44818G.jpg_80x80q80.jpg_.webp</v>
+        <v/>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.lazada.co.th/products/reama-c35-i4984287032.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz030-4-i1424482014.html</v>
       </c>
       <c r="B24" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6dfe18018f4a5a279083ad9e05d333a7.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/e04aa8fad8f8b7cef065248208aaef19.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-xz030-4-i1424482014.html</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/0e1de3a534eeae819bf1c1d812d8d4b3.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-xz030-4-i1424482014.html</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/edabf5c94d043ad21f0a08d788a3b4fc.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G24" t="str">
-        <v>reama c35</v>
+        <v>https://www.lazada.co.th/products/pgm-xz030-4-i1424482014.html</v>
       </c>
       <c r="H24" t="str">
-        <v>฿397.56</v>
+        <v>https://lzd-img-global.slatic.net/g/p/fb2c8964dcb9faa6e87a67244e08fc28.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I24" t="str">
-        <v/>
+        <v>รองเท้ากอล์ฟ PGM รุ่น (XZ030) มี 4 สี พร้อมส่ง แจ้งไซส์และสีในแชทได้เลยจ้า</v>
       </c>
       <c r="J24" t="str">
-        <v>8 ชิ้น</v>
+        <v>฿590.00</v>
       </c>
       <c r="K24" t="str">
-        <v/>
+        <v>Pathum Thani</v>
       </c>
       <c r="L24" t="str">
-        <v>ปทุมธานี</v>
+        <v>40% Off</v>
       </c>
       <c r="M24" t="str">
         <v/>
       </c>
       <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-8256gb-unisoc-t606-octa-core-l-66-fhd-ai-camera-50mp-18-i4884896854.html</v>
+        <v>https://www.lazada.co.th/products/hot-sm9-wedge-48-50-52-54-56-58-60-2022-i4810275934.html</v>
       </c>
       <c r="B25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e2c3ac8e9ae7559ea9e4506cf5d94617.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/62d60a6110c0e04596e7f26ef23ecaa2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C25" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-8256gb-unisoc-t606-octa-core-l-66-fhd-ai-camera-50mp-18-i4884896854.html</v>
+        <v>https://www.lazada.co.th/products/hot-sm9-wedge-48-50-52-54-56-58-60-2022-i4810275934.html</v>
       </c>
       <c r="D25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e2c3ac8e9ae7559ea9e4506cf5d94617.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/232707073784b295707a6fc5b1e9ebb2.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E25" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-8256gb-unisoc-t606-octa-core-l-66-fhd-ai-camera-50mp-18-i4884896854.html</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e2c3ac8e9ae7559ea9e4506cf5d94617.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>ZTE Blade V50 Design (8+128GB / 8+256GB) Unisoc T606 Octa-Core  l 6.6", FHD+ AI Camera 50MP รับประกันศูนย์ไทย 18 เดือน</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v>฿3,499.00</v>
+        <v/>
       </c>
       <c r="I25" t="str">
-        <v>24% Off</v>
+        <v>HOT ； ใหม่ รองเท้ากอล์ฟ SM9 Wedge 48 50 52 54 56 58 60 สีเงิน สีดํา สําหรับผู้ชาย ผู้หญิง 2022</v>
       </c>
       <c r="J25" t="str">
-        <v>256 ชิ้น</v>
+        <v>฿1,169.00</v>
       </c>
       <c r="K25" t="str">
-        <v>(111)</v>
+        <v>Overseas</v>
       </c>
       <c r="L25" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>50% Off</v>
       </c>
       <c r="M25" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-8256gb-unisoc-t606-octa-core-l-66-fhd-ai-camera-50mp-18-i4884896854.html</v>
+        <v>11 sold</v>
       </c>
       <c r="N25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e2c3ac8e9ae7559ea9e4506cf5d94617.png_80x80q80.png_.webp</v>
+        <v>(6)</v>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.lazada.co.th/products/f-b-for-iphone-15-pro-max-14-pro-max-13-pro-max12-pro-max11-proxs-maxxrx8-7-plus-6s6-i4201785951.html</v>
+        <v>https://www.lazada.co.th/products/helong-i3336418729.html</v>
       </c>
       <c r="B26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S5892bd66bdde49e3921482b97c4ca0beb.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/dec5e91474875ae602e80e871cdfe8e2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.lazada.co.th/products/f-b-for-iphone-15-pro-max-14-pro-max-13-pro-max12-pro-max11-proxs-maxxrx8-7-plus-6s6-i4201785951.html</v>
+        <v>https://www.lazada.co.th/products/helong-i3336418729.html</v>
       </c>
       <c r="D26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S5892bd66bdde49e3921482b97c4ca0beb.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/69b16b3b7ae7d0a0a4c74736e92e8457.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E26" t="str">
-        <v>https://www.lazada.co.th/products/f-b-for-iphone-15-pro-max-14-pro-max-13-pro-max12-pro-max11-proxs-maxxrx8-7-plus-6s6-i4201785951.html</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S5892bd66bdde49e3921482b97c4ca0beb.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>F + B ฟิล์มกระจกใส เต็มจอ  For iPhone รุ่น 15 Pro Max 14 Pro Max 13 Pro Max/12 Pro Max/11 pro/XS Max/XR/X|8/ 7 Plus 6s/6</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v>฿55.00</v>
+        <v/>
       </c>
       <c r="I26" t="str">
-        <v>7% Off</v>
+        <v>HELONG Men Golf Shoes Waterproof Sports Shoes Rotating Buckles Anti-slip Sneakers Multifunctional Golf Trainers</v>
       </c>
       <c r="J26" t="str">
-        <v>471 ชิ้น</v>
+        <v>฿1,097.00</v>
       </c>
       <c r="K26" t="str">
-        <v>(103)</v>
+        <v>Overseas</v>
       </c>
       <c r="L26" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>53% Off</v>
       </c>
       <c r="M26" t="str">
-        <v>https://www.lazada.co.th/products/f-b-for-iphone-15-pro-max-14-pro-max-13-pro-max12-pro-max11-proxs-maxxrx8-7-plus-6s6-i4201785951.html</v>
+        <v>123 sold</v>
       </c>
       <c r="N26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S5892bd66bdde49e3921482b97c4ca0beb.jpg_80x80q80.jpg_.webp</v>
+        <v>(33)</v>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y02-2gb32gb-cpu-octa-core-processor-5000mah-typ-10w-5mp-8mp-i4329551629.html</v>
+        <v>https://www.lazada.co.th/products/pgm-pgm-xz020-size-eu-39-eu-44-i1424376157.html</v>
       </c>
       <c r="B27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e65cba85ad85e261d9da38aefdc59018.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/f02cff44c91abeac94280ca313b97009.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y02-2gb32gb-cpu-octa-core-processor-5000mah-typ-10w-5mp-8mp-i4329551629.html</v>
+        <v>https://www.lazada.co.th/products/pgm-pgm-xz020-size-eu-39-eu-44-i1424376157.html</v>
       </c>
       <c r="D27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/20f5e37689c2b3d74acdf6f09d5f29e4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/e291abc6c4831865c975f6d41a25c2f1.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -1538,130 +1694,148 @@
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>vivo Y02 (2GB+32GB) โทรศัพท์มือถือ วีโว่  CPU Octa-Core Processor  แบตเตอรี่ 5000mAh (TYP) ชาร์จไว 10W  กล้องหน้า 5MP + กล้องหลัง 8MP</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>฿3,399.00</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>43% Off</v>
+        <v>PGM รองเท้ากอล์ฟ PGM  (XZ020) สีขาวแถบดำ / สีขาวแถบกากี SIZE EU: 39 - EU: 44</v>
       </c>
       <c r="J27" t="str">
-        <v>9,999+ ชิ้น</v>
+        <v>฿890.00</v>
       </c>
       <c r="K27" t="str">
-        <v>(1662)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L27" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>10% Off</v>
       </c>
       <c r="M27" t="str">
         <v/>
       </c>
       <c r="N27" t="str">
+        <v>(1)</v>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a18-4128-l-5000mah-ram-4gb-8-mp-12-i4832817023.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-men-shoes-xz021-black-white-colour-size-eu39-eu44-i641714503.html</v>
       </c>
       <c r="B28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/440893ec41f4b6540001b884488d90d1.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4d74a86db23f98ad295cec49feb22bd5.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a18-4128-l-5000mah-ram-4gb-8-mp-12-i4832817023.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-men-shoes-xz021-black-white-colour-size-eu39-eu44-i641714503.html</v>
       </c>
       <c r="D28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6d9fb03ac465a9589bee97537258296c.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/7460377e9aa2f4ef1fa19b83c7ae60f5.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pgm-golf-men-shoes-xz021-black-white-colour-size-eu39-eu44-i641714503.html</v>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/5fab3e846711f48561560d7e293648bd.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G28" t="str">
-        <v>[New] OPPO A18 (4+128) l โทรศัพท์มือถือ แบตใหญ่ 5,000mAh ขยาย RAM ได้ 4GB กล้อง 8 MP รับประกัน 12 เดือน</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>฿4,199.00</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>7% Off</v>
+        <v>รองเท้ากอล์ฟ PGM GOLF MEN SHOES (XZ021) BLACK-WHITE COLOUR SIZE EU:39 - EU:44</v>
       </c>
       <c r="J28" t="str">
-        <v>1,647 ชิ้น</v>
+        <v>฿690.00</v>
       </c>
       <c r="K28" t="str">
-        <v>(300)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L28" t="str">
-        <v>สมุทรปราการ</v>
+        <v>57% Off</v>
       </c>
       <c r="M28" t="str">
-        <v/>
+        <v>16 sold</v>
       </c>
       <c r="N28" t="str">
+        <v>(3)</v>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.lazada.co.th/products/vivq-y21-i5020439108.html</v>
+        <v>https://www.lazada.co.th/products/tongbao01-12022-cs-i4781889255.html</v>
       </c>
       <c r="B29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S191ac356d4ff47a1b53ca189d083f438p.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/50395478538c42100af38fb25dd56b86.png_200x200q80.png_.webp</v>
       </c>
       <c r="C29" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/tongbao01-12022-cs-i4781889255.html</v>
       </c>
       <c r="D29" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/94c6528a2f5b6fe3180efd9e729de8b3.png_80x80q80.png_.webp</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/tongbao01-12022-cs-i4781889255.html</v>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/0a2057c993c2ab264fc148ff6b25c253.png_80x80q80.png_.webp</v>
       </c>
       <c r="G29" t="str">
-        <v>VIVQ Y21</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>฿536.26</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v/>
+        <v>TONGBAO01 1ชิ้น2022ใหม่รองเท้ากอล์ฟ CS ตะปูหมุนเร็วอุปกรณ์ทำเล็บกอล์ฟ</v>
       </c>
       <c r="J29" t="str">
-        <v/>
+        <v>฿12.81</v>
       </c>
       <c r="K29" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="L29" t="str">
-        <v>ปทุมธานี</v>
+        <v>50% Off</v>
       </c>
       <c r="M29" t="str">
-        <v/>
+        <v>12 sold</v>
       </c>
       <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y53-i3141424355.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-knob-shoelaces-anti-side-slip-waterproof-mens-sports-shoes-black-sneakers-xz224-i4657528112.html</v>
       </c>
       <c r="B30" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/74ddbf7f013cd1e00d1c105816ab9135.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/cba14f4d36ddad636b657182da6b62fc.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C30" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y53-i3141424355.html</v>
+        <v/>
       </c>
       <c r="D30" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/74ddbf7f013cd1e00d1c105816ab9135.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E30" t="str">
         <v/>
@@ -1670,42 +1844,48 @@
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>โทรศัพท์รุ่น vivo y53</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>฿599.00</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>PGM Men Golf Shoes Knob Shoelaces Anti-side Slip Waterproof Men's Sports Shoes Black Sneakers XZ224</v>
       </c>
       <c r="J30" t="str">
-        <v>1,022 ชิ้น</v>
+        <v>฿1,398.00</v>
       </c>
       <c r="K30" t="str">
-        <v>(282)</v>
+        <v>Overseas</v>
       </c>
       <c r="L30" t="str">
-        <v>มหาสารคาม</v>
+        <v>10% Off</v>
       </c>
       <c r="M30" t="str">
         <v/>
       </c>
       <c r="N30" t="str">
+        <v>(1)</v>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y16-ram4gbrom64gb-651-5000mah-i4329568594.html</v>
+        <v>https://www.lazada.co.th/products/pgm-men-golf-shoes-exceed-xz079-i1424876706.html</v>
       </c>
       <c r="B31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b24d812600c0e1899e68891b6f9b67b8.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3a9dbc9726226301ba3645e58f2d8b03.png_200x200q80.png_.webp</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y16-ram4gbrom64gb-651-5000mah-i4329568594.html</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bbf8d8cfc30c100de249b64691afa87f.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -1714,174 +1894,198 @@
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>vivo Y16 RAM4GB+ROM64GB โทรศัพท์มือถือ วีโว่  จอ 6.51 นิ้ว แบตเตอรี่ 5000mAh</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>฿4,050.00</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>55% Off</v>
+        <v>รองเท้ากอล์ฟสำหรับสุภาพบุรุษ PGM Men Golf Shoes สีขาวแถบดำ Exceed- (XZ079)</v>
       </c>
       <c r="J31" t="str">
-        <v>6,628 ชิ้น</v>
+        <v>฿1,145.00</v>
       </c>
       <c r="K31" t="str">
-        <v>(512)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L31" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>13% Off</v>
       </c>
       <c r="M31" t="str">
-        <v/>
+        <v>25 sold</v>
       </c>
       <c r="N31" t="str">
+        <v>(7)</v>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128-i4884373714.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-breathable-2023-i4775461648.html</v>
       </c>
       <c r="B32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/24accf0a34afdd59f8a3c1a532465b95.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/5fb8e0a2451e21d3bf77dc10f81aa906.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C32" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128-i4884373714.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-breathable-2023-i4775461648.html</v>
       </c>
       <c r="D32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2a1b09143ea217f2afabf93c72fe275a.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/ee948294e5f312cb33aeada839f49c10.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/footjoy-breathable-2023-i4775461648.html</v>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/5fb8e0a2451e21d3bf77dc10f81aa906.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G32" t="str">
-        <v>OPPO A18 (4+128)</v>
+        <v>https://www.lazada.co.th/products/footjoy-breathable-2023-i4775461648.html</v>
       </c>
       <c r="H32" t="str">
-        <v>฿4,199.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/0298104db91e6f9bbfd9de88b879040c.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I32" t="str">
-        <v>7% Off</v>
+        <v>FootJoy new breathable golf shoes men Red Black outdoor lightweight quality golf sneakers men walking comfortable gym sneakers 2023</v>
       </c>
       <c r="J32" t="str">
-        <v>171 ชิ้น</v>
+        <v>฿299.00</v>
       </c>
       <c r="K32" t="str">
-        <v>(42)</v>
+        <v>Chachoengsao</v>
       </c>
       <c r="L32" t="str">
-        <v>ฉะเชิงเทรา</v>
+        <v>77% Off</v>
       </c>
       <c r="M32" t="str">
-        <v/>
+        <v>140 sold</v>
       </c>
       <c r="N32" t="str">
-        <v/>
+        <v>(44)</v>
+      </c>
+      <c r="O32" t="str">
+        <v>https://www.lazada.co.th/products/footjoy-breathable-2023-i4775461648.html</v>
+      </c>
+      <c r="P32" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/80b2348de890fff8917617dad7f79464.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y66-90-55-4-64usb-i4677229798.html</v>
+        <v>https://www.lazada.co.th/products/kito-be7-size-36-44-i4348262638.html</v>
       </c>
       <c r="B33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b364d597b9014490704097876a581d7f.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8f3972474b70cca121f273304829e936.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C33" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y66-90-55-4-64usb-i4677229798.html</v>
+        <v>https://www.lazada.co.th/products/kito-be7-size-36-44-i4348262638.html</v>
       </c>
       <c r="D33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/21c84cf05fd23fc4c9a3b09588357f02.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/10bce583e029217f4ec07fa7b1ddbffc.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E33" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y66-90-55-4-64usb-i4677229798.html</v>
+        <v>https://www.lazada.co.th/products/kito-be7-size-36-44-i4348262638.html</v>
       </c>
       <c r="F33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8b45e8b0719411365d099d1bed47b032.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/00fe6cf59fb29ec89bc5c7ed92cd00eb.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G33" t="str">
-        <v>VIVO Y66 สภาพสวย90 %หน้าจอ 5.5 นิ้ว แรม4 รอม64(ฟรีเคสมือถือ+หูฟัง+สายชาร์จUSB) ประกันร้าน พร้อมส่ง</v>
+        <v>https://www.lazada.co.th/products/kito-be7-size-36-44-i4348262638.html</v>
       </c>
       <c r="H33" t="str">
-        <v>฿890.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/10bce583e029217f4ec07fa7b1ddbffc.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I33" t="str">
-        <v>18% Off</v>
+        <v>รองเท้าผ้าใบ🔺Kito BE7🔺รองเท้า กีโต้ แท้ 💯% Size 36-44 รองเท้าผ้าใบชาย รองเท้าผ้าใบหญิง</v>
       </c>
       <c r="J33" t="str">
-        <v>208 ชิ้น</v>
+        <v>฿289.00</v>
       </c>
       <c r="K33" t="str">
-        <v>(73)</v>
+        <v>Nonthaburi</v>
       </c>
       <c r="L33" t="str">
-        <v>ชลบุรี</v>
+        <v/>
       </c>
       <c r="M33" t="str">
-        <v/>
+        <v>64 sold</v>
       </c>
       <c r="N33" t="str">
-        <v/>
+        <v>(19)</v>
+      </c>
+      <c r="O33" t="str">
+        <v>https://www.lazada.co.th/products/kito-be7-size-36-44-i4348262638.html</v>
+      </c>
+      <c r="P33" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/6a9df35152790032c086241ec3907549.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a3s-6-128-hd-62-81-1-i4580868208.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz066-i1424720018.html</v>
       </c>
       <c r="B34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/afbbe43aaae77bbf38b594503f5e58d9.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a86fd0839db79c515727bb98c6a31b64.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C34" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a3s-6-128-hd-62-81-1-i4580868208.html</v>
+        <v/>
       </c>
       <c r="D34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c3a870424c5760b8465018c34c0b11b3.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="E34" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a3s-6-128-hd-62-81-1-i4580868208.html</v>
+        <v/>
       </c>
       <c r="F34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2329b03a75d29d900c561fb1ebb5af88.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>มือถือ oppo A3s (แรม 6 รอม 128 ) จอHD 6.2 นิ้ว เอนดอย 8.1(ติดฟิล์มกระจกให้ฟรี+ฟรีเคสใส) รับประกันสินค้าจากทางร้าน 1 ปี.</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>฿1,450.00</v>
+        <v/>
       </c>
       <c r="I34" t="str">
+        <v>รองเท้ากอล์ฟ ยี่ห้อ PGM  รุ่น (XZ066) สีขาวแถบดำ</v>
+      </c>
+      <c r="J34" t="str">
+        <v>฿890.00</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Pathum Thani</v>
+      </c>
+      <c r="L34" t="str">
         <v>52% Off</v>
       </c>
-      <c r="J34" t="str">
-        <v>200 ชิ้น</v>
-      </c>
-      <c r="K34" t="str">
-        <v>(55)</v>
-      </c>
-      <c r="L34" t="str">
-        <v>ชลบุรี</v>
-      </c>
       <c r="M34" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a3s-6-128-hd-62-81-1-i4580868208.html</v>
+        <v/>
       </c>
       <c r="N34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3aad5edbe78bd306e3b8cf1924d3d04f.png_80x80q80.png_.webp</v>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.lazada.co.th/products/nokia-c2-01-2g-3g-100-1-ais-true-dtac-i4592649856.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz069-golf-shoes-gender-men-i1393270790.html</v>
       </c>
       <c r="B35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bc830626590632be40de4beff9b8a078.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a6189d4642a25d40abca37d7a992a2c0.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C35" t="str">
-        <v>https://www.lazada.co.th/products/nokia-c2-01-2g-3g-100-1-ais-true-dtac-i4592649856.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz069-golf-shoes-gender-men-i1393270790.html</v>
       </c>
       <c r="D35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/cc351073b30ec184bf3e350af362ab82.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/59ee9456bf1ddc251c8dc72002f18361.png_80x80q80.png_.webp</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1890,86 +2094,98 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>NOKIA C2-01 2G 3G โทรศัพท์มือถือแบบปุ่มกด ใช้งานง่าย พกพาสะดวก ของแท้ 100% ประกัน 1 ปี รองรับทุกเครือข่าย AIS TRUE DTAC</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>฿539.00</v>
+        <v/>
       </c>
       <c r="I35" t="str">
-        <v>23% Off</v>
+        <v>รองเท้ากอล์ฟสำหรับผู้ชาย PGM รุ่น (XZ069) สีขาวแถบดำ/สีขาว Golf Shoes Gender Men สินค้ามีพร้อมส่ง</v>
       </c>
       <c r="J35" t="str">
-        <v>566 ชิ้น</v>
+        <v>฿1,390.00</v>
       </c>
       <c r="K35" t="str">
-        <v>(211)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L35" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>26% Off</v>
       </c>
       <c r="M35" t="str">
-        <v/>
+        <v>5 sold</v>
       </c>
       <c r="N35" t="str">
+        <v>(4)</v>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.lazada.co.th/products/true-speedy-4g-i3141777698.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-i5029751914.html</v>
       </c>
       <c r="B36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ba053519a0853c14b5bb11eed02e711e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/6bb3b8e09adde565dd7956a2894d3133.jpg_webp_200x200q80.jpg_.webp</v>
       </c>
       <c r="C36" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-arrival-i5029751914.html</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/079a9681a7e4d46b5d3b8daaf4f7a24d.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-arrival-i5029751914.html</v>
       </c>
       <c r="F36" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/59fa1dc3dacc6e4ab35c5719aada969b.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="G36" t="str">
-        <v>True speedy 4g ใช้งานปกติ</v>
+        <v>https://www.lazada.co.th/products/new-arrival-i5029751914.html</v>
       </c>
       <c r="H36" t="str">
-        <v>฿269.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a1c2fb79c2df8738247be40eb8a87eb5.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>New Arrival รองเท้าผ้าใบ หนังวัวแท้ กันน้ํา เหมาะกับเล่นกอล์ฟ สําหรับผู้ชาย</v>
       </c>
       <c r="J36" t="str">
-        <v>263 ชิ้น</v>
+        <v>฿355.00</v>
       </c>
       <c r="K36" t="str">
-        <v>(70)</v>
+        <v>Roi Et</v>
       </c>
       <c r="L36" t="str">
-        <v>มหาสารคาม</v>
+        <v>53% Off</v>
       </c>
       <c r="M36" t="str">
         <v/>
       </c>
       <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.lazada.co.th/products/poco-m5s-8gb256gb-15-i4766488145.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz069-i1424690569.html</v>
       </c>
       <c r="B37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/176dd78e368ae45a55c279e16c740825.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9dff67cc26bfada8009ad477c44d4dda.png_200x200q80.png_.webp</v>
       </c>
       <c r="C37" t="str">
-        <v>https://www.lazada.co.th/products/poco-m5s-8gb256gb-15-i4766488145.html</v>
+        <v>https://www.lazada.co.th/products/pgm-xz069-i1424690569.html</v>
       </c>
       <c r="D37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d14fe19b7a1ea1afa8f6971532234fc4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/e739b3a53d6d71307bc872aea1dcb550.png_80x80q80.png_.webp</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1978,204 +2194,234 @@
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>POCO M5S 8GB+256GB รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H37" t="str">
-        <v>฿4,799.00</v>
+        <v/>
       </c>
       <c r="I37" t="str">
-        <v>40% Off</v>
+        <v>รองเท้ากอล์ฟ ยี่ห้อ PGM  รุ่น (XZ069) สีขาวแถบดำ/สีขาว</v>
       </c>
       <c r="J37" t="str">
-        <v>457 ชิ้น</v>
+        <v>฿990.00</v>
       </c>
       <c r="K37" t="str">
-        <v>(185)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L37" t="str">
-        <v>สมุทรปราการ</v>
+        <v>48% Off</v>
       </c>
       <c r="M37" t="str">
         <v/>
       </c>
       <c r="N37" t="str">
+        <v>(1)</v>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.lazada.co.th/products/nokia-c32-4-gb-3-gb-128gb-65-8mp-5000-mah-1-i4657169368.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-pigskin-mens-anti-mens-38-46-man-i4813344292.html</v>
       </c>
       <c r="B38" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6f7bbe8fc4dad29abc110c74724c041a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/aa7aa20e8c8a8f79cf318e6f768cb550.jpg_webp_200x200q80.jpg_.webp</v>
       </c>
       <c r="C38" t="str">
-        <v>https://www.lazada.co.th/products/nokia-c32-4-gb-3-gb-128gb-65-8mp-5000-mah-1-i4657169368.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-pigskin-mens-anti-mens-38-46-man-i4813344292.html</v>
       </c>
       <c r="D38" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/42c9030682eab0f531424125c13ffab0.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a4baeba03c7169922879a13d2bd8636d.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="E38" t="str">
-        <v>https://www.lazada.co.th/products/nokia-c32-4-gb-3-gb-128gb-65-8mp-5000-mah-1-i4657169368.html</v>
+        <v>https://www.lazada.co.th/products/footjoy-pigskin-mens-anti-mens-38-46-man-i4813344292.html</v>
       </c>
       <c r="F38" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/97aa81e7425ef586a067268483b905d2.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/aa7aa20e8c8a8f79cf318e6f768cb550.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="G38" t="str">
-        <v>Nokia C32 (4 GB เพิ่มได้อีก 3 GB /128GB) จอใหญ่ 6.5" กล้อง 8MP แบตฯ 5,000 mAh (เครื่องศูนย์ไทยรับประกัน 1 ปี)</v>
+        <v>https://www.lazada.co.th/products/footjoy-pigskin-mens-anti-mens-38-46-man-i4813344292.html</v>
       </c>
       <c r="H38" t="str">
-        <v>฿3,390.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9b9bf381fc9f2f4a6f3bc7ba858f4d2f.jpg_webp_80x80q80.jpg_.webp</v>
       </c>
       <c r="I38" t="str">
-        <v>6% Off</v>
+        <v>FOOTJOY~รองเท้ากอล์ฟสำหรับชาย Pigskin หนัง Mens รองเท้าผ้าใบ Anti-ลื่น Mens การฝึกอบรมกอล์ฟขนาดใหญ่ 38-46 รองเท้ากีฬา Man</v>
       </c>
       <c r="J38" t="str">
-        <v>51 ชิ้น</v>
+        <v>฿589.00</v>
       </c>
       <c r="K38" t="str">
-        <v>(19)</v>
+        <v>Overseas</v>
       </c>
       <c r="L38" t="str">
-        <v>นครราชสีมา</v>
+        <v>55% Off</v>
       </c>
       <c r="M38" t="str">
         <v/>
       </c>
       <c r="N38" t="str">
+        <v>(2)</v>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.lazada.co.th/products/aston-i4011057541.html</v>
+        <v>https://www.lazada.co.th/products/counter-genuine-crocs-literide-clog-mens-and-womens-sandals-204592-the-same-style-in-the-store-i4880852908.html</v>
       </c>
       <c r="B39" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S7d33c3b0d400439a8a2d59ff76384957i.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9434a7fea2013d296eb08845446c1999.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/counter-genuine-crocs-literide-clog-mens-and-womens-sandals-204592-the-same-style-in-the-store-i4880852908.html</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/4c1f94353ca38c4e03db5392a09b520a.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E39" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/counter-genuine-crocs-literide-clog-mens-and-womens-sandals-204592-the-same-style-in-the-store-i4880852908.html</v>
       </c>
       <c r="F39" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/b013281a7082c3daebe02cf8cc9ffed6.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G39" t="str">
-        <v>แบตเตอรี่สำหรับมือถือ ASTON สินค้าใหม่ แท้จากศูนย์</v>
+        <v>https://www.lazada.co.th/products/counter-genuine-crocs-literide-clog-mens-and-womens-sandals-204592-the-same-style-in-the-store-i4880852908.html</v>
       </c>
       <c r="H39" t="str">
-        <v>฿450.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/43d2b2e51c937213f99e751381f900eb.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>（Counter Genuine） CROCS LITERIDE CLOG Men's and Women's SANDALS 204592 รองเท้าวิ่ง รองเท้ากีฬา รองเท้าแตะ The Same Style In The Store</v>
       </c>
       <c r="J39" t="str">
-        <v>139 ชิ้น</v>
+        <v>฿1,370.00</v>
       </c>
       <c r="K39" t="str">
-        <v>(42)</v>
+        <v>Chiang Mai</v>
       </c>
       <c r="L39" t="str">
-        <v>พระนครศรีอยุธยา</v>
+        <v>51% Off</v>
       </c>
       <c r="M39" t="str">
-        <v/>
+        <v>29 sold</v>
       </c>
       <c r="N39" t="str">
-        <v/>
+        <v>(21)</v>
+      </c>
+      <c r="O39" t="str">
+        <v>https://www.lazada.co.th/products/counter-genuine-crocs-literide-clog-mens-and-womens-sandals-204592-the-same-style-in-the-store-i4880852908.html</v>
+      </c>
+      <c r="P39" t="str">
+        <v>https://lzd-img-global.slatic.net/g/p/2eb4a61fed107946ac5e85d3c1d89b9f.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-black-colour-xz017-size-eu-39-eu-44-i1421960237.html</v>
       </c>
       <c r="B40" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c91ab1d4b81ce40a3c5a3abe73a8fda6.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/ca798992a2fcedd425c86604c6ff60d9.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C40" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v>https://www.lazada.co.th/products/pgm-golf-shoes-black-colour-xz017-size-eu-39-eu-44-i1421960237.html</v>
       </c>
       <c r="D40" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f12d17af28b2e2cd31a97f0635394015.png_80x80q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/ca798992a2fcedd425c86604c6ff60d9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E40" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v/>
       </c>
       <c r="F40" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/79bd9db581f808ce8f7ce116958cf2d4.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>Samsung hero E1200 มือถือเครื่อง จอสี มือถือปุ่มกด ซัมซุง โทรศัพท์ซัมซุงรุ่นเก่า ลำโพงเสียงดัง</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>฿299.00</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>25% Off</v>
+        <v>รองเท้ากอล์ฟ PGM GOLF SHOES BLACK COLOUR  (XZ017) สีดำ/สีกากี SIZE EU: 39- EU: 44</v>
       </c>
       <c r="J40" t="str">
-        <v>217 ชิ้น</v>
+        <v>฿890.00</v>
       </c>
       <c r="K40" t="str">
-        <v>(35)</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="L40" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>55% Off</v>
       </c>
       <c r="M40" t="str">
         <v/>
       </c>
       <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-new4128gb-by-lazada-superiphone-i4881988481.html</v>
+        <v>https://www.lazada.co.th/products/2023-footjoy-anti-slip-mens-i4892653126.html</v>
       </c>
       <c r="B41" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/585d2f92f1740fab35c1f24f901c76b5.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/36b446044eeebaeb361420bbf08089a5.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-new4128gb-by-lazada-superiphone-i4881988481.html</v>
+        <v>https://www.lazada.co.th/products/2023-footjoy-anti-slip-mens-i4892653126.html</v>
       </c>
       <c r="D41" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/5b2f00b04098b92e267a09043d34f521.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/88895b20a24eae56759b6d8a4684e643.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-new4128gb-by-lazada-superiphone-i4881988481.html</v>
+        <v/>
       </c>
       <c r="F41" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9168643cda93f7219d21ad10ef38378f.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>Oppo A18 New!(4/128GB)ดีไซน์สวยบางเบา (By Lazada Superiphone)</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>฿3,911.00</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>15% Off</v>
+        <v>2023 Footjoyแท้ รองเท้ากอล์ฟรองเท้ากีฬาสำหรับผู้ชายลูกบิดหัวเข็มขัดรองเท้าระบายอากาศกันน้ำ Anti - SLIP Mens รองเท้าผ้าใบออกกำลังกาย</v>
       </c>
       <c r="J41" t="str">
-        <v>72 ชิ้น</v>
+        <v>฿1,389.00</v>
       </c>
       <c r="K41" t="str">
-        <v>(9)</v>
+        <v>Overseas</v>
       </c>
       <c r="L41" t="str">
-        <v>กรุงเทพมหานคร</v>
+        <v>56% Off</v>
       </c>
       <c r="M41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-new4128gb-by-lazada-superiphone-i4881988481.html</v>
+        <v/>
       </c>
       <c r="N41" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e19c048f8e9ac152bcf0531335bd1628.jpg_80x80q80.jpg_.webp</v>
+        <v>(1)</v>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Bot_lazada/Data_lazada/data_1_1_1.xlsx
+++ b/Bot_lazada/Data_lazada/data_1_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:J41"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,1799 +382,1307 @@
         <v>jBwCF src</v>
       </c>
       <c r="C1" t="str">
+        <v>RfADt</v>
+      </c>
+      <c r="D1" t="str">
+        <v>ooOxS</v>
+      </c>
+      <c r="E1" t="str">
+        <v>oa6ri</v>
+      </c>
+      <c r="F1" t="str">
+        <v>IcOsH</v>
+      </c>
+      <c r="G1" t="str">
         <v>uEds4 href</v>
       </c>
-      <c r="D1" t="str">
+      <c r="H1" t="str">
         <v>jBwCF src 2</v>
       </c>
-      <c r="E1" t="str">
+      <c r="I1" t="str">
         <v>uEds4 href 2</v>
       </c>
-      <c r="F1" t="str">
+      <c r="J1" t="str">
         <v>jBwCF src 3</v>
-      </c>
-      <c r="G1" t="str">
-        <v>RfADt</v>
-      </c>
-      <c r="H1" t="str">
-        <v>ooOxS</v>
-      </c>
-      <c r="I1" t="str">
-        <v>IcOsH</v>
-      </c>
-      <c r="J1" t="str">
-        <v>_1cEkb</v>
-      </c>
-      <c r="K1" t="str">
-        <v>qzqFw</v>
-      </c>
-      <c r="L1" t="str">
-        <v>oa6ri</v>
-      </c>
-      <c r="M1" t="str">
-        <v>uEds4 href 3</v>
-      </c>
-      <c r="N1" t="str">
-        <v>jBwCF src 4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
+        <v>https://www.lazada.co.th/products/realme-11-5g-8256-i5160024915.html</v>
       </c>
       <c r="B2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/507898edd9ddc2f0467a2a55ed7e09a0.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sa3a85fb656a44d4ba8fd79b46a7d6fadp.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
+        <v>‼️Realme 11 5G (8/256) เครื่องศูนย์เคลียร์สต็อค ‼️</v>
       </c>
       <c r="D2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dc5ac4bfc8f10e3b9a6bfaabe95f3d90.jpg_80x80q80.jpg_.webp</v>
+        <v>฿6,750.00</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
+        <v>Nonthaburi</v>
       </c>
       <c r="F2" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b085f57582df2e9b64e05c2728d5f3bf.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>[New] POCO X6 Pro 5G | 12GB+512GB |  โทรศัพท์มือถือ ชิปเซ็ท MediaTek Dimensity 8300-Ultra จอตอบสนองไว 120Hz ชาร์จเร็ว 67W 5000 mAh รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v>฿12,386.33</v>
+        <v/>
       </c>
       <c r="I2" t="str">
-        <v>11% Off</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>5.8K sold</v>
-      </c>
-      <c r="K2" t="str">
-        <v>(2536)</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.lazada.co.th/products/n-105d-i4494323788.html</v>
+        <v>https://www.lazada.co.th/products/8-64gbhexa-core-12mp-47-55-ios-touch-id-4g-ios-i5159944096.html</v>
       </c>
       <c r="B3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/7d6a5c3746b246545b97c7a29aa68ad5.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/1287a1880def5a39a208b13f7d53ef55.png_200x200q80.png_.webp</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.lazada.co.th/products/n-105d-i4494323788.html</v>
+        <v>8 64GBHexa Core 12MP 4.7 "/5.5" IOS Touch ID 4G Ios.</v>
       </c>
       <c r="D3" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/91871ebacd0ff9c220f42dc70e6942ae.jpg_80x80q80.jpg_.webp</v>
+        <v>฿3,200.00</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>Samut Prakan</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>39% Off</v>
       </c>
       <c r="G3" t="str">
-        <v>โทศัพท์มือถือ N 105D รุ่นใหม่ปุ่มกดตัวหนังสือใหญ่ใช้ได้ทุกเครือข่าย</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>฿264.00</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>47% Off</v>
+        <v/>
       </c>
       <c r="J3" t="str">
-        <v/>
-      </c>
-      <c r="K3" t="str">
-        <v/>
-      </c>
-      <c r="L3" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.lazada.co.th/products/l0255-0256-i2279100691.html</v>
+        <v>https://www.lazada.co.th/products/vivo-v15-6128-i5159844869.html</v>
       </c>
       <c r="B4" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dbb329ea944854cbee1cabb7fd60e11a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S75c79e06cc7f443e9dce868771e6a889I.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.lazada.co.th/products/l0255-0256-i2279100691.html</v>
+        <v>VIVO v15 แรม6รอม128</v>
       </c>
       <c r="D4" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dbb329ea944854cbee1cabb7fd60e11a.jpg_80x80q80.jpg_.webp</v>
+        <v>฿2,200.00</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Sisaket</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>📱ที่วางโทรศัพท์ ที่วางโทรศัพท์ติดผนัง โทรศัพท์ อเนกประสงค์ แบบติดผนัง 📱/L0255-0256</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>฿12.00</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>20% Off</v>
+        <v/>
       </c>
       <c r="J4" t="str">
-        <v>11 sold</v>
-      </c>
-      <c r="K4" t="str">
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M4" t="str">
-        <v/>
-      </c>
-      <c r="N4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.lazada.co.th/products/f7-100-ram-8gb-rom-256gb-623-i5019644624.html</v>
+        <v>https://www.lazada.co.th/products/6s-47-ios-64gb-rom-2gb-ram-12mp-4g-lte-i5159750542.html</v>
       </c>
       <c r="B5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/dcdb1578da80eaa91fe184dea6552247.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9afdfda78ba773ccf1e2d2958159b90c.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.lazada.co.th/products/f7-100-ram-8gb-rom-256gb-623-i5019644624.html</v>
+        <v>6S 4.7นิ้ว iOS เดิมปลดล็อคโทรศัพท์64GB ROM 2GB RAM 12mp 4G LTE โทรศัพท์มือถือ</v>
       </c>
       <c r="D5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/34aca3e5c30020fa95d4d7571a29fcb9.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,999.00</v>
       </c>
       <c r="E5" t="str">
-        <v>https://www.lazada.co.th/products/f7-100-ram-8gb-rom-256gb-623-i5019644624.html</v>
+        <v>Samut Prakan</v>
       </c>
       <c r="F5" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2711589fd63b33f88850d8b2ca48025c.jpg_80x80q80.jpg_.webp</v>
+        <v>31% Off</v>
       </c>
       <c r="G5" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ F7 ของเเท้100% RAM 8GB ROM 256GB หน้าจอ 6.23 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>฿1,850.00</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>72% Off</v>
+        <v/>
       </c>
       <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v/>
-      </c>
-      <c r="L5" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f079-i4889365048.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y27-sea-blue-ram-6-rom-128-2-used-i5159722877.html</v>
       </c>
       <c r="B6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sd5852b79d372404a948d2ea32b0a9178E.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/2f52f238723db90af4e8a6a2d65a0f1c.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f079-i4889365048.html</v>
+        <v>ขาย vivo Y27 สี Sea Blue รุ่นใหม่ สเปค RAM 6 ROM 128 เครื่อง 2 เดือน ครบกล่อง ประกันยาว USED</v>
       </c>
       <c r="D6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sd5852b79d372404a948d2ea32b0a9178E.jpg_80x80q80.jpg_.webp</v>
+        <v>฿3,990.00</v>
       </c>
       <c r="E6" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f079-i4889365048.html</v>
+        <v>Trang</v>
       </c>
       <c r="F6" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Safccc991b03e4a958ee92b947f898cadD.jpg_80x80q80.jpg_.webp</v>
+        <v>7% Off</v>
       </c>
       <c r="G6" t="str">
-        <v>โทรศัพท์มือถือ Hero E1205 ฮีโร่ มีวิทยุ FM รองรับ 3G/4G AIS/12 Call, True Move แป้มพิมพ์ไทย-อังกฤษ โทรศัพท์ปุ่มกด F079</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>฿199.00</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>69% Off</v>
+        <v/>
       </c>
       <c r="J6" t="str">
-        <v/>
-      </c>
-      <c r="K6" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="L6" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M6" t="str">
-        <v/>
-      </c>
-      <c r="N6" t="str">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v>https://www.lazada.co.th/products/7-plus-12mp-4g-lte-55-dual-core-ram-3gb-rom-32gb-nfc-i5159715256.html</v>
       </c>
       <c r="B7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/0b8cefca77b6bfe0a1458bd7bc6f536b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v>7 Plus โรงงานเดิมโทรศัพท์มือถือ12MP 4G LTE 5.5 "Dual Core RAM 3GB ROM 32GB โทรศัพท์มือถือ NFC</v>
       </c>
       <c r="D7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/41f52257bbda7d41e163eacb0e6c38bf.jpg_80x80q80.jpg_.webp</v>
+        <v>฿3,500.00</v>
       </c>
       <c r="E7" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v>Samut Prakan</v>
       </c>
       <c r="F7" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f49d1ef2f181ff89e3bc21c5620056d9.jpg_80x80q80.jpg_.webp</v>
+        <v>22% Off</v>
       </c>
       <c r="G7" t="str">
-        <v>POCO C65 8GB+256GB รุ่นใหม่ | รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>฿4,499.00</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>6% Off</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>2.6K sold</v>
-      </c>
-      <c r="K7" t="str">
-        <v>(467)</v>
-      </c>
-      <c r="L7" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M7" t="str">
-        <v/>
-      </c>
-      <c r="N7" t="str">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.lazada.co.th/products/a57-100-ram-6gb-rom-128gb-656-i5019601607.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-z-fold-4-5g-12512gb-i5159131019.html</v>
       </c>
       <c r="B8" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2f29acb893fd9ff5ba53b3671901fd4a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S0d86eb0a66d840ab94f51d2d2cca73132.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.lazada.co.th/products/a57-100-ram-6gb-rom-128gb-656-i5019601607.html</v>
+        <v>Samsung Galaxy Z Fold 4 5G 12/512GB</v>
       </c>
       <c r="D8" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/43d06cd39892f163cb12035661a46ca0.jpg_80x80q80.jpg_.webp</v>
+        <v>฿12,984.00</v>
       </c>
       <c r="E8" t="str">
-        <v>https://www.lazada.co.th/products/a57-100-ram-6gb-rom-128gb-656-i5019601607.html</v>
+        <v>Nakhon Ratchasima</v>
       </c>
       <c r="F8" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d9b754b441d4f8bde43eaceed56d7102.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ A57 ของเเท้100% RAM 6GB ROM 128GB หน้าจอ 6.56 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>฿2,952.00</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v>60% Off</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M8" t="str">
-        <v/>
-      </c>
-      <c r="N8" t="str">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-2-656-i5158573319.html</v>
       </c>
       <c r="B9" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/e83edcf0b92f13a0a67c53ea740eac7b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>สมาร์ทโฟน vivo Y18 (8+128GB) ประกันศูนย์ไทย 2 ปี ดีไซน์สวย หน้าจอขนาดกว้าง 6.56 นิ้ว</v>
       </c>
       <c r="D9" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_80x80q80.jpg_.webp</v>
+        <v>฿5,300.00</v>
       </c>
       <c r="E9" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-6gb128gb-mediatek-helio-g85-ai-3-50mp-15-i4920637430.html</v>
+        <v>Chaiyaphum</v>
       </c>
       <c r="F9" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_80x80q80.jpg_.webp</v>
+        <v>24% Off</v>
       </c>
       <c r="G9" t="str">
-        <v>POCO C65 6GB+128GB ชิปเซ็ตทรงพลัง MediaTek Helio G85 กล้อง AI 3 ตัว 50MP | รับประกัน 15 เดือน</v>
+        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-2-656-i5158573319.html</v>
       </c>
       <c r="H9" t="str">
-        <v>฿3,499.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3d6d5600ae46087c05f3d988bd00ba71.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I9" t="str">
-        <v>8% Off</v>
+        <v/>
       </c>
       <c r="J9" t="str">
-        <v>6.3K sold</v>
-      </c>
-      <c r="K9" t="str">
-        <v>(2169)</v>
-      </c>
-      <c r="L9" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M9" t="str">
-        <v/>
-      </c>
-      <c r="N9" t="str">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a18-4128-l-5000mah-ram-4gb-8-mp-12-i4832817023.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a60-1-i5157626503.html</v>
       </c>
       <c r="B10" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/fd7f6a5efbaf0b59e715e4f08ba0b600.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/69940dff83c1e10ec76ae80093e585e6.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a18-4128-l-5000mah-ram-4gb-8-mp-12-i4832817023.html</v>
+        <v>OPPO A38 (6/128GB) สินค้ารับประกันศูนย์ 1 ปี แถมฟรีประกันจอแตก</v>
       </c>
       <c r="D10" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/270ea5d0f1e6529b3d77f7bd92ee9b54.jpg_80x80q80.jpg_.webp</v>
+        <v>฿5,999.00</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>Pathum Thani</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>[New] OPPO A18 (4+128) l โทรศัพท์มือถือ แบตใหญ่ 5,000mAh ขยาย RAM ได้ 4GB กล้อง 8 MP รับประกัน 12 เดือน</v>
+        <v>https://www.lazada.co.th/products/oppo-a60-1-i5157626503.html</v>
       </c>
       <c r="H10" t="str">
-        <v>฿3,501.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/494197e66c643594f1a98a814ff52e6d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I10" t="str">
-        <v>22% Off</v>
+        <v/>
       </c>
       <c r="J10" t="str">
-        <v>3.9K sold</v>
-      </c>
-      <c r="K10" t="str">
-        <v>(860)</v>
-      </c>
-      <c r="L10" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a57-ram464gb1-5000-mah-33w-i4202059662.html</v>
+        <v>https://www.lazada.co.th/products/huawei-y6-2019-i5156901270.html</v>
       </c>
       <c r="B11" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a02738c55cdc316a9249e7aac313495b.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3d17c2bc9682c60ed10147d3e423cae4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>huawei y6 2019 มือถือพร้อมใช้</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>฿950.00</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>Maha Sarakham</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>Oppo A57 Ram4/64gb(Brand new&amp;Official product)</v>
+        <v>https://www.lazada.co.th/products/huawei-y6-2019-i5156901270.html</v>
       </c>
       <c r="H11" t="str">
-        <v>฿4,180.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3d17c2bc9682c60ed10147d3e423cae4.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I11" t="str">
-        <v>34% Off</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>76 sold</v>
-      </c>
-      <c r="K11" t="str">
-        <v>(27)</v>
-      </c>
-      <c r="L11" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y27s-8256gb-1-i4982694665.html</v>
+        <v>https://www.lazada.co.th/products/samsung-j7-prime-i5156680263.html</v>
       </c>
       <c r="B12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8d6d92582dc85db2f04c17808412e231.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/23432863da8967ff69aa89be9ef3b45d.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C12" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y27s-8256gb-1-i4982694665.html</v>
+        <v>Samsung j7 prime มือถือพร้อมใช้</v>
       </c>
       <c r="D12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/353ed060d04a791d8341bd6cfab2f58b.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,450.00</v>
       </c>
       <c r="E12" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y27s-8256gb-1-i4982694665.html</v>
+        <v>Maha Sarakham</v>
       </c>
       <c r="F12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c69b3e6bc004f3e62966d5a9fb8ddc30.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>VIVO Y27S (8/256GB) สมาร์ทโฟน โทรศัพท์มือถือ รับประกันศูนย์ 1 ปี แถมฟรีประกันจอแตก</v>
+        <v>https://www.lazada.co.th/products/samsung-j7-prime-i5156680263.html</v>
       </c>
       <c r="H12" t="str">
-        <v>฿6,499.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/23432863da8967ff69aa89be9ef3b45d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I12" t="str">
-        <v>7% Off</v>
+        <v>https://www.lazada.co.th/products/samsung-j7-prime-i5156680263.html</v>
       </c>
       <c r="J12" t="str">
-        <v>5 sold</v>
-      </c>
-      <c r="K12" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="L12" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M12" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y27s-8256gb-1-i4982694665.html</v>
-      </c>
-      <c r="N12" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/19db0f5afc1ab824f4e67534948480e4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/23432863da8967ff69aa89be9ef3b45d.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.lazada.co.th/products/case-for-vivo-y27s-y27-4gy27-5g-y36-5gy78-v27-5gv27pro-v29-y21-2021y21ty33sy33tt1x-y02-y02a-y02s-y02t-y20-y12a-y12s-y3s-y16-y22-y35-y15s-y17s-y01-029-ja-i5106160466.html</v>
+        <v>https://www.lazada.co.th/products/honor-x8b-8512gb-67-50-selfie-light-4500-mah-499-remax-199-i5156330827.html</v>
       </c>
       <c r="B13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c795ad9147b03c232f0bb448cee74eb1.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/a690173378cea6dc5a03fe942be99175.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.lazada.co.th/products/case-for-vivo-y27s-y27-4gy27-5g-y36-5gy78-v27-5gv27pro-v29-y21-2021y21ty33sy33tt1x-y02-y02a-y02s-y02t-y20-y12a-y12s-y3s-y16-y22-y35-y15s-y17s-y01-029-ja-i5106160466.html</v>
+        <v>พร้อมส่งHONOR X8b (8/512GB) จอ 6.7" กล้อง 50 ล้านพิกเซล พร้อม Selfie Light  แบต 4500 mah ฟรี แก้วเก็บอุณหภูมิ มูลค่า 499.- + พัดลมมือถือ Remax 199.-</v>
       </c>
       <c r="D13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a998a2f931b6844f31ec3edbc8ffd6b4.jpg_80x80q80.jpg_.webp</v>
+        <v>฿7,690.00</v>
       </c>
       <c r="E13" t="str">
-        <v>https://www.lazada.co.th/products/case-for-vivo-y27s-y27-4gy27-5g-y36-5gy78-v27-5gv27pro-v29-y21-2021y21ty33sy33tt1x-y02-y02a-y02s-y02t-y20-y12a-y12s-y3s-y16-y22-y35-y15s-y17s-y01-029-ja-i5106160466.html</v>
+        <v>Nakhon Ratchasima</v>
       </c>
       <c r="F13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a998a2f931b6844f31ec3edbc8ffd6b4.jpg_80x80q80.jpg_.webp</v>
+        <v>4% Off</v>
       </c>
       <c r="G13" t="str">
-        <v>Case For VIVO Y27S Y27 4G/Y27 5G Y36 5G/Y78 V27 5G/V27Pro V29 Y21 2021/Y21T/Y33S/Y33T/T1X Y02 Y02A Y02S Y02T Y20 Y12A Y12S Y3S Y16 Y22 Y35 Y15S Y17S Y01 เคสลายการ์ตูน ผืวด้าน 029 JA</v>
+        <v>https://www.lazada.co.th/products/honor-x8b-8512gb-67-50-selfie-light-4500-mah-499-remax-199-i5156330827.html</v>
       </c>
       <c r="H13" t="str">
-        <v>฿59.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/59a6714282895f87292cdbec3af66926.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I13" t="str">
-        <v>63% Off</v>
+        <v/>
       </c>
       <c r="J13" t="str">
         <v/>
-      </c>
-      <c r="K13" t="str">
-        <v/>
-      </c>
-      <c r="L13" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M13" t="str">
-        <v>https://www.lazada.co.th/products/case-for-vivo-y27s-y27-4gy27-5g-y36-5gy78-v27-5gv27pro-v29-y21-2021y21ty33sy33tt1x-y02-y02a-y02s-y02t-y20-y12a-y12s-y3s-y16-y22-y35-y15s-y17s-y01-029-ja-i5106160466.html</v>
-      </c>
-      <c r="N13" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a998a2f931b6844f31ec3edbc8ffd6b4.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.lazada.co.th/products/a-ones6518-i4189743661.html</v>
+        <v>https://www.lazada.co.th/products/20-realme-c65-4g-6128-8256gb-1-i5156288270.html</v>
       </c>
       <c r="B14" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S085d6f9736844b5f9f23ff62375d87ec9.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/4076e638bfd430b26d643fc7ba85464f.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C14" t="str">
-        <v/>
+        <v>พรีออเดอร์ พร้อมจัดส่ง 20 พ.ค. Realme C65 4G (6/128 , 8/256GB) เครื่องศูนย์ไทย รับประกัน 1 ปี</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>฿6,499.00</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>Suphanburi</v>
       </c>
       <c r="F14" t="str">
-        <v/>
+        <v>46% Off</v>
       </c>
       <c r="G14" t="str">
-        <v>จอชุดลาวา a-one s6501/s6518</v>
+        <v>https://www.lazada.co.th/products/20-realme-c65-4g-6128-8256gb-1-i5156288270.html</v>
       </c>
       <c r="H14" t="str">
-        <v>฿980.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/42eb0a8b3c1898d7936c947f2b816553.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I14" t="str">
-        <v>1% Off</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>98 sold</v>
-      </c>
-      <c r="K14" t="str">
-        <v>(28)</v>
-      </c>
-      <c r="L14" t="str">
-        <v>Nakhon Phanom</v>
-      </c>
-      <c r="M14" t="str">
-        <v/>
-      </c>
-      <c r="N14" t="str">
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.lazada.co.th/products/y17-100-ram-8gb-rom-256gb-635-i5019619509.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-pro-5g-12512gb-15-i5156119861.html</v>
       </c>
       <c r="B15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a4fc6ae1e4bc77a3c80b1eca7472279f.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/7ee4926420df9915089c2f207cf69fbd.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C15" t="str">
-        <v>https://www.lazada.co.th/products/y17-100-ram-8gb-rom-256gb-635-i5019619509.html</v>
+        <v>Xiaomi redmi note 13 pro 5G (12/512GB) เครื่องศูนย์ไทย รับประกัน 15 เดือน</v>
       </c>
       <c r="D15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/d617fb33932fbad770fd99aec20ac7a4.jpg_80x80q80.jpg_.webp</v>
+        <v>฿12,990.00</v>
       </c>
       <c r="E15" t="str">
-        <v>https://www.lazada.co.th/products/y17-100-ram-8gb-rom-256gb-635-i5019619509.html</v>
+        <v>Suphanburi</v>
       </c>
       <c r="F15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e21ca74b9e41c9d9f43746e523a7ad50.jpg_80x80q80.jpg_.webp</v>
+        <v>24% Off</v>
       </c>
       <c r="G15" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ Y17 ของเเท้100% RAM 8GB ROM 256GB หน้าจอ 6.35 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-pro-5g-12512gb-15-i5156119861.html</v>
       </c>
       <c r="H15" t="str">
-        <v>฿2,180.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/6b22064df49ccaa30521aaf64df2fd73.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I15" t="str">
-        <v>67% Off</v>
+        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-13-pro-5g-12512gb-15-i5156119861.html</v>
       </c>
       <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M15" t="str">
-        <v>https://www.lazada.co.th/products/y17-100-ram-8gb-rom-256gb-635-i5019619509.html</v>
-      </c>
-      <c r="N15" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9feae02b1db655d099cce91ada441efa.jpg_80x80q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/d370bb73fba5979692b00e6c60ad8f04.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a38-6128gb-1-by-jaymart-i5068861391.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-1-i5156118314.html</v>
       </c>
       <c r="B16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a0f7d0c3170fe38370e51980f387cbf8.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/8ff2f2012433134c776e6d2b810aa5e1.png_200x200q80.png_.webp</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a38-6128gb-1-by-jaymart-i5068861391.html</v>
+        <v>มือถือ Vivo Y18 ความจุ 8+128GB (รับประกันศูนย์ 1 ปี)</v>
       </c>
       <c r="D16" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f4de37846df1f3d2e055394f6c77e334.jpg_80x80q80.jpg_.webp</v>
+        <v>฿5,349.00</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>Chiang Rai</v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v>11% Off</v>
       </c>
       <c r="G16" t="str">
-        <v>OPPO A38 (6/128GB) (รับประกันศูนย์ 1 ปี) By Jaymart</v>
+        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-1-i5156118314.html</v>
       </c>
       <c r="H16" t="str">
-        <v>฿4,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/afe07057998b30deaa41aefb8b03601a.png_80x80q80.png_.webp</v>
       </c>
       <c r="I16" t="str">
         <v/>
       </c>
       <c r="J16" t="str">
-        <v>9 sold</v>
-      </c>
-      <c r="K16" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="L16" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128g-coloros-131-656-5000mah-type-c-90hz-i4888828636.html</v>
+        <v>https://www.lazada.co.th/products/realme-c3-i5156090410.html</v>
       </c>
       <c r="B17" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/53c7f6f6dd63a57cfc9aa9cf7e47c3d4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/15c6ef4ef6c75d8e581e41ff87efda94.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C17" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4g-4128g-coloros-131-656-5000mah-type-c-90hz-i4888828636.html</v>
+        <v>Realme c3 มือถือพร้อมใช้</v>
       </c>
       <c r="D17" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/a795ee292e9f579caf0870cc7e533c43.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,590.00</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>Maha Sarakham</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>OPPO A18 4G 4+128G ColorOS 13.1 6.56'' หน้าจอโทรศัพท์มือถือ แบตเตอรี่ 5000mAh Type-C ชาร์จไว 90Hz</v>
+        <v>https://www.lazada.co.th/products/realme-c3-i5156090410.html</v>
       </c>
       <c r="H17" t="str">
-        <v>฿4,090.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/15c6ef4ef6c75d8e581e41ff87efda94.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I17" t="str">
-        <v>42% Off</v>
+        <v/>
       </c>
       <c r="J17" t="str">
-        <v>464 sold</v>
-      </c>
-      <c r="K17" t="str">
-        <v>(49)</v>
-      </c>
-      <c r="L17" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
+        <v>https://www.lazada.co.th/products/itel-a26-571-i5156087336.html</v>
       </c>
       <c r="B18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ae8878a1b1ab7dbc3b693631f796e015.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S414d56a9b4d841c395fca44e325de24cd.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C18" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
+        <v>itel a26 จอกว้าง5.71สภาพดี พร้อมส่งแถมชุดชาร์จ</v>
       </c>
       <c r="D18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/51f0cb8da4f0e5195075fbea5a488c77.jpg_80x80q80.jpg_.webp</v>
+        <v>฿869.00</v>
       </c>
       <c r="E18" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
+        <v>Maha Sarakham</v>
       </c>
       <c r="F18" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/35a80cafd9479a70abacf9bf3e99dad4.jpg_80x80q80.jpg_.webp</v>
+        <v>2% Off</v>
       </c>
       <c r="G18" t="str">
-        <v>[New] POCO M6 Pro 8GB+256GB/12GB+512GB |ชิปเซ็ท MediaTek Helio G99-Ultra จอตอบสนองไว 120Hz กล้อง 64MP รับประกัน 15 เดือน</v>
+        <v>https://www.lazada.co.th/products/itel-a26-571-i5156087336.html</v>
       </c>
       <c r="H18" t="str">
-        <v>฿6,900.00</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S1294140985cd45998b93f6819945bc7cU.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I18" t="str">
-        <v>14% Off</v>
+        <v/>
       </c>
       <c r="J18" t="str">
-        <v>1.2K sold</v>
-      </c>
-      <c r="K18" t="str">
-        <v>(544)</v>
-      </c>
-      <c r="L18" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.lazada.co.th/products/ip-x-xr-ix-64gb-128g-256gb-model-lla-1-i5137916945.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a52-5g-i5155592274.html</v>
       </c>
       <c r="B19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c5c0d914d1e216dff22a2c0d9e2b096f.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sc05eb98dc636420a875fdc99a2469547e.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C19" t="str">
-        <v>https://www.lazada.co.th/products/ip-x-xr-ix-64gb-128g-256gb-model-lla-1-i5137916945.html</v>
+        <v>‼️Samsung Galaxy A52 5G เครื่องศูนย์ เคลียร์สต็อค‼️</v>
       </c>
       <c r="D19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c5c0d914d1e216dff22a2c0d9e2b096f.jpg_80x80q80.jpg_.webp</v>
+        <v>฿6,950.00</v>
       </c>
       <c r="E19" t="str">
-        <v>https://www.lazada.co.th/products/ip-x-xr-ix-64gb-128g-256gb-model-lla-1-i5137916945.html</v>
+        <v>Nonthaburi</v>
       </c>
       <c r="F19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/20d3d7748132048bc49e01457cb90c0d.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>ipมือถือเครื่องแท้ X XR ix 64GB 128g 256GB เครื่องไทยแท้ Model LL/A ประกันร้าน1ป</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>฿6,599.00</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>48% Off</v>
+        <v/>
       </c>
       <c r="J19" t="str">
         <v/>
-      </c>
-      <c r="K19" t="str">
-        <v/>
-      </c>
-      <c r="L19" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M19" t="str">
-        <v>https://www.lazada.co.th/products/ip-x-xr-ix-64gb-128g-256gb-model-lla-1-i5137916945.html</v>
-      </c>
-      <c r="N19" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c5c0d914d1e216dff22a2c0d9e2b096f.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-13c-6gb128gb8gb256gb-5000mah-15-90hz-fhd-i4977556473.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y27-4g-ram6-rom128-i5155548427.html</v>
       </c>
       <c r="B20" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c1eebd7991c62194cab6a1abd32d79cb.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S7e057ca5a548403e8fe8b587824a4c44U.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C20" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-13c-6gb128gb8gb256gb-5000mah-15-90hz-fhd-i4977556473.html</v>
+        <v>‼️Vivo Y27 4G Ram6 Rom128 เครื่องศูนย์เคลียนสต็อค ‼️</v>
       </c>
       <c r="D20" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/1ca2eff1a0b4738b0e92b945b2bd396a.jpg_80x80q80.jpg_.webp</v>
+        <v>฿4,190.00</v>
       </c>
       <c r="E20" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-13c-6gb128gb8gb256gb-5000mah-15-90hz-fhd-i4977556473.html</v>
+        <v>Nonthaburi</v>
       </c>
       <c r="F20" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c7540a0dc1d51f69ed42416ff086f099.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>【สต็อกพร้อม】Xiaomi Redmi 13C 6GB+128GB/8GB+256GB โทรศัพท์มือถือ แบตเตอรี่ 5000mAh รับประกัน 15 เดือน 90Hz FHD+ สมาร์ทโฟน รุ่นประหยัดพลังงาน</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>฿3,999.00</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v>33% Off</v>
+        <v/>
       </c>
       <c r="J20" t="str">
-        <v>502 sold</v>
-      </c>
-      <c r="K20" t="str">
-        <v>(256)</v>
-      </c>
-      <c r="L20" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
         <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.lazada.co.th/products/spark-20c-4gb256gb-5000-mah-18w-13-i5092358554.html</v>
+        <v>https://www.lazada.co.th/products/zte-blade-a54-4128gb-66-hd-l-android-13t-l-13mp-afai-5000-mah-18-i5155400184.html</v>
       </c>
       <c r="B21" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9ae961fcb0c18145042607be430b90b6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/afe0916505fdd8b204015ee481e82010.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C21" t="str">
-        <v>https://www.lazada.co.th/products/spark-20c-4gb256gb-5000-mah-18w-13-i5092358554.html</v>
+        <v>ZTE Blade A54 (4+128GB) จอ 6.6” HD+ l Android 13(T) l กล้อง13MP AF+AI แบตเตอรี่ 5000 mAh รับประกันศูนย์ไทย 18 เดือน</v>
       </c>
       <c r="D21" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ed297e09dc3264d669dc1e74889d3ba8.jpg_80x80q80.jpg_.webp</v>
+        <v>฿2,599.00</v>
       </c>
       <c r="E21" t="str">
-        <v>https://www.lazada.co.th/products/spark-20c-4gb256gb-5000-mah-18w-13-i5092358554.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F21" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/5d1d5a057dcdc8c1e4d99fbb1045040c.jpg_80x80q80.jpg_.webp</v>
+        <v>13% Off</v>
       </c>
       <c r="G21" t="str">
-        <v>มือถือ Spark 20C (4GB+256GB) แบตเตอร์รี่ 5000 mAh 18W รับประกัน 13 เดือน</v>
+        <v>https://www.lazada.co.th/products/zte-blade-a54-4128gb-66-hd-l-android-13t-l-13mp-afai-5000-mah-18-i5155400184.html</v>
       </c>
       <c r="H21" t="str">
-        <v>฿3,348.01</v>
+        <v>https://lzd-img-global.slatic.net/g/p/5d5b1eaaeddd6fe06609ed2d87f0c806.png_80x80q80.png_.webp</v>
       </c>
       <c r="I21" t="str">
-        <v>2% Off</v>
+        <v>https://www.lazada.co.th/products/zte-blade-a54-4128gb-66-hd-l-android-13t-l-13mp-afai-5000-mah-18-i5155400184.html</v>
       </c>
       <c r="J21" t="str">
-        <v>5 sold</v>
-      </c>
-      <c r="K21" t="str">
-        <v>(4)</v>
-      </c>
-      <c r="L21" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
-      <c r="N21" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/3b465cab4e369bb8834b800505a98259.png_80x80q80.png_.webp</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128gb-656-8-2mp-depth-dual-camera-5000-mah-i4970044394.html</v>
+        <v>https://www.lazada.co.th/products/y71-i5155358201.html</v>
       </c>
       <c r="B22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c98f4773fb7892106c6e8ed4bf07d726.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/S6e4f5399b51446678eb0b8c208bf24798.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C22" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128gb-656-8-2mp-depth-dual-camera-5000-mah-i4970044394.html</v>
+        <v>วีโว้ y71 มือ✌️พร้อมใช้ งานแท้มีระบบสแกนใบหน้าแถมฟรีชุดชาร์จ</v>
       </c>
       <c r="D22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/350c5f0031874a0eacbc513728428d0d.png_80x80q80.png_.webp</v>
+        <v>฿990.00</v>
       </c>
       <c r="E22" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128gb-656-8-2mp-depth-dual-camera-5000-mah-i4970044394.html</v>
+        <v>Maha Sarakham</v>
       </c>
       <c r="F22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/9f71673356ac8229e83d6b49cf2ff5b7.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>OPPO A18 - ออปโป้ 4+128GB จอ6.56 นิ้ว กล้อง 8 + 2MP Depth ล้าน Dual Camera แบต5,000 mAh</v>
+        <v>https://www.lazada.co.th/products/y71-i5155358201.html</v>
       </c>
       <c r="H22" t="str">
-        <v>฿3,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Se64c9ea234494046aba8a37ab487efd3g.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I22" t="str">
         <v/>
       </c>
       <c r="J22" t="str">
-        <v>76 sold</v>
-      </c>
-      <c r="K22" t="str">
-        <v>(12)</v>
-      </c>
-      <c r="L22" t="str">
-        <v>Nakhon Si Thammarat</v>
-      </c>
-      <c r="M22" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-4128gb-656-8-2mp-depth-dual-camera-5000-mah-i4970044394.html</v>
-      </c>
-      <c r="N22" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/350c5f0031874a0eacbc513728428d0d.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.lazada.co.th/products/l-kaiy-1-i2500065714.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
       </c>
       <c r="B23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/de6dbe75c6dbaa2ed88ded2d7b6368cc.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c476dddd9d3b8f51d60cea30cf0a81f2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.lazada.co.th/products/l-kaiy-1-i2500065714.html</v>
+        <v>vivo Y03 (4+64/4+128G) จอ 6.56นิ้ว เครื่องแท้ศูนย์ไทย Ram4GB+Rom64GB เเบตเตอรี่ 5000mAh อุปกรณ์ครบชุด</v>
       </c>
       <c r="D23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/de6dbe75c6dbaa2ed88ded2d7b6368cc.png_80x80q80.png_.webp</v>
+        <v>฿4,699.00</v>
       </c>
       <c r="E23" t="str">
-        <v>https://www.lazada.co.th/products/l-kaiy-1-i2500065714.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F23" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/ac9621494b413e58960a80ab681575aa.png_80x80q80.png_.webp</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>ซองมือถือL KAIY (สำหรับใส่มือถือ 1เครื่อง)</v>
+        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
       </c>
       <c r="H23" t="str">
-        <v>฿450.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/65137cd13302562cb53ff4259e4dd533.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I23" t="str">
         <v/>
       </c>
       <c r="J23" t="str">
-        <v>90 sold</v>
-      </c>
-      <c r="K23" t="str">
-        <v>(42)</v>
-      </c>
-      <c r="L23" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a38-6128gb-1-i5083553549.html</v>
+        <v>https://www.lazada.co.th/products/moondrop-5g-miad01-i5154887005.html</v>
       </c>
       <c r="B24" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/899a0b63058ec9a7cc7dbe06afbc003f.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/bcd038bda74f06bb3ba6d6c2d62e7173.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C24" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a38-6128gb-1-i5083553549.html</v>
+        <v>MOONDROP MIAD01 5G Mobile Smartphone HiFi Audio Device</v>
       </c>
       <c r="D24" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/899a0b63058ec9a7cc7dbe06afbc003f.jpg_80x80q80.jpg_.webp</v>
+        <v>฿18,095.00</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>15% Off</v>
       </c>
       <c r="G24" t="str">
-        <v>OPPO A38 (6/128GB) สินค้ารับประกันศูนย์ 1 ปี แถมฟรีประกันจอแตก</v>
+        <v/>
       </c>
       <c r="H24" t="str">
-        <v>฿5,044.00</v>
+        <v/>
       </c>
       <c r="I24" t="str">
-        <v>16% Off</v>
+        <v/>
       </c>
       <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>https://www.lazada.co.th/products/s24-5g-75hd2-16512gb-3658mp-4g5g-smartphone-android-120-mobile-phone-1-i5154813071.html</v>
       </c>
       <c r="B25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3c2f42a7978c3853a3d57c1d02636b8e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/2bfe4bf0d9f0f3456766bd6ec7ad8290.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C25" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>โทรศัพท์มือถือ S24 มือถือ 5G 7.5HD+รองรับ2ซิม 16+512GB 36+58MP 4G5G โทรศัพท์ Smartphone โทรศัพท์ถูกๆ Android 12.0 Mobile phone โทรศัพท์ถูกๆ รองรับทุกซิมการ์ดในไทย รับประกัน1ปี โทรศัพท์มือถือโทรศัพท์เล่นเกม</v>
       </c>
       <c r="D25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3c2f42a7978c3853a3d57c1d02636b8e.jpg_80x80q80.jpg_.webp</v>
+        <v>฿999.00</v>
       </c>
       <c r="E25" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="F25" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3c2f42a7978c3853a3d57c1d02636b8e.jpg_80x80q80.jpg_.webp</v>
+        <v>71% Off</v>
       </c>
       <c r="G25" t="str">
-        <v>[NEW] Xiaomi Redmi 13C 6GB+128GB / 8+256GB โทรศัพท์มือถือ แบตเตอรี่ 5000mAh รับประกัน 15 เดือน 90Hz FHD+</v>
+        <v>https://www.lazada.co.th/products/s24-5g-75hd2-16512gb-3658mp-4g5g-smartphone-android-120-mobile-phone-1-i5154813071.html</v>
       </c>
       <c r="H25" t="str">
-        <v>฿3,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/2bfe4bf0d9f0f3456766bd6ec7ad8290.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I25" t="str">
-        <v>40% Off</v>
+        <v>https://www.lazada.co.th/products/s24-5g-75hd2-16512gb-3658mp-4g5g-smartphone-android-120-mobile-phone-1-i5154813071.html</v>
       </c>
       <c r="J25" t="str">
-        <v>869 sold</v>
-      </c>
-      <c r="K25" t="str">
-        <v>(252)</v>
-      </c>
-      <c r="L25" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/2bfe4bf0d9f0f3456766bd6ec7ad8290.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-16-512gb-65-5000mah-5g-android-phone-andorid120-cod-i5154690288.html</v>
       </c>
       <c r="B26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6e0e07b9ee230e71bcc2c38b6a88301b.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/2925c91d3f99fa682f92c73d4e1937ea.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v>Samsung Galaxy S24 Original Phone 16+512GB 6.5inch 5000mAh 5G Android Mobile Phone Andorid12.0 Free Shipping, Support Cheap Thai Game Phones, Support Thai Language, Phones, Electronic Products, Electronic Student Phones Ready Stock Sale COD</v>
       </c>
       <c r="D26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/f7422e3ca44418fda13c99e74c0c23ac.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,599.00</v>
       </c>
       <c r="E26" t="str">
-        <v>https://www.lazada.co.th/products/y93-100-ram-6gb-rom-128gb-622-i5019608541.html</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="F26" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/b3ee41ce220c0751066be8e43c1f4531.jpg_80x80q80.jpg_.webp</v>
+        <v>77% Off</v>
       </c>
       <c r="G26" t="str">
-        <v>[พร้อมส่ง] โทรศัพท์มือถือ Y93 ของเเท้100% RAM 6GB ROM 128GB หน้าจอ 6.22 นิ้ว ประกันร้าน เเถมฟรีเคสใส+ฟิล์มกระจก</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-16-512gb-65-5000mah-5g-android-phone-andorid120-cod-i5154690288.html</v>
       </c>
       <c r="H26" t="str">
-        <v>฿1,590.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/ec1f8c0161e79889785a528565355aaa.png_80x80q80.png_.webp</v>
       </c>
       <c r="I26" t="str">
-        <v>76% Off</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-16-512gb-65-5000mah-5g-android-phone-andorid120-cod-i5154690288.html</v>
       </c>
       <c r="J26" t="str">
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <v>(2)</v>
-      </c>
-      <c r="L26" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/8ac213aaae7d5124ef6f9a2ecd90ac57.png_80x80q80.png_.webp</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-a54-ram4gb-rom128gb-66-4g-18-i4914895002.html</v>
+        <v>https://www.lazada.co.th/products/zte-blade-a72-5g-464gb-65-hd-l-mtk-dimensity700-l-13m2m2m-l-battery-4000mah-18-i5154661791.html</v>
       </c>
       <c r="B27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/3fc2a45329618614eb1286150fd2364f.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/46e32633e275d98cb890ee53fe0250e9.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-a54-ram4gb-rom128gb-66-4g-18-i4914895002.html</v>
+        <v>ZTE Blade A72 5G (4+64GB) หน้าจอ 6.5" HD+ l MTK Dimensity700 l กล้อง 13M+2M+2M l Battery 4000mAh รับประกันศูนย์ไทย 18 เดือน</v>
       </c>
       <c r="D27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/260524a6dc007fac3e6559cc06fda0d9.jpg_80x80q80.jpg_.webp</v>
+        <v>฿2,999.00</v>
       </c>
       <c r="E27" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-a54-ram4gb-rom128gb-66-4g-18-i4914895002.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F27" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/643c335f106935b498796c765e17ca02.jpg_80x80q80.jpg_.webp</v>
+        <v>50% Off</v>
       </c>
       <c r="G27" t="str">
-        <v>ZTE Blade A54 Ram4GB Rom128GB จอ6.6นิ้ว 4G ประกันศูนย์ไทย 18เดือน</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>฿2,567.00</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>5% Off</v>
+        <v/>
       </c>
       <c r="J27" t="str">
-        <v>59 sold</v>
-      </c>
-      <c r="K27" t="str">
-        <v>(32)</v>
-      </c>
-      <c r="L27" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-5g-12256-12512-64-mp-67w-5100-mah-15-i5010787687.html</v>
+        <v>https://www.lazada.co.th/products/i15-promax-16gb-512gb-android-i5154654303.html</v>
       </c>
       <c r="B28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/5d08fadffd505439a6bfb0de9c1ad2da.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/7af0aaae1ef13861226e7036e61964ed.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-5g-12256-12512-64-mp-67w-5100-mah-15-i5010787687.html</v>
+        <v>I15 Promax original mobile phone selling cell phone 16GB + 512GB cheap cell phone code Android</v>
       </c>
       <c r="D28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/035a4a12e6b14af48c6ac2659188df42.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,599.00</v>
       </c>
       <c r="E28" t="str">
-        <v>https://www.lazada.co.th/products/new-poco-x6-5g-12256-12512-64-mp-67w-5100-mah-15-i5010787687.html</v>
+        <v>Pathum Thani</v>
       </c>
       <c r="F28" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/178ae944807df5dca001d0282d1bd739.jpg_80x80q80.jpg_.webp</v>
+        <v>77% Off</v>
       </c>
       <c r="G28" t="str">
-        <v>[New] POCO X6 5G (12+256) / (12+512) | โทรศัพท์มือถือ ดีไซน์บางเบา กล้อง 64 MP ชาร์จเร็ว 67W 5100 mAh รับประกัน 15 เดือน</v>
+        <v>https://www.lazada.co.th/products/i15-promax-16gb-512gb-android-i5154654303.html</v>
       </c>
       <c r="H28" t="str">
-        <v>฿9,900.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/9bb39b342cc9d3d8442191a17d2dfab7.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I28" t="str">
-        <v>17% Off</v>
+        <v>https://www.lazada.co.th/products/i15-promax-16gb-512gb-android-i5154654303.html</v>
       </c>
       <c r="J28" t="str">
-        <v>835 sold</v>
-      </c>
-      <c r="K28" t="str">
-        <v>(359)</v>
-      </c>
-      <c r="L28" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/9911fcd7a125d9f146e18c32b33f2f80.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.lazada.co.th/products/nokia-lumia-650-50-inch-16gb-dual-sim-card-8mp-lte-windows-mobile-phones-i4816525940.html</v>
+        <v>https://www.lazada.co.th/products/realme-12-5g-8gb256gb-1-i5154579370.html</v>
       </c>
       <c r="B29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/121889bc1f9af7e6462102edb7df3c14.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3097c0ce6865b60d39f0ce6d2da45366.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C29" t="str">
-        <v>https://www.lazada.co.th/products/nokia-lumia-650-50-inch-16gb-dual-sim-card-8mp-lte-windows-mobile-phones-i4816525940.html</v>
+        <v>Realme 12 + 5g (8GB/256GB)</v>
       </c>
       <c r="D29" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/121889bc1f9af7e6462102edb7df3c14.jpg_80x80q80.jpg_.webp</v>
+        <v>฿8,699.00</v>
       </c>
       <c r="E29" t="str">
-        <v/>
+        <v>Surat Thani</v>
       </c>
       <c r="F29" t="str">
-        <v/>
+        <v>15% Off</v>
       </c>
       <c r="G29" t="str">
-        <v>For Nokia Lumias 650 Mobile Phone 5.0 Inch 16GB Dual Sim Card 8MP LTE Windows Mobile NFC FDD Touchscreen</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>฿1,380.00</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v>50% Off</v>
+        <v/>
       </c>
       <c r="J29" t="str">
-        <v>9 sold</v>
-      </c>
-      <c r="K29" t="str">
-        <v>(4)</v>
-      </c>
-      <c r="L29" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a38-6128-ram-33w-5000mah-12-i4832782759.html</v>
+        <v>https://www.lazada.co.th/products/new-xiaomi-14-12512gbleica-5g-636-leica-optical-lens-2-xiaomi-xiaomi-14-i5154565426.html</v>
       </c>
       <c r="B30" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c2380fe963f900404b0e082278a1b263.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/443787d1ce16bfe4a26f5ce357cf629f.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>NEW Xiaomi 14 (12+512GB)Leica 5G ขนาดคลาสสิก 6.36" Leica optical lens รับประกัน 2 ปี โทรศัพท์มือถือ Xiaomi รุ่นล่าสุด Xiaomi 14</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>฿29,990.00</v>
       </c>
       <c r="E30" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>NEW OPPO A38 (6+128)โทรศัพท์มือถือ ขยาย RAM เพิ่มได้ ชาร์จไว  33W แบตเตอรี่ 5000mAh ดีไซน์บางเบา พร้อมรับประกัน 12 เดือน</v>
+        <v>https://www.lazada.co.th/products/new-xiaomi-14-12512gbleica-5g-636-leica-optical-lens-2-xiaomi-xiaomi-14-i5154565426.html</v>
       </c>
       <c r="H30" t="str">
-        <v>฿4,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/56c1eae0f9fae857b2ba6e3987b74f3a.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I30" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-xiaomi-14-12512gbleica-5g-636-leica-optical-lens-2-xiaomi-xiaomi-14-i5154565426.html</v>
       </c>
       <c r="J30" t="str">
-        <v>2.8K sold</v>
-      </c>
-      <c r="K30" t="str">
-        <v>(945)</v>
-      </c>
-      <c r="L30" t="str">
-        <v>Samut Prakan</v>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/46c536b93268d2e69e618a3b9aa2c471.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-8256gb-1-i5017733966.html</v>
+        <v>https://www.lazada.co.th/products/new-realme-11x-5g-ram-8128gb-alot-i5153850596.html</v>
       </c>
       <c r="B31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/8d1ce2854dba0e7b8f1468e72fbd17e3.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/89d841d199e035937efed138f267e8e1.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a15-5g-8256gb-1-i5017733966.html</v>
+        <v>[ NEW ] Realme 11X 5G Ram 8/128GB มือถือ เรียลมี กล้องสวย สเปคคุ้ม ออกใบกำกับภาษีได้ Alot</v>
       </c>
       <c r="D31" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/22e4d8521be221c54c3f2605272b2794.jpg_80x80q80.jpg_.webp</v>
+        <v>฿5,950.00</v>
       </c>
       <c r="E31" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="F31" t="str">
-        <v/>
+        <v>40% Off</v>
       </c>
       <c r="G31" t="str">
-        <v>Samsung Galaxy A15 5G (8/256GB) สมาร์ทโฟน โทรศัพท์มือถือ รับประกันศูนย์ 1 ปี แถมฟรีประกันจอแตก</v>
+        <v>https://www.lazada.co.th/products/new-realme-11x-5g-ram-8128gb-alot-i5153850596.html</v>
       </c>
       <c r="H31" t="str">
-        <v>฿9,034.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c63fc66cff5e594aee0cda0a0ed195d6.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I31" t="str">
-        <v>10% Off</v>
+        <v/>
       </c>
       <c r="J31" t="str">
-        <v>27 sold</v>
-      </c>
-      <c r="K31" t="str">
-        <v>(3)</v>
-      </c>
-      <c r="L31" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.lazada.co.th/products/redmi-12c-464gb-1-i5068824843.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y716-128-599-2-1-i5153767161.html</v>
       </c>
       <c r="B32" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/2b5673953e837fc6aa36ce40b6a6749c.png_200x200q80.png_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/788d99401636928e6d7905e1eacb52d0.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>vivo Y71(แรม6 รอม 128) หน้าจอ5.99นิ้ว ใสได้2ซิม รับประกัน1ปี(แถมฟรี เคสใส + ฟิล์มกระจกนิรภัย)</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>฿1,199.00</v>
       </c>
       <c r="E32" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="F32" t="str">
-        <v/>
+        <v>70% Off</v>
       </c>
       <c r="G32" t="str">
-        <v>Redmi 12C 4/64gb(สินค้าใหม่ เครื่องศูนย์ไทย รับประกันร้าน 1เดือน) ส่งฟรี!</v>
+        <v>https://www.lazada.co.th/products/vivo-y716-128-599-2-1-i5153767161.html</v>
       </c>
       <c r="H32" t="str">
-        <v>฿2,980.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/26fdf93536a26a060ebc45ce867c7f01.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I32" t="str">
-        <v>40% Off</v>
+        <v>https://www.lazada.co.th/products/vivo-y716-128-599-2-1-i5153767161.html</v>
       </c>
       <c r="J32" t="str">
-        <v/>
-      </c>
-      <c r="K32" t="str">
-        <v/>
-      </c>
-      <c r="L32" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/69250df1d2c0b7bf840490c7a07b7f6b.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g8256g-i5065578463.html</v>
+        <v>https://www.lazada.co.th/products/oppo-reno8-5g-ram-8256gb-i5153692477.html</v>
       </c>
       <c r="B33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/16868c6014c15745ebf2134ad921c965.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/70b209d22e0d7d540dcd9547f9c865bc.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C33" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g8256g-i5065578463.html</v>
+        <v>OPPO Reno8 5G (RAM 8/256GB) ไม่ติดสัญญา</v>
       </c>
       <c r="D33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c74bfdd81f223d23b8802f5b6f3116ce.jpg_80x80q80.jpg_.webp</v>
+        <v>฿8,990.00</v>
       </c>
       <c r="E33" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g8256g-i5065578463.html</v>
+        <v>Nonthaburi</v>
       </c>
       <c r="F33" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/eef48eff570564eabc6720e62c5db173.jpg_80x80q80.jpg_.webp</v>
+        <v>55% Off</v>
       </c>
       <c r="G33" t="str">
-        <v>OPPO RENO 11F 5G(8+256G)</v>
+        <v>https://www.lazada.co.th/products/oppo-reno8-5g-ram-8256gb-i5153692477.html</v>
       </c>
       <c r="H33" t="str">
-        <v>฿9,999.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/70b209d22e0d7d540dcd9547f9c865bc.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I33" t="str">
-        <v>9% Off</v>
+        <v/>
       </c>
       <c r="J33" t="str">
-        <v>10 sold</v>
-      </c>
-      <c r="K33" t="str">
-        <v>(5)</v>
-      </c>
-      <c r="L33" t="str">
-        <v>Chachoengsao</v>
-      </c>
-      <c r="M33" t="str">
-        <v/>
-      </c>
-      <c r="N33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128gb-1-by-jaymart-activate-i4993430862.html</v>
+        <v>https://www.lazada.co.th/products/i15-pro-max-68inchhd-5g-16gb512gb-6800mah-24mp48mp-2-i5153653366.html</v>
       </c>
       <c r="B34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/6ca196f9fc9e3f3ac84571eb5b07b56e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/707acd7a802366db9506fdf6f36fca01.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C34" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128gb-1-by-jaymart-activate-i4993430862.html</v>
+        <v>โทรศัพท์มือถือ i15 Pro Max ใหม่เอี่ยม 6.8inch+HD สมาร์ท์โฟน 5G เต็มหน้าจอ เล่นเกมได้อย่างราบรื่น หน่วยความจำขนาดใหญ่ 16GB+512GB 6800mAh มือถือเกมมิ่ง 24MP+48MP โทรศัพท์ทรูมูฟ ปลดล็อคด้วยใบหน้า ใส่ได้2ซิม คุณภาพดี สมาร์ทโฟน</v>
       </c>
       <c r="D34" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/bf3fd4f9feffb782c2e3f9d903f1034a.jpg_80x80q80.jpg_.webp</v>
+        <v>฿1,599.00</v>
       </c>
       <c r="E34" t="str">
-        <v/>
+        <v>Pathum Thani</v>
       </c>
       <c r="F34" t="str">
-        <v/>
+        <v>38% Off</v>
       </c>
       <c r="G34" t="str">
-        <v>SAMSUNG Galaxy A05s (6/128GB) (รับประกันศูนย์ 1 ปี) By Jaymart (ทางร้านจะทำการ Activate แกะเช็คสภาพสินค้าก่อนนำส่ง)</v>
+        <v>https://www.lazada.co.th/products/i15-pro-max-68inchhd-5g-16gb512gb-6800mah-24mp48mp-2-i5153653366.html</v>
       </c>
       <c r="H34" t="str">
-        <v>฿4,949.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/707acd7a802366db9506fdf6f36fca01.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I34" t="str">
-        <v>10% Off</v>
+        <v>https://www.lazada.co.th/products/i15-pro-max-68inchhd-5g-16gb512gb-6800mah-24mp48mp-2-i5153653366.html</v>
       </c>
       <c r="J34" t="str">
-        <v>1.2K sold</v>
-      </c>
-      <c r="K34" t="str">
-        <v>(280)</v>
-      </c>
-      <c r="L34" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/707acd7a802366db9506fdf6f36fca01.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.lazada.co.th/products/tecno-spark-go-2024-643gb-1284gb-5000-mah-10w-13-no-adapter-i5071562092.html</v>
+        <v>https://www.lazada.co.th/products/oppo-f11-ram-8gbrom256gb-4020mahhd-65-4020mah-i5153433068.html</v>
       </c>
       <c r="B35" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/S52b8477652024f3bbef597275b8583c0x.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/3adc369f0608ee6ee77c6e4cf03152d2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>【มีสินค้า】มือถือoppo F11 RAM 8GB/ROM256GB 4020mAhแบตเตอร์รี่หน้าจอHd 6.5 นิ้ว 4020mAhแบตเตอร์รี่ เเถมฟรีเคสใส+ฟิล์มกระจก</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>฿2,009.00</v>
       </c>
       <c r="E35" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="F35" t="str">
-        <v/>
+        <v>63% Off</v>
       </c>
       <c r="G35" t="str">
-        <v>Tecno Spark Go 2024 (64+3GB และ 128+4GB) แบตเตอร์รี่ 5000 mAh 10w รับประกัน 13 เดือน (No adapter)</v>
+        <v>https://www.lazada.co.th/products/oppo-f11-ram-8gbrom256gb-4020mahhd-65-4020mah-i5153433068.html</v>
       </c>
       <c r="H35" t="str">
-        <v>฿2,369.01</v>
+        <v>https://lzd-img-global.slatic.net/g/p/b7d17cb0315e7e974cc0214955d56408.png_80x80q80.png_.webp</v>
       </c>
       <c r="I35" t="str">
-        <v>21% Off</v>
+        <v>https://www.lazada.co.th/products/oppo-f11-ram-8gbrom256gb-4020mahhd-65-4020mah-i5153433068.html</v>
       </c>
       <c r="J35" t="str">
-        <v>35 sold</v>
-      </c>
-      <c r="K35" t="str">
-        <v>(16)</v>
-      </c>
-      <c r="L35" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M35" t="str">
-        <v/>
-      </c>
-      <c r="N35" t="str">
-        <v/>
+        <v>https://lzd-img-global.slatic.net/g/p/14e29c2b72dfac5e4fe9363783a11d7a.png_80x80q80.png_.webp</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.lazada.co.th/products/can-cod-oppq-hp-ren6-pro-5g-65-android-8gb-ram-512gb-rom-dual-sim-dual-standby-i4816597179.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-z-flip-4-8128gbandroid-14-i5153335923.html</v>
       </c>
       <c r="B36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/99856b935a8d00b4d965a5cfac8e0d6a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/ff/kf/Sc9c95603b956405bb807e34ec0ff11e1n.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C36" t="str">
-        <v>https://www.lazada.co.th/products/can-cod-oppq-hp-ren6-pro-5g-65-android-8gb-ram-512gb-rom-dual-sim-dual-standby-i4816597179.html</v>
+        <v>Samsung galaxy Z Flip 4แรม 8/128GBAndroid 14ใช้งานปกติทุกอย่าง ลื่นๆ มีตำหนิหน้าจอนอกเสีย จอในมีเส้น จุด ตามภาพ</v>
       </c>
       <c r="D36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/99856b935a8d00b4d965a5cfac8e0d6a.jpg_80x80q80.jpg_.webp</v>
+        <v>฿8,900.00</v>
       </c>
       <c r="E36" t="str">
-        <v>https://www.lazada.co.th/products/can-cod-oppq-hp-ren6-pro-5g-65-android-8gb-ram-512gb-rom-dual-sim-dual-standby-i4816597179.html</v>
+        <v>Nakhon Pathom</v>
       </c>
       <c r="F36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/99856b935a8d00b4d965a5cfac8e0d6a.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>【Can COD】ราคาถูก OPPQ HP Ren6 Pro 5G 6.5 นิ้วโทรศัพท์ Android 8GB RAM 512GB ROM Dual SIM Dual Standby สมาร์ทโฟนรับประกันฟรีอย่างเป็นทางการ</v>
+        <v/>
       </c>
       <c r="H36" t="str">
-        <v>฿699.00</v>
+        <v/>
       </c>
       <c r="I36" t="str">
-        <v>36% Off</v>
+        <v/>
       </c>
       <c r="J36" t="str">
-        <v>16 sold</v>
-      </c>
-      <c r="K36" t="str">
-        <v>(15)</v>
-      </c>
-      <c r="L36" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M36" t="str">
-        <v>https://www.lazada.co.th/products/can-cod-oppq-hp-ren6-pro-5g-65-android-8gb-ram-512gb-rom-dual-sim-dual-standby-i4816597179.html</v>
-      </c>
-      <c r="N36" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/99856b935a8d00b4d965a5cfac8e0d6a.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-464gb-i-4128gb-11-i4983358590.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a60-8128gb-8256gb-1-i5152974416.html</v>
       </c>
       <c r="B37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/89d0bbe5ffaa7cdbca9de21e1ed94b22.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/5e49c4c76de7d8c671ae9e02b6d34cd7.png_200x200q80.png_.webp</v>
       </c>
       <c r="C37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-464gb-i-4128gb-11-i4983358590.html</v>
+        <v>OPPO A60 [8+128GB | 8+256GB] เครื่องศูนย์แท้ รับประกันศูนย์ 1 ปี</v>
       </c>
       <c r="D37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/71efe2f2aade8ddfaf976f3ac70be5a3.jpg_80x80q80.jpg_.webp</v>
+        <v>฿6,060.00</v>
       </c>
       <c r="E37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-464gb-i-4128gb-11-i4983358590.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/14b66be2c1c6fc75cc948fde3905d56a.jpg_80x80q80.jpg_.webp</v>
+        <v>53% Off</v>
       </c>
       <c r="G37" t="str">
-        <v>(พร้อมส่ง ส่งฟรี) OPPO A18 (4/64GB) I (4/128GB) ของแท้ มือ1รับประกันศูนย์1ปี</v>
+        <v>https://www.lazada.co.th/products/oppo-a60-8128gb-8256gb-1-i5152974416.html</v>
       </c>
       <c r="H37" t="str">
-        <v>฿3,390.00</v>
+        <v>https://lzd-img-global.slatic.net/g/p/bafd535d12bb791a4c2b352251a20896.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I37" t="str">
-        <v>25% Off</v>
+        <v/>
       </c>
       <c r="J37" t="str">
-        <v>277 sold</v>
-      </c>
-      <c r="K37" t="str">
-        <v>(66)</v>
-      </c>
-      <c r="L37" t="str">
-        <v>Loei</v>
-      </c>
-      <c r="M37" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-464gb-i-4128gb-11-i4983358590.html</v>
-      </c>
-      <c r="N37" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/71efe2f2aade8ddfaf976f3ac70be5a3.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.lazada.co.th/products/1100-vivq-y21-5g-75-2-smartphone-4g5g-16gb-512gb-android120-mobile-phone-i4865295842.html</v>
+        <v>https://www.lazada.co.th/products/1-pd-60w-i5152933217.html</v>
       </c>
       <c r="B38" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/c2f12cd3ce4474ecb49ee8c29d300f7b.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/c6869366061d26be373b6167db174871.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C38" t="str">
-        <v>https://www.lazada.co.th/products/1100-vivq-y21-5g-75-2-smartphone-4g5g-16gb-512gb-android120-mobile-phone-i4865295842.html</v>
+        <v>[ประกัน1ปี]⚡️ชาร์จเร็ว สายชาร์จ PD รองรับการชาร์จถึง 60W มีความเเข็งเเรงมากกว่าปกติ</v>
       </c>
       <c r="D38" t="str">
+        <v>฿135.00</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Bangkok</v>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>https://www.lazada.co.th/products/1-pd-60w-i5152933217.html</v>
+      </c>
+      <c r="H38" t="str">
         <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
       </c>
-      <c r="E38" t="str">
-        <v>https://www.lazada.co.th/products/1100-vivq-y21-5g-75-2-smartphone-4g5g-16gb-512gb-android120-mobile-phone-i4865295842.html</v>
-      </c>
-      <c r="F38" t="str">
+      <c r="I38" t="str">
+        <v>https://www.lazada.co.th/products/1-pd-60w-i5152933217.html</v>
+      </c>
+      <c r="J38" t="str">
         <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
-      </c>
-      <c r="G38" t="str">
-        <v>【รับประกัน 1ปี】100%ของแท้ VIVQ Y21 5G 7.5นิ้ว โทรศัพท์มือถือ รองรับ2ซิม Smartphone 4G/5G โทรศัพท์สมา แรม16GB รอม512GB โทรศัพท์ถูกๆ Android12.0 มือถือ Mobile phone ส่งฟร</v>
-      </c>
-      <c r="H38" t="str">
-        <v>฿699.00</v>
-      </c>
-      <c r="I38" t="str">
-        <v>36% Off</v>
-      </c>
-      <c r="J38" t="str">
-        <v>283 sold</v>
-      </c>
-      <c r="K38" t="str">
-        <v>(72)</v>
-      </c>
-      <c r="L38" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-66-50-5000mah-li-po-triple-camera-i4917896928.html</v>
+        <v>https://www.lazada.co.th/products/soyespro-i5152892134.html</v>
       </c>
       <c r="B39" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/1a069a8c0c1380fdb072a07bc2812de1.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/de65d7437c2fe4a249ba6edfe4ab815b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C39" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-66-50-5000mah-li-po-triple-camera-i4917896928.html</v>
+        <v>SOYES S23PRO</v>
       </c>
       <c r="D39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>฿1,222.00</v>
       </c>
       <c r="E39" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-66-50-5000mah-li-po-triple-camera-i4917896928.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>ZTE Blade V50 Design 8+128GB จอ6.6นิ้ว  กล้อง50 ล้านพิกเซล แบต5000mAh Li-Po Triple Camera</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>฿3,095.00</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v>12% Off</v>
+        <v/>
       </c>
       <c r="J39" t="str">
-        <v>84 sold</v>
-      </c>
-      <c r="K39" t="str">
-        <v>(48)</v>
-      </c>
-      <c r="L39" t="str">
-        <v>Nakhon Si Thammarat</v>
-      </c>
-      <c r="M39" t="str">
-        <v>https://www.lazada.co.th/products/zte-blade-v50-design-8128gb-66-50-5000mah-li-po-triple-camera-i4917896928.html</v>
-      </c>
-      <c r="N39" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g-8256gb-67w-1-1-i5069628683.html</v>
+        <v>https://www.lazada.co.th/products/xs15-i5152730284.html</v>
       </c>
       <c r="B40" t="str">
-        <v>https://lzd-img-global.slatic.net/g/p/e4a2a7fbf2d919468f601d16a380a253.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/628c08a54a8a9c8948f4d3d1a901930a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C40" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g-8256gb-67w-1-1-i5069628683.html</v>
+        <v>XS15โทรศัพท์มือถือ</v>
       </c>
       <c r="D40" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v>฿1,128.00</v>
       </c>
       <c r="E40" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g-8256gb-67w-1-1-i5069628683.html</v>
+        <v>Bangkok</v>
       </c>
       <c r="F40" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>OPPO RENO 11F 5G 8/256GB กล้องสวย ชาร์จไว67W ของแท้ รับประกันศูนย์ไทย 1 ปี แถมฟรี ประกันจอแตก และ ฟิล์มกันรอย 1ชิ้น *ของแถมมีจำนวนจำกัด</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>฿10,439.00</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v>12% Off</v>
+        <v/>
       </c>
       <c r="J40" t="str">
-        <v>28 sold</v>
-      </c>
-      <c r="K40" t="str">
-        <v>(10)</v>
-      </c>
-      <c r="L40" t="str">
-        <v>Pathum Thani</v>
-      </c>
-      <c r="M40" t="str">
-        <v>https://www.lazada.co.th/products/oppo-reno-11f-5g-8256gb-67w-1-1-i5069628683.html</v>
-      </c>
-      <c r="N40" t="str">
-        <v>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAVQAAAFUCAIAAAD08FPiAAAMa2lDQ1BJQ0MgUHJvZmlsZQAASImVVwdYU8kWnluSkJCEEghFSuhNEOlFSggtgoBUwUZIAgklxoSgYkdFBdcuoljRVRFF1wLIoiL2sij2vlhQWVkXC4qi8iYkoOu+8r3zfXPnv2fO/KfcmXvvAKDVw5NKc1FtAPIk+bL4iBDWmNQ0FukZQAAOKIAOdHh8uZQdFxcNoAz0f5f3N6E1lGvOSq5/jv9X0RUI5XwAkHEQZwjk/DyImwDAN/ClsnwAiEq91ZR8qRLPgVhPBgOEeLUSZ6nwLiXOUOHGfpvEeA7EVwDQoPJ4siwA6PehnlXAz4I89M8Qu0oEYgkAWkMhDuSLeAKIlbEPzcubpMTlENtDeynEMB7gk/EdZ9bf+DMG+Xm8rEGsyqtfNELFcmkub9r/WZr/LXm5igEftrBRRbLIeGX+sIa3cyZFKTEV4k5JRkysstYQ94gFqroDgFJEisgklT1qwpdzYP0AE2JXAS80CmITiMMluTHRan1GpjicCzFcLehUcT43EWJDiBcJ5WEJapstsknxal9obaaMw1brz/Fk/X6Vvh4qcpLYav43IiFXzY/RC0WJKRBTILYuECfHQEyH2EWekxClthlRKOLEDNjIFPHK+K0hjhdKIkJU/FhBpiw8Xm1fkicfyBfbIhJzY9T4QL4oMVJVH+wUn9cfP8wFuyKUsJMGeITyMdEDuQiEoWGq3LEXQklSgpqnR5ofEq+ai1OkuXFqe9xSmBuh1FtC7CEvSFDPxZPz4eJU8eOZ0vy4RFWceGE2b2ScKh58OYgGHBAKWEABWwaYBLKBuKWzrhPeqUbCAQ/IQBYQAme1ZmBGSv+IBF4TQCH4EyIhkA/OC+kfFYICqP8yqFVdnUFm/2hB/4wc8AziPBAFcuG9on+WZNBbMngKNeJ/eOfBxofx5sKmHP/3+gHtNw0baqLVGsWAR5bWgCUxjBhKjCSGEx1wYzwQ98ej4TUYNjfcB/cdyOObPeEZoZXwmHCD0Ea4M1FcJPshylGgDfKHq2uR8X0tcFvI6YmH4AGQHTLjTNwYOOMe0A8bD4KePaGWo45bWRXWD9x/y+C7p6G2I7uSUbIBOZhs/+NMuiPdc5BFWevv66OKNWOw3pzBkR/9c76rvgD2UT9aYouwg9hZ7AR2HmvE6gALO47VY5ewo0o8uLqe9q+uAW/x/fHkQB7xP/zx1D6VlZS7Vrt2uH5WjeULp+YrNx5nknSaTJwlymex4ddByOJK+C5DWW6ubm4AKL81qtfXW2b/NwRhXvimK3oHQICgr6+v8ZsuGu71Qwvg9n/2TWd3DL4mDAA4V8pXyApUOlx5IcC3hBbcaUbADFgBe5iPG/AC/iAYhIGRIBYkglQwAVZZBNe5DEwBM8BcUAxKwXKwBqwHm8E2sAvsBQdAHWgEJ8AZcBFcATfAPbh62sFL0AXeg14EQUgIDWEgRog5YoM4IW6IDxKIhCHRSDySiqQjWYgEUSAzkHlIKbISWY9sRaqQX5AjyAnkPNKK3EEeIR3IG+QTiqFUVA81RW3RYagPykaj0ER0PJqFTkYL0fnoUrQcrUT3oLXoCfQiegNtQ1+i3RjANDEmZoE5Yz4YB4vF0rBMTIbNwkqwMqwSq8Ea4HO+hrVhndhHnIgzcBbuDFdwJJ6E8/HJ+Cx8Cb4e34XX4qfwa/gjvAv/SqARTAhOBD8ClzCGkEWYQigmlBF2EA4TTsO91E54TyQSmUQ7ojfci6nEbOJ04hLiRuI+YhOxlfiE2E0ikYxITqQAUiyJR8onFZPWkfaQjpOuktpJPRqaGuYabhrhGmkaEo0ijTKN3RrHNK5qPNfoJWuTbch+5FiygDyNvIy8ndxAvkxuJ/dSdCh2lABKIiWbMpdSTqmhnKbcp7zV1NS01PTVHK0p1pyjWa65X/Oc5iPNj1RdqiOVQx1HVVCXUndSm6h3qG9pNJotLZiWRsunLaVV0U7SHtJ66Ay6C51LF9Bn0yvotfSr9FdaZC0bLbbWBK1CrTKtg1qXtTq1ydq22hxtnvYs7QrtI9q3tLt1GDrDdWJ18nSW6OzWOa/zQpeka6sbpivQna+7Tfek7hMGxrBicBh8xjzGdsZpRrseUc9Oj6uXrVeqt1evRa9LX1ffQz9Zf6p+hf5R/TYmxrRlcpm5zGXMA8ybzE8GpgZsA6HBYoMag6sGHwyHGAYbCg1LDPcZ3jD8ZMQyCjPKMVphVGf0wBg3djQebTzFeJPxaePOIXpD/Ifwh5QMOTDkrglq4mgSbzLdZJvJJZNuUzPTCFOp6TrTk6adZkyzYLNss9Vmx8w6zBnmgeZi89Xmx83/YOmz2KxcVjnrFKvLwsQi0kJhsdWixaLX0s4yybLIcp/lAyuKlY9VptVqq2arLmtz61HWM6yrre/akG18bEQ2a23O2nywtbNNsV1oW2f7ws7QjmtXaFdtd9+eZh9kP9m+0v66A9HBxyHHYaPDFUfU0dNR5FjheNkJdfJyEjttdGodShjqO1QytHLoLWeqM9u5wLna+ZEL0yXapcilzuXVMOthacNWDDs77Kurp2uu63bXe8N1h48cXjS8YfgbN0c3vluF23V3mnu4+2z3evfXHk4eQo9NHrc9GZ6jPBd6Nnt+8fL2knnVeHV4W3une2/wvuWj5xPns8TnnC/BN8R3tm+j70c/L798vwN+f/k7++f47/Z/McJuhHDE9hFPAiwDeAFbA9oCWYHpgVsC24IsgnhBlUGPg62CBcE7gp+zHdjZ7D3sVyGuIbKQwyEfOH6cmZymUCw0IrQktCVMNywpbH3Yw3DL8Kzw6vCuCM+I6RFNkYTIqMgVkbe4plw+t4rbNdJ75MyRp6KoUQlR66MeRztGy6IbRqGjRo5aNep+jE2MJKYuFsRyY1fFPoizi5sc9+to4ui40RWjn8UPj58RfzaBkTAxYXfC+8SQxGWJ95LskxRJzclayeOSq5I/pISmrExpGzNszMwxF1ONU8Wp9WmktOS0HWndY8PGrhnbPs5zXPG4m+Ptxk8df36C8YTcCUcnak3kTTyYTkhPSd+d/pkXy6vkdWdwMzZkdPE5/LX8l4JgwWpBhzBAuFL4PDMgc2Xmi6yArFVZHaIgUZmoU8wRrxe/zo7M3pz9ISc2Z2dOX25K7r48jbz0vCMSXUmO5NQks0lTJ7VKnaTF0rbJfpPXTO6SRcl2yBH5eHl9vh78qb+ksFcsUDwqCCyoKOiZkjzl4FSdqZKpl6Y5Tls87XlheOHP0/Hp/OnNMyxmzJ3xaCZ75tZZyKyMWc2zrWbPn90+J2LOrrmUuTlzfytyLVpZ9G5eyryG+abz58x/siBiQXUxvVhWfGuh/8LNi/BF4kUti90Xr1v8tURQcqHUtbSs9PMS/pILPw3/qfynvqWZS1uWeS3btJy4XLL85oqgFbtW6qwsXPlk1ahVtatZq0tWv1szcc35Mo+yzWspaxVr28qjy+vXWa9bvu7zetH6GxUhFfs2mGxYvOHDRsHGq5uCN9VsNt1cuvnTFvGW21sjttZW2laWbSNuK9j2bHvy9rM/+/xctcN4R+mOLzslO9t2xe86VeVdVbXbZPeyarRaUd2xZ9yeK3tD99bXONds3cfcV7of7Ffs/+OX9F9uHog60HzQ52DNIZtDGw4zDpfUIrXTarvqRHVt9an1rUdGHmlu8G84/KvLrzsbLRorjuofXXaMcmz+sb7jhce7m6RNnSeyTjxpnth87+SYk9dPjT7Vcjrq9Lkz4WdOnmWfPX4u4Fzjeb/zRy74XKi76HWx9pLnpcO/ef52uMWrpfay9+X6K75XGlpHtB67GnT1xLXQa2euc69fvBFzo/Vm0s3bt8bdarstuP3iTu6d13cL7vbem3OfcL/kgfaDsocmDyt/d/h9X5tX29FHoY8uPU54fO8J/8nLp/Knn9vnP6M9K3tu/rzqhduLxo7wjit/jP2j/aX0ZW9n8Z86f254Zf/q0F/Bf13qGtPV/lr2uu/NkrdGb3e+83jX3B3X/fB93vveDyU9Rj27Pvp8PPsp5dPz3imfSZ/Lvzh8afga9fV+X15fn5Qn4/X/CmCwoZmZALzZCQAtFQAGPLdRxqrOgv2CqM6v/Qj8J6w6L/aLFwA1sFP+xnOaANgPm+0cyB0MgPIXPjEYoO7ug00t8kx3NxUXFZ6ECD19fW9NASA1APBF1tfXu7Gv78t2GOwdAJomq86gSiHCM8OWQCW6YSiYA34Q1fn0uxx/7IEyAg/wY/8vmVePM1H8nv4AAAA4ZVhJZk1NACoAAAAIAAGHaQAEAAAAAQAAABoAAAAAAAKgAgAEAAAAAQAAAVSgAwAEAAAAAQAAAVQAAAAAsK6KPgAACCtJREFUeAHt00ERACAMA0HAv96+O+i4rYNsmjszxxEg0BN4vcgSEyDwBYzfHxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCRi/HyAQFTD+aPFiEzB+P0AgKmD80eLFJmD8foBAVMD4o8WLTcD4/QCBqIDxR4sXm4Dx+wECUQHjjxYvNgHj9wMEogLGHy1ebALG7wcIRAWMP1q82ASM3w8QiAoYf7R4sQkYvx8gEBUw/mjxYhMwfj9AICpg/NHixSZg/H6AQFTA+KPFi03A+P0AgaiA8UeLF5uA8fsBAlEB448WLzYB4/cDBKICxh8tXmwCxu8HCEQFjD9avNgEjN8PEIgKGH+0eLEJGL8fIBAVMP5o8WITMH4/QCAqYPzR4sUmYPx+gEBUwPijxYtNwPj9AIGogPFHixebgPH7AQJRAeOPFi82AeP3AwSiAsYfLV5sAsbvBwhEBYw/WrzYBIzfDxCIChh/tHixCSyuBAWKlHKy/QAAAABJRU5ErkJggg==</v>
+        <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.lazada.co.th/products/5-i4862588367.html</v>
+        <v>https://www.lazada.co.th/products/xs15-i5152551681.html</v>
       </c>
       <c r="B41" t="str">
-        <v>https://lzd-img-global.slatic.net/g/ff/kf/Se6cfb57f6cf64712b05f3c6e94a82c27c.jpg_200x200q80.jpg_.webp</v>
+        <v>https://lzd-img-global.slatic.net/g/p/628c08a54a8a9c8948f4d3d1a901930a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C41" t="str">
-        <v/>
+        <v>XS15โทรศัพท์มือถือ</v>
       </c>
       <c r="D41" t="str">
-        <v/>
+        <v>฿1,128.00</v>
       </c>
       <c r="E41" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>วีโก้ ซันนี่ 5 จอใหญ่ สภาพดีพร้อมใช้งาน แถมฟรีสายชาร์จ</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>฿645.40</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>1% Off</v>
+        <v/>
       </c>
       <c r="J41" t="str">
-        <v>11 sold</v>
-      </c>
-      <c r="K41" t="str">
-        <v>(5)</v>
-      </c>
-      <c r="L41" t="str">
-        <v>Maha Sarakham</v>
-      </c>
-      <c r="M41" t="str">
-        <v/>
-      </c>
-      <c r="N41" t="str">
         <v/>
       </c>
     </row>

--- a/Bot_lazada/Data_lazada/data_1_1_1.xlsx
+++ b/Bot_lazada/Data_lazada/data_1_1_1.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M41"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -394,74 +394,80 @@
         <v>picture-wrapper src 3</v>
       </c>
       <c r="G1" t="str">
+        <v>uEds4 href 3</v>
+      </c>
+      <c r="H1" t="str">
+        <v>picture-wrapper src 4</v>
+      </c>
+      <c r="I1" t="str">
         <v>Data</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>Price</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>ic-dynamic-badge</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>Sold</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>Amount</v>
-      </c>
-      <c r="L1" t="str">
-        <v>place</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-7-pro-6gb-128gb-i3900336914.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-12256-12512-summilux-leicaadvance-ai-mediatek-dimensity-8300-ultra-ai-144-hz-67w-i5305695198.html</v>
       </c>
       <c r="B2" t="str">
-        <v>https://img.lazcdn.com/g/p/da24aedc70d3fe559ab68882caa5ac3d.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6b8b7cfb464661fbb53211dd8a905678.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-7-pro-6gb-128gb-i3900336914.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-12256-12512-summilux-leicaadvance-ai-mediatek-dimensity-8300-ultra-ai-144-hz-67w-i5305695198.html</v>
       </c>
       <c r="D2" t="str">
-        <v>https://img.lazcdn.com/g/p/baed1855683dcbd94acb03810629944c.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e805094a9191ba360f32a2331510082b.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E2" t="str">
-        <v>https://www.lazada.co.th/products/xiaomi-redmi-note-7-pro-6gb-128gb-i3900336914.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-12256-12512-summilux-leicaadvance-ai-mediatek-dimensity-8300-ultra-ai-144-hz-67w-i5305695198.html</v>
       </c>
       <c r="F2" t="str">
-        <v>https://img.lazcdn.com/g/p/b0bf06d00c9b3e9c838f8ace94e66123.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/51b84d5c6972b8a946b121054001f057.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G2" t="str">
-        <v>Original Smartphone Xiaomi Redmi Note 7 Pro CellPhone Used Fingerprint Quick Charge Cellphone 6GB+128GB</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-12256-12512-summilux-leicaadvance-ai-mediatek-dimensity-8300-ultra-ai-144-hz-67w-i5305695198.html</v>
       </c>
       <c r="H2" t="str">
-        <v>฿2,575.42</v>
+        <v>https://img.lazcdn.com/g/p/57ef12300e37482dc84fa344300d775e.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I2" t="str">
-        <v>Voucher save 35%</v>
+        <v>Xiaomi 14T 12+256 /12+512 |เลนส์ออปติคอล Summilux จาก Leica|Advance AI ชิปเซ็ต MediaTek Dimensity 8300-Ultra|เทคโนโลยีแสดงผล AI 144 Hz*|ไฮเปอร์ชาร์จ 67W</v>
       </c>
       <c r="J2" t="str">
-        <v>11 sold</v>
+        <v>฿15,990.00</v>
       </c>
       <c r="K2" t="str">
-        <v>(9)</v>
+        <v>Voucher save 11%</v>
       </c>
       <c r="L2" t="str">
-        <v>China</v>
+        <v>756 sold</v>
+      </c>
+      <c r="M2" t="str">
+        <v>(178)</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128gb-activate-i4875749183.html</v>
       </c>
       <c r="B3" t="str">
-        <v>https://img.lazcdn.com/g/p/c476dddd9d3b8f51d60cea30cf0a81f2.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/edbedb9528d847217f15b785686f0214.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C3" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-6128gb-activate-i4875749183.html</v>
       </c>
       <c r="D3" t="str">
-        <v>https://img.lazcdn.com/g/p/65137cd13302562cb53ff4259e4dd533.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/de66467ae3c3191eb5e912f6a8830fc7.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -470,302 +476,326 @@
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>vivo Y03 (4+64/4+128G) จอ 6.56นิ้ว เครื่องแท้ศูนย์ไทย Ram4GB+Rom64GB เเบตเตอรี่ 5000mAh อุปกรณ์ครบชุด</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v>฿3,087.00</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>Voucher save 34%</v>
+        <v>โทรศัพท์มือถือ Samsung Galaxy A05s  6/128GB  (activate ก่อนจัดส่ง)ขอใบกำกับภาษีทักแชท</v>
       </c>
       <c r="J3" t="str">
-        <v>4.5K sold</v>
+        <v>฿5,079.00</v>
       </c>
       <c r="K3" t="str">
-        <v>(807)</v>
+        <v>Voucher save 15%</v>
       </c>
       <c r="L3" t="str">
-        <v>Bangkok</v>
+        <v>3.2K sold</v>
+      </c>
+      <c r="M3" t="str">
+        <v>(1069)</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.lazada.co.th/products/a78-5g-8gb256gb-fhd-amoled-display-67w-supervooc-i5221152490.html</v>
+        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
       </c>
       <c r="B4" t="str">
-        <v>https://img.lazcdn.com/g/p/96f25f85d4047cacd7d864fca5b0e5fa.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6fef6c8073876937a168ed8cde62f319.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/e295d702337bede77f344f7dbea08b64.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/58b033441e3c324904d8ba6cdee57840.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G4" t="str">
-        <v>A78 5g (8GB + 256GB) mobile phone screen FHD + AMOLED display quick charge 67W supervooc big battery</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>฿5.00</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v/>
+        <v>โทรศัพท์มือถือปุ่มกด Nokia 230 ใหม่ล่าสุด ปุ่มกดไทย เมนูไทย，มือถือโนเกีย230 จอใหญ่ 2.8</v>
       </c>
       <c r="J4" t="str">
-        <v>16 sold</v>
+        <v>฿480.00</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Voucher save 20%</v>
       </c>
       <c r="L4" t="str">
-        <v>Samut Sakhon</v>
+        <v>95 sold</v>
+      </c>
+      <c r="M4" t="str">
+        <v>(23)</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-pro-667-5000-mah-120w-50mp-50mp-i5375649574.html</v>
       </c>
       <c r="B5" t="str">
-        <v>https://img.lazcdn.com/g/p/6fef6c8073876937a168ed8cde62f319.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6e9bb48b489060ea34456a42bcfd4ee2.png_200x200q80.png_.webp</v>
       </c>
       <c r="C5" t="str">
-        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-pro-667-5000-mah-120w-50mp-50mp-i5375649574.html</v>
       </c>
       <c r="D5" t="str">
-        <v>https://img.lazcdn.com/g/p/e295d702337bede77f344f7dbea08b64.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6e9bb48b489060ea34456a42bcfd4ee2.png_80x80q80.png_.webp</v>
       </c>
       <c r="E5" t="str">
-        <v>https://www.lazada.co.th/products/nokia-230-230-28-i3348652859.html</v>
+        <v>https://www.lazada.co.th/products/xiaomi-14t-pro-667-5000-mah-120w-50mp-50mp-i5375649574.html</v>
       </c>
       <c r="F5" t="str">
-        <v>https://img.lazcdn.com/g/p/58b033441e3c324904d8ba6cdee57840.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6e9bb48b489060ea34456a42bcfd4ee2.png_80x80q80.png_.webp</v>
       </c>
       <c r="G5" t="str">
-        <v>โทรศัพท์มือถือปุ่มกด Nokia 230 ใหม่ล่าสุด ปุ่มกดไทย เมนูไทย，มือถือโนเกีย230 จอใหญ่ 2.8</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>฿480.00</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>Voucher save 20%</v>
+        <v>สมาร์ทโฟน Xiaomi 14T Pro  หน้าจอ 6.67 นิ้ว แบตอึด 5000 mAh 120W กล้องดิจิตอล 50MP + 50MP</v>
       </c>
       <c r="J5" t="str">
-        <v>74 sold</v>
+        <v>฿21,990.00</v>
       </c>
       <c r="K5" t="str">
-        <v>(21)</v>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <v>Bangkok</v>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a06-464gb128gb-i5301204939.html</v>
+        <v>https://www.lazada.co.th/products/poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
       </c>
       <c r="B6" t="str">
-        <v>https://img.lazcdn.com/g/p/aa70840ee3733b9030c6e090f9d85d84.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/507898edd9ddc2f0467a2a55ed7e09a0.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.lazada.co.th/products/samsung-galaxy-a06-464gb128gb-i5301204939.html</v>
+        <v>https://www.lazada.co.th/products/poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
       </c>
       <c r="D6" t="str">
-        <v>https://img.lazcdn.com/g/p/81fd6038c7a65c0d7bda0ac2de8c5f2a.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/507898edd9ddc2f0467a2a55ed7e09a0.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/poco-x6-pro-5g-12gb512gb-mediatek-dimensity-8300-ultra-120hz-67w-5000-mah-15-i5010933008.html</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/507898edd9ddc2f0467a2a55ed7e09a0.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G6" t="str">
-        <v>Samsung Galaxy A06 4+64GB,128GB</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>฿3,699.00</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>POCO X6 Pro 5G | 12GB+512GB |  โทรศัพท์มือถือ ชิปเซ็ท MediaTek Dimensity 8300-Ultra จอตอบสนองไว 120Hz ชาร์จเร็ว 67W 5000 mAh รับประกัน 15 เดือน</v>
       </c>
       <c r="J6" t="str">
-        <v>67 sold</v>
+        <v>฿10,990.00</v>
       </c>
       <c r="K6" t="str">
-        <v>(118)</v>
+        <v>Voucher save 21%</v>
       </c>
       <c r="L6" t="str">
-        <v>Chachoengsao</v>
+        <v>12.0K sold</v>
+      </c>
+      <c r="M6" t="str">
+        <v>(5709)</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128256gb-667-50-mp-45w-5000mah-i5155042348.html</v>
+        <v>https://www.lazada.co.th/products/poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
       </c>
       <c r="B7" t="str">
-        <v>https://img.lazcdn.com/g/p/95b12b970f33768c3c73c83a3c288f06.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ae8878a1b1ab7dbc3b693631f796e015.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128256gb-667-50-mp-45w-5000mah-i5155042348.html</v>
+        <v>https://www.lazada.co.th/products/poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
       </c>
       <c r="D7" t="str">
-        <v>https://img.lazcdn.com/g/p/84ba721c0a3b6c28f137c97b30a470d6.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/51f0cb8da4f0e5195075fbea5a488c77.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/poco-m6-pro-8gb256gb12gb512gb-mediatek-helio-g99-ultra-120hz-64mp-15-i5009793213.html</v>
       </c>
       <c r="F7" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/35a80cafd9479a70abacf9bf3e99dad4.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G7" t="str">
-        <v>OPPO A60 (8+128,256GB) 6.67'' หน้าจอโทรศัพท์มือถือ กล้อง 50 MP ชาร์จไว 45W แบตเตอรี่ 5000mAh</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>฿5,870.00</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v>Voucher save 41%</v>
+        <v>POCO M6 Pro 8GB+256GB/12GB+512GB |ชิปเซ็ท MediaTek Helio G99-Ultra จอตอบสนองไว 120Hz กล้อง 64MP รับประกัน 15 เดือน</v>
       </c>
       <c r="J7" t="str">
-        <v>3.4K sold</v>
+        <v>฿6,999.00</v>
       </c>
       <c r="K7" t="str">
-        <v>(568)</v>
+        <v>Voucher save 13%</v>
       </c>
       <c r="L7" t="str">
-        <v>Bangkok</v>
+        <v>5.2K sold</v>
+      </c>
+      <c r="M7" t="str">
+        <v>(2799)</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-1-by-tg-i5147723766.html</v>
+        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
       </c>
       <c r="B8" t="str">
-        <v>https://img.lazcdn.com/g/p/69940dff83c1e10ec76ae80093e585e6.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-1-by-tg-i5147723766.html</v>
+        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
       </c>
       <c r="D8" t="str">
-        <v>https://img.lazcdn.com/g/p/494197e66c643594f1a98a814ff52e6d.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/41f52257bbda7d41e163eacb0e6c38bf.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
       </c>
       <c r="F8" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/f49d1ef2f181ff89e3bc21c5620056d9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G8" t="str">
-        <v>OPPO A60 สมาร์ทโฟน โทรศัพท์มือถือ แถมฟรีประกันจอแตก (สินค้ารับประกัน1ปี) By TG</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v>฿5,999.00</v>
+        <v/>
       </c>
       <c r="I8" t="str">
-        <v/>
+        <v>POCO C65 8GB+256GB รุ่นใหม่ | รับประกัน 15 เดือน</v>
       </c>
       <c r="J8" t="str">
-        <v>135 sold</v>
+        <v>฿4,499.00</v>
       </c>
       <c r="K8" t="str">
-        <v>(56)</v>
+        <v>Voucher save 6%</v>
       </c>
       <c r="L8" t="str">
-        <v>Pathum Thani</v>
+        <v>6.0K sold</v>
+      </c>
+      <c r="M8" t="str">
+        <v>(1500)</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.lazada.co.th/products/a93s-5g-ram-8gb-rom-256gb-65-90hz-48mp-5000mah-i5216217483.html</v>
+        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
       </c>
       <c r="B9" t="str">
-        <v>https://img.lazcdn.com/g/p/10c9c558b172080d049f6d801893fb24.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/7576847d98239b9883555b514b552f31.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/7a19c6315cdc8c6771c402b2533130a2.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
       </c>
       <c r="F9" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/2acc6699fc9752c337ab566d3eb515d4.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G9" t="str">
-        <v>A93s 5G smartphone | 8GB RAM + 256GB ROM | 6.5 inch screen + 90Hz | 48mp camera | 5000mAh large battery</v>
+        <v/>
       </c>
       <c r="H9" t="str">
-        <v>฿5.00</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>[NEW] Redmi Note 13 8GB+256GB กล้อง 3 ตัว 108MP จอแสดงผล 120Hz AMOLED | รับประกัน 15 เดือน</v>
       </c>
       <c r="J9" t="str">
-        <v>10 sold</v>
+        <v>฿5,999.00</v>
       </c>
       <c r="K9" t="str">
-        <v/>
+        <v>Voucher save 25%</v>
       </c>
       <c r="L9" t="str">
-        <v>Samut Sakhon</v>
+        <v>2.7K sold</v>
+      </c>
+      <c r="M9" t="str">
+        <v>(1236)</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.lazada.co.th/products/new-arrival-oppo-a3x-464g128g-i5290703901.html</v>
+        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
       </c>
       <c r="B10" t="str">
-        <v>https://img.lazcdn.com/g/p/0c67b039e61c3ca02551b7e8ac938990.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/f8baea32205e8adb7543b34fc6c5c13e.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C10" t="str">
-        <v>https://www.lazada.co.th/products/new-arrival-oppo-a3x-464g128g-i5290703901.html</v>
+        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
       </c>
       <c r="D10" t="str">
-        <v>https://img.lazcdn.com/g/p/540e639d2495733b8a2b9bd7ac708f8e.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/7ac75efa53e92067ba2b4cf34868a508.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
       </c>
       <c r="F10" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/b38053c9de80cc09395f1927df34cae2.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G10" t="str">
-        <v>New Arrival !! OPPO A3x (4+64G,128G)</v>
+        <v/>
       </c>
       <c r="H10" t="str">
-        <v>฿3,949.00</v>
+        <v/>
       </c>
       <c r="I10" t="str">
-        <v>Voucher save 21%</v>
+        <v>230 โทรศัพท์มือถือ</v>
       </c>
       <c r="J10" t="str">
-        <v>51 sold</v>
+        <v>฿389.00</v>
       </c>
       <c r="K10" t="str">
-        <v>(37)</v>
+        <v>Voucher save 35%</v>
       </c>
       <c r="L10" t="str">
-        <v>Chachoengsao</v>
+        <v>1.5K sold</v>
+      </c>
+      <c r="M10" t="str">
+        <v>(685)</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-ram-4-rom-128-1-i5151419294.html</v>
+        <v>https://www.lazada.co.th/products/y95-4-64-i5040660804.html</v>
       </c>
       <c r="B11" t="str">
-        <v>https://img.lazcdn.com/g/p/e06c6d3134000c4b05ee1e0935876d95.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e87e3fde9be6f790fa4444de83140e13.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C11" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a18-ram-4-rom-128-1-i5151419294.html</v>
+        <v>https://www.lazada.co.th/products/y95-4-64-i5040660804.html</v>
       </c>
       <c r="D11" t="str">
-        <v>https://img.lazcdn.com/g/p/914412e1f75d8358e41d2a0822b1afb6.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/ff/kf/S6b9256326fbc4a99adabdf391f2e74dfZ.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -774,74 +804,80 @@
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>Oppo A18 Ram 4 Rom 128 สินค้ามือ 1 รับประกันศูนย์ไทย</v>
+        <v/>
       </c>
       <c r="H11" t="str">
-        <v>฿3,750.00</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>Voucher save 6%</v>
+        <v>สมาร์ทโฟน Y95. วีโว้  แท้สภาพสวย มือ✌️แรม4 รอม 64 กิ๊ก 📱📱🔥ลดราคา</v>
       </c>
       <c r="J11" t="str">
-        <v/>
+        <v>฿3,000.00</v>
       </c>
       <c r="K11" t="str">
-        <v>(1)</v>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <v>Songkhla</v>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.lazada.co.th/products/vivo-v40-pro-12512gb-premium-gift-box-1-by-tg-i5293046774.html</v>
+        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
       </c>
       <c r="B12" t="str">
-        <v>https://img.lazcdn.com/g/p/362c59fd6f48cf8efe96a88098459ea9.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/4fd82e3488b7406d901a068fffb14b0d.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/4fd82e3488b7406d901a068fffb14b0d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
       </c>
       <c r="F12" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/c9e5bf1ebd2daf7c8a761af94767e1ac.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G12" t="str">
-        <v>Vivo V40 Pro (12/512GB) แถมฟรี Premium Gift Box สมาร์ทโฟน โทรศัพท์มือถือ แถมฟรีประกันจอแตก (สินค้ารับประกัน1ปี) By TG</v>
+        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
       </c>
       <c r="H12" t="str">
-        <v>฿24,019.00</v>
+        <v>https://img.lazcdn.com/g/p/854233c90b8f899a6bced7b1df9bda82.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I12" t="str">
-        <v>Voucher save 11%</v>
+        <v>Redmi 13C 8GB+256GB | รับประกัน 15 เดือน</v>
       </c>
       <c r="J12" t="str">
-        <v>22 sold</v>
+        <v>฿4,399.00</v>
       </c>
       <c r="K12" t="str">
-        <v>(11)</v>
+        <v>Voucher save 20%</v>
       </c>
       <c r="L12" t="str">
-        <v>Pathum Thani</v>
+        <v>1.3K sold</v>
+      </c>
+      <c r="M12" t="str">
+        <v>(629)</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y28-4g-1-by-tg-i5164757492.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-iqoo-z9x-5g-cpu-snapdragon-6-gen-1-extended-ram-8gb-672-8mp-2mp-6000-mah-44w-flashcharge-i5125041093.html</v>
       </c>
       <c r="B13" t="str">
-        <v>https://img.lazcdn.com/g/p/b69db10494266afa539b3d1a73afa801.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/882391be39943bc1badae3eb6047031b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y28-4g-1-by-tg-i5164757492.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-iqoo-z9x-5g-cpu-snapdragon-6-gen-1-extended-ram-8gb-672-8mp-2mp-6000-mah-44w-flashcharge-i5125041093.html</v>
       </c>
       <c r="D13" t="str">
-        <v>https://img.lazcdn.com/g/p/6591443720b8a66e0211af746c63f36d.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/882391be39943bc1badae3eb6047031b.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E13" t="str">
         <v/>
@@ -850,74 +886,80 @@
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>Vivo Y28 4G โทรศัพท์มือถือ แถมฟรีประกันจอแตก (สินค้ารับประกัน1ปี) By TG</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v>฿6,017.00</v>
+        <v/>
       </c>
       <c r="I13" t="str">
-        <v>Voucher save 33%</v>
+        <v>[New Arrival] iQOO Z9x 5G CPU : Snapdragon® 6 Gen 1 | Extended RAM 8GB | จอ 6.72 นิ้ว | กล้องหน้า 8MP กล้องหลัง 2MP | แบตเตอรี่ 6000 mAh | ชาร์จไว 44W Flashcharge</v>
       </c>
       <c r="J13" t="str">
-        <v>61 sold</v>
+        <v>฿7,999.00</v>
       </c>
       <c r="K13" t="str">
-        <v>(27)</v>
+        <v>Voucher save 50%</v>
       </c>
       <c r="L13" t="str">
-        <v>Pathum Thani</v>
+        <v>677 sold</v>
+      </c>
+      <c r="M13" t="str">
+        <v>(343)</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-vivo-v40-12256512-cpu-snapdragon-7-gen-3-678-50mp-50mp-ois-ziess50mp-af-ultra-wide-5500-mah-80w-flashcharge-i5282929015.html</v>
       </c>
       <c r="B14" t="str">
-        <v>https://img.lazcdn.com/g/p/0284b336da0844d0177970028f084460.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/7eb4b4a70a759671ed1c0f7e80d1866d.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-vivo-v40-12256512-cpu-snapdragon-7-gen-3-678-50mp-50mp-ois-ziess50mp-af-ultra-wide-5500-mah-80w-flashcharge-i5282929015.html</v>
       </c>
       <c r="D14" t="str">
-        <v>https://img.lazcdn.com/g/p/135075cbffda56724290f40f5c8ece22.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/7eb4b4a70a759671ed1c0f7e80d1866d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E14" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-vivo-v40-12256512-cpu-snapdragon-7-gen-3-678-50mp-50mp-ois-ziess50mp-af-ultra-wide-5500-mah-80w-flashcharge-i5282929015.html</v>
       </c>
       <c r="F14" t="str">
-        <v>https://img.lazcdn.com/g/p/ce8ed071ce0c6a29e19c2a1491160e8d.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/7eb4b4a70a759671ed1c0f7e80d1866d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G14" t="str">
-        <v>[NEW]POCO M6 6GB+128GB 6.79" 90Hz FHD+ display, กล้องหลักระดับโปรความละเอียด 108MP, รองรับชาร์จเร็ว 33W</v>
+        <v/>
       </c>
       <c r="H14" t="str">
-        <v>฿4,399.00</v>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <v>Voucher save 17%</v>
+        <v>[New Arrival] vivo V40 (12+256/512) CPU : Snapdragon® 7 Gen 3 จอ 6.78 นิ้ว กล้องหน้า 50MP กล้องหลัง 50MP OIS ZIESS+50MP AF Ultra wide แบตเตอรี่ 5500 mAh ชาร์จไว 80W Flashcharge</v>
       </c>
       <c r="J14" t="str">
-        <v>726 sold</v>
+        <v>฿15,999.00</v>
       </c>
       <c r="K14" t="str">
-        <v>(486)</v>
+        <v>Voucher save 50%</v>
       </c>
       <c r="L14" t="str">
-        <v>Samut Prakan</v>
+        <v>713 sold</v>
+      </c>
+      <c r="M14" t="str">
+        <v>(366)</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128gb-656-5000mah-i4888383685.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
       </c>
       <c r="B15" t="str">
-        <v>https://img.lazcdn.com/g/p/c476dddd9d3b8f51d60cea30cf0a81f2.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/c476dddd9d3b8f51d60cea30cf0a81f2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C15" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128gb-656-5000mah-i4888383685.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y03-4644128g-656-ram4gbrom64gb-5000mah-i5155295191.html</v>
       </c>
       <c r="D15" t="str">
-        <v>https://img.lazcdn.com/g/p/65137cd13302562cb53ff4259e4dd533.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/65137cd13302562cb53ff4259e4dd533.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E15" t="str">
         <v/>
@@ -926,74 +968,80 @@
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>VIVO Y03 (4+64/4+128GB) จอ 6.56นิ้ว เเบตเตอรี่ 5000mAh เครื่องแท้ศูนย์ไทย</v>
+        <v/>
       </c>
       <c r="H15" t="str">
-        <v>฿3,065.00</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v>Voucher save 69%</v>
+        <v>vivo Y03 (4+64/4+128G) จอ 6.56นิ้ว เครื่องแท้ศูนย์ไทย Ram4GB+Rom64GB เเบตเตอรี่ 5000mAh อุปกรณ์ครบชุด</v>
       </c>
       <c r="J15" t="str">
-        <v>2.6K sold</v>
+        <v>฿4,699.00</v>
       </c>
       <c r="K15" t="str">
-        <v>(358)</v>
+        <v/>
       </c>
       <c r="L15" t="str">
-        <v>Bangkok</v>
+        <v>5.6K sold</v>
+      </c>
+      <c r="M15" t="str">
+        <v>(900)</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128256gb-i5136519621.html</v>
+        <v>https://www.lazada.co.th/products/2020-nokia-phone-101-4g-i4761045127.html</v>
       </c>
       <c r="B16" t="str">
-        <v>https://img.lazcdn.com/g/p/18917373f2f7c138d6e01361ff5eaf72.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/473fe5da168502f540fc4751018510ed.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C16" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128256gb-i5136519621.html</v>
+        <v>https://www.lazada.co.th/products/2020-nokia-phone-101-4g-i4761045127.html</v>
       </c>
       <c r="D16" t="str">
-        <v>https://img.lazcdn.com/g/p/8c0ceb53fce108ecbb0ba0fb498d4d5c.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8271fe0b9443370d59840d310dd08761.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/2020-nokia-phone-101-4g-i4761045127.html</v>
       </c>
       <c r="F16" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/473fe5da168502f540fc4751018510ed.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G16" t="str">
-        <v>OPPO A60 (8+128,256GB)</v>
+        <v>https://www.lazada.co.th/products/2020-nokia-phone-101-4g-i4761045127.html</v>
       </c>
       <c r="H16" t="str">
-        <v>฿5,999.00</v>
+        <v>https://img.lazcdn.com/g/p/05d01f9e37319bf7a1a865c3a7770e46.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I16" t="str">
-        <v/>
+        <v>ใหม่2020 รองรับภาษาไทย Nokia Phone 101 4G เหมาะกับผู้สูงอายุแลทุกวัย</v>
       </c>
       <c r="J16" t="str">
-        <v>407 sold</v>
+        <v>฿319.00</v>
       </c>
       <c r="K16" t="str">
-        <v>(266)</v>
+        <v>Voucher save 39%</v>
       </c>
       <c r="L16" t="str">
-        <v>Chachoengsao</v>
+        <v>155 sold</v>
+      </c>
+      <c r="M16" t="str">
+        <v>(52)</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.lazada.co.th/products/y7pro2018-62-3-32-i2871897504.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-vivo-v40-8256-cpu-snapdragon-7-gen-3-678-50mp-50mp-ois-ziess50mp-af-ultra-wide-5500-mah-80w-flashcharge-i5339487469.html</v>
       </c>
       <c r="B17" t="str">
-        <v>https://img.lazcdn.com/g/p/417c49e3dd53a56352f3b571ac222978.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ce519e2f40c2809c9b6d322633ff7099.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/new-arrival-vivo-v40-8256-cpu-snapdragon-7-gen-3-678-50mp-50mp-ois-ziess50mp-af-ultra-wide-5500-mah-80w-flashcharge-i5339487469.html</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/ce519e2f40c2809c9b6d322633ff7099.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E17" t="str">
         <v/>
@@ -1002,74 +1050,80 @@
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>มือถือ   Y7pro(2018)มือ✌️หน้าจอ 6.2  🌺แรม3 รอม 32กิ๊ก 🌺ฟรีชุดชาร์จ</v>
+        <v/>
       </c>
       <c r="H17" t="str">
-        <v>฿999.00</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v/>
+        <v>[New Arrival] vivo V40 (8+256) CPU : Snapdragon® 7 Gen 3 จอ 6.78 นิ้ว กล้องหน้า 50MP กล้องหลัง 50MP OIS ZIESS+50MP AF Ultra wide แบตเตอรี่ 5500 mAh ชาร์จไว 80W Flashcharge</v>
       </c>
       <c r="J17" t="str">
-        <v>139 sold</v>
+        <v>฿14,549.00</v>
       </c>
       <c r="K17" t="str">
-        <v>(37)</v>
+        <v>Voucher save 52%</v>
       </c>
       <c r="L17" t="str">
-        <v>Maha Sarakham</v>
+        <v>210 sold</v>
+      </c>
+      <c r="M17" t="str">
+        <v>(74)</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.lazada.co.th/products/2-mini-phone-dual-sim-l8star-bm10-i5104463330.html</v>
+        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
       </c>
       <c r="B18" t="str">
-        <v>https://img.lazcdn.com/g/p/6dda3cda2e72dc04036ff0beb6c6333b.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/0284b336da0844d0177970028f084460.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C18" t="str">
-        <v>https://www.lazada.co.th/products/2-mini-phone-dual-sim-l8star-bm10-i5104463330.html</v>
+        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
       </c>
       <c r="D18" t="str">
-        <v>https://img.lazcdn.com/g/p/6dda3cda2e72dc04036ff0beb6c6333b.png_80x80q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/135075cbffda56724290f40f5c8ece22.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E18" t="str">
-        <v>https://www.lazada.co.th/products/2-mini-phone-dual-sim-l8star-bm10-i5104463330.html</v>
+        <v>https://www.lazada.co.th/products/newpoco-m6-6gb128gb-679-90hz-fhd-display-108mp-33w-i5186453174.html</v>
       </c>
       <c r="F18" t="str">
-        <v>https://img.lazcdn.com/g/p/6dda3cda2e72dc04036ff0beb6c6333b.png_80x80q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ce8ed071ce0c6a29e19c2a1491160e8d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G18" t="str">
-        <v>มือถือจิ๋วโทรศัพท์จิ๋วใส่ได้ 2 ซิม mini phone dual sim รุ่น L8star BM10</v>
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>฿253.00</v>
+        <v/>
       </c>
       <c r="I18" t="str">
-        <v>Voucher save 23%</v>
+        <v>[NEW]POCO M6 6GB+128GB 6.79" 90Hz FHD+ display, กล้องหลักระดับโปรความละเอียด 108MP, รองรับชาร์จเร็ว 33W</v>
       </c>
       <c r="J18" t="str">
-        <v>392 sold</v>
+        <v>฿4,699.00</v>
       </c>
       <c r="K18" t="str">
-        <v>(113)</v>
+        <v>Voucher save 11%</v>
       </c>
       <c r="L18" t="str">
-        <v>Bangkok</v>
+        <v>1.0K sold</v>
+      </c>
+      <c r="M18" t="str">
+        <v>(610)</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-8256gb-656-5000mah-1-i5180559705.html</v>
+        <v>https://www.lazada.co.th/products/2-i5069638860.html</v>
       </c>
       <c r="B19" t="str">
-        <v>https://img.lazcdn.com/g/p/6edb0fd9533fbba24f03effe43333d67.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8a46ced8f2259ede824768a2850124e7.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C19" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-8256gb-656-5000mah-1-i5180559705.html</v>
+        <v>https://www.lazada.co.th/products/2-i5069638860.html</v>
       </c>
       <c r="D19" t="str">
-        <v>https://img.lazcdn.com/g/p/f1893c91c5b2605c8e6ba94177a1c5bc.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/333048c6a348f18d45be202848015455.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -1078,36 +1132,39 @@
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>Vivo Y18 (8+128GB) (8+256GB) หน้าจอ 6.56 นิ้ว แบต 5000mAh รับประกันศุนย์ 1 ปี</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>฿4,890.00</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>Voucher save 30%</v>
+        <v>ซัมซุง เอ2คอล สภาพสวยพร้อมใช้งาน (ฟรีชุดชาร์จ)</v>
       </c>
       <c r="J19" t="str">
-        <v>10 sold</v>
+        <v>฿549.00</v>
       </c>
       <c r="K19" t="str">
-        <v>(7)</v>
+        <v/>
       </c>
       <c r="L19" t="str">
-        <v>Bangkok</v>
+        <v>210 sold</v>
+      </c>
+      <c r="M19" t="str">
+        <v>(107)</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128gb8256gb-667-50-mp-45w-5000-mah-i5203154376.html</v>
+        <v>https://www.lazada.co.th/products/vivo-y36-4g-ram8256gb-i5106116151.html</v>
       </c>
       <c r="B20" t="str">
-        <v>https://img.lazcdn.com/g/p/9eee92832458d27f9727eef9f91a5edd.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/965e85059a7b5a6ef3f06453394ee36d.png_200x200q80.png_.webp</v>
       </c>
       <c r="C20" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128gb8256gb-667-50-mp-45w-5000-mah-i5203154376.html</v>
+        <v/>
       </c>
       <c r="D20" t="str">
-        <v>https://img.lazcdn.com/g/p/0bd938183756a8893d9ca888ba774f94.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -1116,74 +1173,80 @@
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>OPPO A60 (8+128GB)(8+256GB)  หน้าจอ 6.67 นิ้ว กล้อง 50 MP ชาร์จไว 45W แบตเตอรี่ 5000 mAh</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v>฿5,630.00</v>
+        <v/>
       </c>
       <c r="I20" t="str">
-        <v>Voucher save 20%</v>
+        <v>Vivo Y36 4G Ram8/256gb(สินค้าใหม่ เครื่องศูนย์ไทยรับประกันร้าน) ส่งฟรี!</v>
       </c>
       <c r="J20" t="str">
-        <v>7 sold</v>
+        <v>฿5,480.00</v>
       </c>
       <c r="K20" t="str">
-        <v>(4)</v>
+        <v>Voucher save 31%</v>
       </c>
       <c r="L20" t="str">
-        <v>Bangkok</v>
+        <v>6 sold</v>
+      </c>
+      <c r="M20" t="str">
+        <v>(2)</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-honor-x6b-l-1266128gbl-chipset-mediatek-helio-g85-l-super-charge-35wl-50mp-l-5200mah-i5337307764.html</v>
       </c>
       <c r="B21" t="str">
-        <v>https://img.lazcdn.com/g/p/c91ab1d4b81ce40a3c5a3abe73a8fda6.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/572c5e8533cd367df9731d5519b45e00.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C21" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v>https://www.lazada.co.th/products/new-arrival-honor-x6b-l-1266128gbl-chipset-mediatek-helio-g85-l-super-charge-35wl-50mp-l-5200mah-i5337307764.html</v>
       </c>
       <c r="D21" t="str">
-        <v>https://img.lazcdn.com/g/p/f12d17af28b2e2cd31a97f0635394015.png_80x80q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/0f0ea92024cd6d540c9b45ee79ac6084.png_80x80q80.png_.webp</v>
       </c>
       <c r="E21" t="str">
-        <v>https://www.lazada.co.th/products/samsung-hero-e1200-i2941697386.html</v>
+        <v/>
       </c>
       <c r="F21" t="str">
-        <v>https://img.lazcdn.com/g/p/79bd9db581f808ce8f7ce116958cf2d4.png_80x80q75.png_.webp</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>Samsung hero E1200 มือถือเครื่อง จอสี มือถือปุ่มกด ซัมซุง โทรศัพท์ซัมซุงรุ่นเก่า ลำโพงเสียงดัง</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v>฿299.00</v>
+        <v/>
       </c>
       <c r="I21" t="str">
-        <v>Voucher save 25%</v>
+        <v>[New Arrival] HONOR X6b l 12(6+6)+128GBl Chipset MediaTek Helio G85  l Super-Charge 35Wl กล้องหลัง 50MP lแบตเตอรี่ 5200mAh</v>
       </c>
       <c r="J21" t="str">
-        <v>272 sold</v>
+        <v>฿3,999.00</v>
       </c>
       <c r="K21" t="str">
-        <v>(57)</v>
+        <v>Voucher save 33%</v>
       </c>
       <c r="L21" t="str">
-        <v>Bangkok</v>
+        <v>284 sold</v>
+      </c>
+      <c r="M21" t="str">
+        <v>(145)</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.lazada.co.th/products/redmi-13c-5g-8gb256gb-5000mah-15-90hz-fhd-18w-i5216263803.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06-464gb128gb-i5301204939.html</v>
       </c>
       <c r="B22" t="str">
-        <v>https://img.lazcdn.com/g/p/2ddebef7a1c8d22721a9860143c3e216.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/81fd6038c7a65c0d7bda0ac2de8c5f2a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06-464gb128gb-i5301204939.html</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/aa70840ee3733b9030c6e090f9d85d84.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -1192,220 +1255,238 @@
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>(New) Redmi 13C 5g (8GB + 256GB) mobile phone 5000mAh battery 15 months warranty 90Hz FHD + 18W Quick Charge</v>
+        <v/>
       </c>
       <c r="H22" t="str">
-        <v>฿5.00</v>
+        <v/>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>Samsung Galaxy A06 4+64GB,128GB</v>
       </c>
       <c r="J22" t="str">
-        <v>9 sold</v>
+        <v>฿3,699.00</v>
       </c>
       <c r="K22" t="str">
         <v/>
       </c>
       <c r="L22" t="str">
-        <v>Samut Sakhon</v>
+        <v>1.2K sold</v>
+      </c>
+      <c r="M22" t="str">
+        <v>(405)</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-mediatek-helio-g85-ai-3-50mp-15-i5220672973.html</v>
+        <v>https://www.lazada.co.th/products/phone-1280-2023-h071-i4889305607.html</v>
       </c>
       <c r="B23" t="str">
-        <v>https://img.lazcdn.com/g/p/d35e4a60beb017e431b77c5d01d2139f.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/ff/kf/Sa69cc7449ade4f76a176d6703f9ee808M.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C23" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/phone-1280-2023-h071-i4889305607.html</v>
       </c>
       <c r="D23" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/ff/kf/Sa69cc7449ade4f76a176d6703f9ee808M.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E23" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/phone-1280-2023-h071-i4889305607.html</v>
       </c>
       <c r="F23" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/ff/kf/Sa69cc7449ade4f76a176d6703f9ee808M.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G23" t="str">
-        <v>Poco C65 8GB + 256GB powerful chipset MediaTek Helio G85 3 PCs AI camera 50MP | 15 months warranty</v>
+        <v>https://www.lazada.co.th/products/phone-1280-2023-h071-i4889305607.html</v>
       </c>
       <c r="H23" t="str">
-        <v>฿5.00</v>
+        <v>https://img.lazcdn.com/g/ff/kf/Sa69cc7449ade4f76a176d6703f9ee808M.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I23" t="str">
-        <v/>
+        <v>โทรศัพท์มือถือปุ่มกด PHONE 1280 เหมาะกับผู้สูงอายุ รุ่นใหม่ 2023 รองรับภาษาไทย H071</v>
       </c>
       <c r="J23" t="str">
-        <v>8 sold</v>
+        <v>฿179.00</v>
       </c>
       <c r="K23" t="str">
-        <v/>
+        <v>Voucher save 76%</v>
       </c>
       <c r="L23" t="str">
-        <v>Samut Sakhon</v>
+        <v>178 sold</v>
+      </c>
+      <c r="M23" t="str">
+        <v>(53)</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.lazada.co.th/products/lavas6518-i4734362199.html</v>
+        <v>https://www.lazada.co.th/products/apro-a3-1-i5238937869.html</v>
       </c>
       <c r="B24" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S3349b885d4e04df4940ed0636f28872aI.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/57a73ac7dcd95360c0885849a7b598a9.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/apro-a3-1-i5238937869.html</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/6e75bc8d896275b340f1390c97a71651.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E24" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/apro-a3-1-i5238937869.html</v>
       </c>
       <c r="F24" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/8c6c6ed7f196e19988f1b5b42f1f7c16.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G24" t="str">
-        <v>ทัสกรีน lava s6501/s6518 ใช้ตัวเดียวกัน</v>
+        <v>https://www.lazada.co.th/products/apro-a3-1-i5238937869.html</v>
       </c>
       <c r="H24" t="str">
-        <v>฿480.00</v>
+        <v>https://img.lazcdn.com/g/p/fa94958bd0c222434714e9b848e17a7b.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I24" t="str">
-        <v>Voucher save 2%</v>
+        <v>apro รุ่น A3โทรศัพท์มือถือปุ่มกด รองรับทุกเครือข่าย ปุ่มกดไทย/เมนูไทย สัญญาณดีมาก ลำโพงเสียงดัง แบตทน ประกันศูนย์ไทย1ปี ส่งฟรี</v>
       </c>
       <c r="J24" t="str">
-        <v>211 sold</v>
+        <v>฿699.00</v>
       </c>
       <c r="K24" t="str">
-        <v>(57)</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>Nakhon Phanom</v>
+        <v>5 sold</v>
+      </c>
+      <c r="M24" t="str">
+        <v>(2)</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-8gb256gb-679-90hz-fhd-display-108mp-33w-i5198770763.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a18-464gb-11-65-refresh-rate-90-hz-5000-mah-i5243449795.html</v>
       </c>
       <c r="B25" t="str">
-        <v>https://img.lazcdn.com/g/p/0284b336da0844d0177970028f084460.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/9a50e1fe9e6369bb7e25f281a45c7ebe.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C25" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-8gb256gb-679-90hz-fhd-display-108mp-33w-i5198770763.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a18-464gb-11-65-refresh-rate-90-hz-5000-mah-i5243449795.html</v>
       </c>
       <c r="D25" t="str">
-        <v>https://img.lazcdn.com/g/p/135075cbffda56724290f40f5c8ece22.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1863c6417f27d6f4807d753d18a915e1.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E25" t="str">
-        <v>https://www.lazada.co.th/products/newpoco-m6-8gb256gb-679-90hz-fhd-display-108mp-33w-i5198770763.html</v>
+        <v/>
       </c>
       <c r="F25" t="str">
-        <v>https://img.lazcdn.com/g/p/ce8ed071ce0c6a29e19c2a1491160e8d.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G25" t="str">
-        <v>[NEW]POCO M6 8GB+256GB 6.79" 90Hz FHD+ display, กล้องหลักระดับโปรความละเอียด 108MP, รองรับชาร์จเร็ว 33W</v>
+        <v/>
       </c>
       <c r="H25" t="str">
-        <v>฿4,999.00</v>
+        <v/>
       </c>
       <c r="I25" t="str">
-        <v>Voucher save 17%</v>
+        <v>(พร้อมส่ง)  OPPO A18 (4/64GB) ของแท้ มือ1รับประกันศูนย์1ปี ขยายแรมเพิ่มได้ หน้าจอ 6.5นิ้ว Refresh rate 90 Hz แบตเตอรี่ 5,000 mAh มีหน้าร้าน มีบริการส่งด่วน ใน กทม.</v>
       </c>
       <c r="J25" t="str">
-        <v>552 sold</v>
+        <v>฿3,590.00</v>
       </c>
       <c r="K25" t="str">
-        <v>(325)</v>
+        <v>Voucher save 10%</v>
       </c>
       <c r="L25" t="str">
-        <v>Samut Prakan</v>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
+        <v>https://www.lazada.co.th/products/oppo-reno-11f-8256-3-i5240639973.html</v>
       </c>
       <c r="B26" t="str">
-        <v>https://img.lazcdn.com/g/p/4fd82e3488b7406d901a068fffb14b0d.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/ff/kf/Sac71719065404831b23907ef0327fb9ci.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C26" t="str">
-        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
+        <v/>
       </c>
       <c r="D26" t="str">
-        <v>https://img.lazcdn.com/g/p/c9e5bf1ebd2daf7c8a761af94767e1ac.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E26" t="str">
-        <v>https://www.lazada.co.th/products/redmi-13c-8gb256gb-15-i4968858436.html</v>
+        <v/>
       </c>
       <c r="F26" t="str">
-        <v>https://img.lazcdn.com/g/p/854233c90b8f899a6bced7b1df9bda82.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>Redmi 13C 8GB+256GB | รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H26" t="str">
-        <v>฿4,599.00</v>
+        <v/>
       </c>
       <c r="I26" t="str">
-        <v>Voucher save 16%</v>
+        <v>OPPO Reno 11F (8+256) เครื่องใหม่เคลียร์สต็อค /ประกันร้าน 3 เดือน</v>
       </c>
       <c r="J26" t="str">
-        <v>1.1K sold</v>
+        <v>฿8,090.00</v>
       </c>
       <c r="K26" t="str">
-        <v>(551)</v>
+        <v>Voucher save 52%</v>
       </c>
       <c r="L26" t="str">
-        <v>Samut Prakan</v>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8g256g-mediatek-helio-g85-ai-3-50mp-i4594325536.html</v>
+        <v>https://www.lazada.co.th/products/3310-4g-2-24-i2870903017.html</v>
       </c>
       <c r="B27" t="str">
-        <v>https://img.lazcdn.com/g/p/c8939be4ea53f7c2993e6bb657270e60.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/71241c0d318d30ca05a39aaf842cdef4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C27" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8g256g-mediatek-helio-g85-ai-3-50mp-i4594325536.html</v>
+        <v>https://www.lazada.co.th/products/3310-4g-2-24-i2870903017.html</v>
       </c>
       <c r="D27" t="str">
-        <v>https://img.lazcdn.com/g/p/f2971e26360b8941804eb64fec214a47.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8d243f85b9647b6e203c935705432c3c.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E27" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8g256g-mediatek-helio-g85-ai-3-50mp-i4594325536.html</v>
+        <v>https://www.lazada.co.th/products/3310-4g-2-24-i2870903017.html</v>
       </c>
       <c r="F27" t="str">
-        <v>https://img.lazcdn.com/g/p/1488655f651bcda7086f4f80628c409f.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1c609a8c3a37043c5feff16c64708c2d.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G27" t="str">
-        <v>【สต็อกพร้อมส่ง】POCO C65 8G+256G ชิปเซ็ตทรงพลัง MediaTek Helio G85 กล้อง AI 3 ตัว 50MP</v>
+        <v>https://www.lazada.co.th/products/3310-4g-2-24-i2870903017.html</v>
       </c>
       <c r="H27" t="str">
-        <v>฿3,999.00</v>
+        <v>https://img.lazcdn.com/g/p/0fefbc18662e26b38a0ce32da574840a.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I27" t="str">
-        <v>Voucher save 33%</v>
+        <v>มือถือ3310 โทรศัพท์ปุ่มกด 4G 2ซิม ไลน์ เฟส ได้ รุ่นใหม่ (หน้าจอ2.4)</v>
       </c>
       <c r="J27" t="str">
-        <v>6.9K sold</v>
+        <v>฿325.00</v>
       </c>
       <c r="K27" t="str">
-        <v>(2267)</v>
+        <v>Voucher save 54%</v>
       </c>
       <c r="L27" t="str">
-        <v>Samut Prakan</v>
+        <v>7.5K sold</v>
+      </c>
+      <c r="M27" t="str">
+        <v>(2186)</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a3x-464g-8-mp-45w-5100mah-12-i5284429948.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a02s-ram464gb1-i2550957282.html</v>
       </c>
       <c r="B28" t="str">
-        <v>https://img.lazcdn.com/g/p/68f0247a6349c307c6c603ebfc162db9.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/2bbfa86857856121df49e7b4e1a87188.png_200x200q80.png_.webp</v>
       </c>
       <c r="C28" t="str">
         <v/>
@@ -1420,150 +1501,162 @@
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>[New] OPPO A3x (4+64G) | โทรศัพท์มือถือ ดีไซน์สวย ทนทาน กล้อง 8 MP ชาร์จไว 45W แบตเตอรี่ 5100mAh รับประกัน 12 เดือน</v>
+        <v/>
       </c>
       <c r="H28" t="str">
-        <v>฿3,999.00</v>
+        <v/>
       </c>
       <c r="I28" t="str">
-        <v>Voucher save 17%</v>
+        <v>Samsung Galaxy A02s Ram4/64gb(เครื่องใหม่มือ1,เครื่องศูนย์ไทย เคลียสตอค ประกันร้าน)น้องเล็ก สเปคดี ใช้งานครบครัน ในราคาเบาๆ ส่งฟรี!</v>
       </c>
       <c r="J28" t="str">
-        <v>337 sold</v>
+        <v>฿3,380.00</v>
       </c>
       <c r="K28" t="str">
-        <v>(362)</v>
+        <v>Voucher save 32%</v>
       </c>
       <c r="L28" t="str">
-        <v>Samut Prakan</v>
+        <v>5 sold</v>
+      </c>
+      <c r="M28" t="str">
+        <v>(1)</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128gb-656-90-hz-0-5000-mah-ll-1-i5135357350.html</v>
+        <v>https://www.lazada.co.th/products/new-oppo-a3x-464g-8-mp-45w-5100mah-12-i5284429948.html</v>
       </c>
       <c r="B29" t="str">
-        <v>https://img.lazcdn.com/g/p/73dbd027d9fe9801b4c66157401360e7.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ffd404a30e94e5cd71e015aacbf87a56.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C29" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128gb-656-90-hz-0-5000-mah-ll-1-i5135357350.html</v>
+        <v>https://www.lazada.co.th/products/new-oppo-a3x-464g-8-mp-45w-5100mah-12-i5284429948.html</v>
       </c>
       <c r="D29" t="str">
-        <v>https://img.lazcdn.com/g/p/d54fa3c17b00c34e85877fa8fb434761.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8cddc9297292b9e56ec5348a6ccb58f6.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E29" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y03-4644128gb-656-90-hz-0-5000-mah-ll-1-i5135357350.html</v>
+        <v/>
       </c>
       <c r="F29" t="str">
-        <v>https://img.lazcdn.com/g/p/79c972341fd8db6c0a830e0360c2f6c4.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>Vivo Y03 (4+64/4+128GB) หน้าจอ 6.56 นิ้ว 90 Hz 0จอสู้แสงแดด แบตเตอรี่ 5000 mAh ll ประกันศูนย์ไทย 1 ปี</v>
+        <v/>
       </c>
       <c r="H29" t="str">
-        <v>฿3,059.00</v>
+        <v/>
       </c>
       <c r="I29" t="str">
-        <v>Voucher save 39%</v>
+        <v>[New] OPPO A3x (4+64G) | โทรศัพท์มือถือ ดีไซน์สวย ทนทาน กล้อง 8 MP ชาร์จไว 45W แบตเตอรี่ 5100mAh รับประกัน 12 เดือน</v>
       </c>
       <c r="J29" t="str">
-        <v>13 sold</v>
+        <v>฿3,999.00</v>
       </c>
       <c r="K29" t="str">
-        <v>(13)</v>
+        <v>Voucher save 17%</v>
       </c>
       <c r="L29" t="str">
-        <v>Bangkok</v>
+        <v>1.8K sold</v>
+      </c>
+      <c r="M29" t="str">
+        <v>(478)</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
+        <v>https://www.lazada.co.th/products/oppo-reno-3-pro-ram8256gb-1-3-44mp-i1178826585.html</v>
       </c>
       <c r="B30" t="str">
-        <v>https://img.lazcdn.com/g/p/7576847d98239b9883555b514b552f31.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/5ffa237c7adc18f81fd09b81fb32eb30.png_200x200q80.png_.webp</v>
       </c>
       <c r="C30" t="str">
-        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
+        <v>https://www.lazada.co.th/products/oppo-reno-3-pro-ram8256gb-1-3-44mp-i1178826585.html</v>
       </c>
       <c r="D30" t="str">
-        <v>https://img.lazcdn.com/g/p/7a19c6315cdc8c6771c402b2533130a2.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/d78af991aa5ef54fc55c6fdbb46b67cf.png_80x80q80.png_.webp</v>
       </c>
       <c r="E30" t="str">
-        <v>https://www.lazada.co.th/products/new-redmi-note-13-8gb256gb-3-108mp-120hz-amoled-15-i5010705050.html</v>
+        <v/>
       </c>
       <c r="F30" t="str">
-        <v>https://img.lazcdn.com/g/p/2acc6699fc9752c337ab566d3eb515d4.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G30" t="str">
-        <v>[NEW] Redmi Note 13 8GB+256GB กล้อง 3 ตัว 108MP จอแสดงผล 120Hz AMOLED | รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>฿5,950.00</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>Voucher save 26%</v>
+        <v>Oppo Reno 3 Pro Ram8/256gb (เครื่องใหม่มือ1ศูนย์ไทย เคลียสตอค มีประกันร้าน 3เดือน) กล้องหน้าคู่คมชัด 44MP ส่งฟรี!</v>
       </c>
       <c r="J30" t="str">
-        <v>2.3K sold</v>
+        <v>฿7,980.00</v>
       </c>
       <c r="K30" t="str">
-        <v>(1064)</v>
+        <v>Voucher save 58%</v>
       </c>
       <c r="L30" t="str">
-        <v>Samut Prakan</v>
+        <v>9 sold</v>
+      </c>
+      <c r="M30" t="str">
+        <v>(3)</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v>https://www.lazada.co.th/products/tecno-spark-20-pro-25612-21gb-678-120hz-g99-fast-charge-33w-i5065454495.html</v>
       </c>
       <c r="B31" t="str">
-        <v>https://img.lazcdn.com/g/p/4a6db73b592022ee5faa72baa3946eb4.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8b769fee53f5b062a5ae1cf6568d704b.png_200x200q80.png_.webp</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v/>
       </c>
       <c r="D31" t="str">
-        <v>https://img.lazcdn.com/g/p/41f52257bbda7d41e163eacb0e6c38bf.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="E31" t="str">
-        <v>https://www.lazada.co.th/products/poco-c65-8gb256gb-15-i4920589705.html</v>
+        <v/>
       </c>
       <c r="F31" t="str">
-        <v>https://img.lazcdn.com/g/p/f49d1ef2f181ff89e3bc21c5620056d9.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>POCO C65 8GB+256GB รุ่นใหม่ | รับประกัน 15 เดือน</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>฿4,199.00</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v>Voucher save 13%</v>
+        <v>TECNO Spark 20 Pro| 256+12 (เพิ่มแรมได้สูงสุด 21GB) |จอใหญ่6.78" 120Hz | G99 |Fast charge 33W</v>
       </c>
       <c r="J31" t="str">
-        <v>4.2K sold</v>
+        <v>฿7,499.00</v>
       </c>
       <c r="K31" t="str">
-        <v>(1313)</v>
+        <v/>
       </c>
       <c r="L31" t="str">
-        <v>Samut Prakan</v>
+        <v>145 sold</v>
+      </c>
+      <c r="M31" t="str">
+        <v>(81)</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a60-8128gb256gb-2-i5180759875.html</v>
+        <v>https://www.lazada.co.th/products/new-oppo-a3x-6128g-8-mp-45w-5100mah-12-i5284621330.html</v>
       </c>
       <c r="B32" t="str">
-        <v>https://img.lazcdn.com/g/p/d3ca46b20cd3323c90134a386bc4c9cf.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e957cd263cee9e22f28bafe7fe86e46a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C32" t="str">
-        <v>https://www.lazada.co.th/products/new-oppo-a60-8128gb256gb-2-i5180759875.html</v>
+        <v>https://www.lazada.co.th/products/new-oppo-a3x-6128g-8-mp-45w-5100mah-12-i5284621330.html</v>
       </c>
       <c r="D32" t="str">
-        <v>https://img.lazcdn.com/g/p/e75bb630d45dcbae2e2eaab5e2c2a3f7.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/3664236f5e9cfc418c46d50a81b05860.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -1572,74 +1665,80 @@
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>New! OPPO A60 (8+128GB/256GB) เครื่องแท้รับประกันศูนย์ไทย🔥เลือกของแถมได้ฟรี! 2 ชิ้น🔥</v>
+        <v/>
       </c>
       <c r="H32" t="str">
-        <v>฿5,990.00</v>
+        <v/>
       </c>
       <c r="I32" t="str">
-        <v>Voucher save 14%</v>
+        <v>[New] OPPO A3x (6+128G) | โทรศัพท์มือถือ ดีไซน์สวย ทนทาน กล้อง 8 MP ชาร์จไว 45W แบตเตอรี่ 5100mAh รับประกัน 12 เดือน</v>
       </c>
       <c r="J32" t="str">
-        <v/>
+        <v>฿5,299.00</v>
       </c>
       <c r="K32" t="str">
-        <v/>
+        <v>Voucher save 16%</v>
       </c>
       <c r="L32" t="str">
-        <v>Bangkok</v>
+        <v>311 sold</v>
+      </c>
+      <c r="M32" t="str">
+        <v>(127)</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a74-5g-8-256-gb-65-18-w-fast-charging-1-i4942006296.html</v>
       </c>
       <c r="B33" t="str">
-        <v>https://img.lazcdn.com/g/p/f8baea32205e8adb7543b34fc6c5c13e.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e36bfd6e06908d30846272d06bd7bf76.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C33" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a74-5g-8-256-gb-65-18-w-fast-charging-1-i4942006296.html</v>
       </c>
       <c r="D33" t="str">
-        <v>https://img.lazcdn.com/g/p/7ac75efa53e92067ba2b4cf34868a508.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ee20f69acd328836bbc3f80d15556839.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E33" t="str">
-        <v>https://www.lazada.co.th/products/230-i1385662334.html</v>
+        <v>https://www.lazada.co.th/products/oppo-a74-5g-8-256-gb-65-18-w-fast-charging-1-i4942006296.html</v>
       </c>
       <c r="F33" t="str">
-        <v>https://img.lazcdn.com/g/p/b38053c9de80cc09395f1927df34cae2.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e1a134e6e0eb8c30abc043622c0cac0a.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G33" t="str">
-        <v>230 โทรศัพท์มือถือ</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v>฿389.00</v>
+        <v/>
       </c>
       <c r="I33" t="str">
-        <v>Voucher save 35%</v>
+        <v>oppo A74 5G (แรม 8 รอม 256 GB.) จอ 6.5 นิ้ว ชาร์เร็ว 18 W. (Fast Charging)(ติดฟิล์มกระจกให้ฟรี+ฟรีเคสใส) อุปกรณ์ครบกล่อง รับประกัน 1 ปี</v>
       </c>
       <c r="J33" t="str">
-        <v>1.3K sold</v>
+        <v>฿3,129.00</v>
       </c>
       <c r="K33" t="str">
-        <v>(618)</v>
+        <v>Voucher save 48%</v>
       </c>
       <c r="L33" t="str">
-        <v>Bangkok</v>
+        <v>115 sold</v>
+      </c>
+      <c r="M33" t="str">
+        <v>(57)</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y11-ram3-rom32-i4924053249.html</v>
+        <v>https://www.lazada.co.th/products/qoomi-wow-q81-4128gb-65-smartphone-4g-mobiles-121-i4878401096.html</v>
       </c>
       <c r="B34" t="str">
-        <v>https://img.lazcdn.com/g/p/b2bb458bc05fcf864902dabd22f6c0fc.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/264d93e3ce9f171077902409ae1ecf79.png_200x200q80.png_.webp</v>
       </c>
       <c r="C34" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y11-ram3-rom32-i4924053249.html</v>
+        <v>https://www.lazada.co.th/products/qoomi-wow-q81-4128gb-65-smartphone-4g-mobiles-121-i4878401096.html</v>
       </c>
       <c r="D34" t="str">
-        <v>https://img.lazcdn.com/g/p/dbb70ac470ea946644c9a99fab9ea019.png_80x80q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/a5a6f8013ea5e5a31f23644b12f0e01a.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -1648,36 +1747,39 @@
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>โทรศัพท์มือถือ Vivo รุ่น Y11 ram3 rom32 สินค้าพร้อมส่งใหม่</v>
+        <v/>
       </c>
       <c r="H34" t="str">
-        <v>฿1,986.22</v>
+        <v/>
       </c>
       <c r="I34" t="str">
-        <v>Voucher save 39%</v>
+        <v>Mobile phone QOOMI WOW Q81 screen 6.5 inch Ram 4GB ROM 128GB 1 year warranty</v>
       </c>
       <c r="J34" t="str">
-        <v>27 sold</v>
+        <v>฿3,590.00</v>
       </c>
       <c r="K34" t="str">
-        <v>(12)</v>
+        <v/>
       </c>
       <c r="L34" t="str">
-        <v>Samut Prakan</v>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.lazada.co.th/products/te-03-i4012652720.html</v>
+        <v>https://www.lazada.co.th/products/newrealme-note-60-6128-32-mp-48-5000-mah-i5293435397.html</v>
       </c>
       <c r="B35" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S6753ea86a29a47d7b03b6954de393dcfp.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/9580b210e21c4c8c75d671e19ed00514.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C35" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/newrealme-note-60-6128-32-mp-48-5000-mah-i5293435397.html</v>
       </c>
       <c r="D35" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/9580b210e21c4c8c75d671e19ed00514.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1686,150 +1788,162 @@
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>สินค้าพร้อมส่ง🇹🇭แผ่นแกะขนาดบางสำหรับงานซ่อม TE-03 แผ่นแกะจอ แผ่นเหล็กบางแกะจอมือถือ แผ่นแกะจอโทรศัพท์มือถือ ที่แกะจอมือถือ สมาร์ทโฟน ตัวแกะจอโทรศัพท์ แผ่นแกะหน้าจอโทรศัพท์มือถือ</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>฿35.00</v>
+        <v/>
       </c>
       <c r="I35" t="str">
-        <v>Voucher save 61%</v>
+        <v>[New]realme Note 60 (6+128) | สมาร์ทโฟนทนทานต่อการกระแทก กล้องชัด 32 MP ใช้งานราบเลื่น 48 เดือน แบตเตอรี่ 5000 mAh</v>
       </c>
       <c r="J35" t="str">
-        <v>52 sold</v>
+        <v>฿5,999.00</v>
       </c>
       <c r="K35" t="str">
-        <v>(18)</v>
+        <v/>
       </c>
       <c r="L35" t="str">
-        <v>Bangkok</v>
+        <v>50 sold</v>
+      </c>
+      <c r="M35" t="str">
+        <v>(25)</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-1-by-tg-i5149839361.html</v>
+        <v>https://www.lazada.co.th/products/samsung-gt-e1200-i5116013496.html</v>
       </c>
       <c r="B36" t="str">
-        <v>https://img.lazcdn.com/g/p/06aa4319e0903106c02a4a80c73abd3c.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/ff/kf/Sab846b2a27074aac928ffabc9e548d7aW.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C36" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y18-8128gb-1-by-tg-i5149839361.html</v>
+        <v>https://www.lazada.co.th/products/samsung-gt-e1200-i5116013496.html</v>
       </c>
       <c r="D36" t="str">
-        <v>https://img.lazcdn.com/g/p/06aa4319e0903106c02a4a80c73abd3c.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/2a39bedff9c01cc359a25d909f898650.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E36" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/samsung-gt-e1200-i5116013496.html</v>
       </c>
       <c r="F36" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/dd6182edd29af583aa848cb760cebf81.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G36" t="str">
-        <v>Vivo Y18 (8/128GB) สมาร์ทโฟน โทรศัพท์มือถือ แถมฟรีประกันจอแตก (สินค้ารับประกัน1ปี) By TG</v>
+        <v/>
       </c>
       <c r="H36" t="str">
-        <v>฿5,199.00</v>
+        <v/>
       </c>
       <c r="I36" t="str">
-        <v>Voucher save 35%</v>
+        <v>SAMSUNG GT E1200 มือถือปุ่มกด ใช้งานง่าย พกพาสะดวก - สินค้าพร้อมส่ง</v>
       </c>
       <c r="J36" t="str">
-        <v>13 sold</v>
+        <v>฿207.00</v>
       </c>
       <c r="K36" t="str">
-        <v>(9)</v>
+        <v/>
       </c>
       <c r="L36" t="str">
-        <v>Pathum Thani</v>
+        <v>172 sold</v>
+      </c>
+      <c r="M36" t="str">
+        <v>(63)</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.lazada.co.th/products/mktel-m2023177800mah-dual-sim-fm-008mega-i5217913411.html</v>
+        <v>https://www.lazada.co.th/products/beyond-915-3g-i5060843054.html</v>
       </c>
       <c r="B37" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/Sb58cf4d81a8c4bcabe2c94a0cf339361o.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ff49a15a1b26f2b5a824d627cab6d179.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C37" t="str">
-        <v>https://www.lazada.co.th/products/mktel-m2023177800mah-dual-sim-fm-008mega-i5217913411.html</v>
+        <v>https://www.lazada.co.th/products/beyond-915-3g-i5060843054.html</v>
       </c>
       <c r="D37" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S0583ba71520b4fafa172cfb503d64f50U.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/b4681cf4a31959942234f0837a688edf.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E37" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/beyond-915-3g-i5060843054.html</v>
       </c>
       <c r="F37" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/a3ff411d08d1cd9f632aaffebdeac82b.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G37" t="str">
-        <v>Mktel โทรศัพท์คุณสมบัติ M2023พร้อมจอแสดงผล1.77นิ้ว800mAh แบตเตอรี่ Dual SIM วิทยุ FM ไฟฉาย0.08MEGA กล้องโทรศัพท์อาวุโส</v>
+        <v>https://www.lazada.co.th/products/beyond-915-3g-i5060843054.html</v>
       </c>
       <c r="H37" t="str">
-        <v>฿187.05</v>
+        <v>https://img.lazcdn.com/g/p/79dc8aa3749cd45f20cdd33fea691a4c.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I37" t="str">
-        <v/>
+        <v>โทรศัพท์มือถือปุ่มกดรุ่น Beyond 915 3G ราคาถูก จอใหญ่ เสียงดัง  ปุ่มกดใหญ่</v>
       </c>
       <c r="J37" t="str">
-        <v>6.9K sold</v>
+        <v>฿679.00</v>
       </c>
       <c r="K37" t="str">
-        <v>(340)</v>
+        <v/>
       </c>
       <c r="L37" t="str">
-        <v>China</v>
+        <v>29 sold</v>
+      </c>
+      <c r="M37" t="str">
+        <v>(15)</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f052-i4889281799.html</v>
+        <v>https://www.lazada.co.th/products/infinix-smart-9-1283gb-6gb-i-120hz-67-punch-hole-i-helio-g81-i-300-ultra-volume-i5333512998.html</v>
       </c>
       <c r="B38" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/Sfeb4d65dc3254018bf1990a59beaad17Y.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/2c09b8e86597e40162caba7ca7721675.png_200x200q80.png_.webp</v>
       </c>
       <c r="C38" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f052-i4889281799.html</v>
+        <v>https://www.lazada.co.th/products/infinix-smart-9-1283gb-6gb-i-120hz-67-punch-hole-i-helio-g81-i-300-ultra-volume-i5333512998.html</v>
       </c>
       <c r="D38" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/Safccc991b03e4a958ee92b947f898cadD.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/78236765a12555304387fc9cfb60e867.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E38" t="str">
-        <v>https://www.lazada.co.th/products/hero-e1205-fm-3g4g-ais12-call-true-move-f052-i4889281799.html</v>
+        <v>https://www.lazada.co.th/products/infinix-smart-9-1283gb-6gb-i-120hz-67-punch-hole-i-helio-g81-i-300-ultra-volume-i5333512998.html</v>
       </c>
       <c r="F38" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S41867a86a6284c20b7f95298d8796d395.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/701ee57d883b652f4a916a4058ea3479.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G38" t="str">
-        <v>โทรศัพท์มือถือ Hero E1205 ฮีโร่ มีวิทยุ FM รองรับ 3G/4G AIS/12 Call, True Move แป้มพิมพ์ไทย-อังกฤษ โทรศัพท์ปุ่มกด F052</v>
+        <v/>
       </c>
       <c r="H38" t="str">
-        <v>฿199.00</v>
+        <v/>
       </c>
       <c r="I38" t="str">
-        <v>Voucher save 69%</v>
+        <v>Infinix SMART 9 128+3GB (เพิ่มแรมสูงสุด 6GB) I 120Hz หน้าจอใหญ่ 6.7" Punch-Hole I ชิปเซ็ต Helio G81 I ลำโพงคู่ 300% Ultra Volume</v>
       </c>
       <c r="J38" t="str">
-        <v>110 sold</v>
+        <v>฿3,369.00</v>
       </c>
       <c r="K38" t="str">
-        <v>(31)</v>
+        <v>Voucher save 16%</v>
       </c>
       <c r="L38" t="str">
-        <v>Samut Prakan</v>
+        <v>230 sold</v>
+      </c>
+      <c r="M38" t="str">
+        <v>(91)</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.lazada.co.th/products/vivo-y36-5g-ram8256gb1-i5107513022.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-ultra-12256gb512gb1tb-ai-phone-titanium-200mp-s-pen-i5076684545.html</v>
       </c>
       <c r="B39" t="str">
-        <v>https://img.lazcdn.com/g/p/08fd05251ac70f885095303ce285143b.png_400x400q75.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e46da8354d71e0e6ce21cd45304f228b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-ultra-12256gb512gb1tb-ai-phone-titanium-200mp-s-pen-i5076684545.html</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>https://img.lazcdn.com/g/p/34a3d2be46d0a4341066981986f8f346.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1838,98 +1952,107 @@
         <v/>
       </c>
       <c r="G39" t="str">
-        <v>Vivo Y36 5G Ram8/256gb(สินค้าใหม่มือ1 เครื่องศูนย์ไทย รับประกันร้าน) ส่งฟรี!</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>฿6,380.00</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v>Voucher save 29%</v>
+        <v>Samsung Galaxy S24 Ultra 12/256GB,512GB,1TB มือถือแอนดรอย, AI Phone, Titanium กล้อง 200MP , S Pen, แบตเตอรี่อยู่ได้นาน</v>
       </c>
       <c r="J39" t="str">
-        <v>50 sold</v>
+        <v>฿33,790.00</v>
       </c>
       <c r="K39" t="str">
-        <v>(26)</v>
+        <v>Voucher save 28%</v>
       </c>
       <c r="L39" t="str">
-        <v>Bangkok</v>
+        <v>1.6K sold</v>
+      </c>
+      <c r="M39" t="str">
+        <v>(527)</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06464gb-by-lazada-superiphone-i5317196329.html</v>
       </c>
       <c r="B40" t="str">
-        <v>https://img.lazcdn.com/g/p/28d5d9741ce501286003fd723e23bf31.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/078d70f03d47bcf59572cd7c8dd9cdb6.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C40" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06464gb-by-lazada-superiphone-i5317196329.html</v>
       </c>
       <c r="D40" t="str">
-        <v>https://img.lazcdn.com/g/p/9e9c50112fec88c3c6cf6d29e0e07ecd.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1a65c101160f8910dfce9ac87f00cded.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E40" t="str">
-        <v>https://www.lazada.co.th/products/new-xiaomi-redmi-13c-6gb128gb-8256gb-5000mah-15-90hz-fhd-i4962240252.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06464gb-by-lazada-superiphone-i5317196329.html</v>
       </c>
       <c r="F40" t="str">
-        <v>https://img.lazcdn.com/g/p/9f4a1840fefcb594bb3395ec8826f422.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e552eb1966df6e15a1130e00367da6b9.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="G40" t="str">
-        <v>[NEW] Xiaomi Redmi 13C 6GB+128GB / 8+256GB โทรศัพท์มือถือ แบตเตอรี่ 5000mAh รับประกัน 15 เดือน 90Hz FHD+</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a06464gb-by-lazada-superiphone-i5317196329.html</v>
       </c>
       <c r="H40" t="str">
-        <v>฿3,919.00</v>
+        <v>https://img.lazcdn.com/g/p/31494a346a0b6b181dc82827832e1dfa.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="I40" t="str">
-        <v>Voucher save 41%</v>
+        <v>Samsung Galaxy A06(4/64GB)รุ่นเล็ก สเป็คดี(By Lazada Superiphone)</v>
       </c>
       <c r="J40" t="str">
-        <v>1.5K sold</v>
+        <v>฿3,577.00</v>
       </c>
       <c r="K40" t="str">
-        <v>(545)</v>
+        <v>Voucher save 11%</v>
       </c>
       <c r="L40" t="str">
-        <v>Bangkok</v>
+        <v>150 sold</v>
+      </c>
+      <c r="M40" t="str">
+        <v>(6)</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128gb-by-lazada-superiphone-i5148071345.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-ram-6-gbrom-128gb-chipset-snapdragon-680-i5259497406.html</v>
       </c>
       <c r="B41" t="str">
-        <v>https://img.lazcdn.com/g/p/1044949ade499384d0a1595ee9025b8e.jpg_400x400q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/5bfda9763fa5ad5888a4b3c8bf536898.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128gb-by-lazada-superiphone-i5148071345.html</v>
+        <v>https://www.lazada.co.th/products/samsung-galaxy-a05s-ram-6-gbrom-128gb-chipset-snapdragon-680-i5259497406.html</v>
       </c>
       <c r="D41" t="str">
-        <v>https://img.lazcdn.com/g/p/dc8b6ea837ab65d9b27400df40b97be1.jpg_80x80q75.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/794edad3d8f72ea91ad60f85bd0c6de5.jpg_80x80q80.jpg_.webp</v>
       </c>
       <c r="E41" t="str">
-        <v>https://www.lazada.co.th/products/oppo-a60-8128gb-by-lazada-superiphone-i5148071345.html</v>
+        <v/>
       </c>
       <c r="F41" t="str">
-        <v>https://img.lazcdn.com/g/p/81387f7763be3235db6a08feee8ca1a9.jpg_80x80q75.jpg_.webp</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>OPPO A60 (8/128GB) ฝาหลังลวดลายคลื่นน้ำดูหรูหรา(By Lazada Superiphone)</v>
+        <v/>
       </c>
       <c r="H41" t="str">
-        <v>฿5,855.00</v>
+        <v/>
       </c>
       <c r="I41" t="str">
-        <v>Voucher save 66%</v>
+        <v>Samsung Galaxy A05s (Ram 6 GB/Rom 128GB) เครื่องเร็ว ชิปแรง Chipset Snapdragon 680</v>
       </c>
       <c r="J41" t="str">
-        <v>310 sold</v>
+        <v>฿4,822.00</v>
       </c>
       <c r="K41" t="str">
-        <v>(78)</v>
+        <v>Voucher save 20%</v>
       </c>
       <c r="L41" t="str">
-        <v>Bangkok</v>
+        <v>17 sold</v>
+      </c>
+      <c r="M41" t="str">
+        <v>(7)</v>
       </c>
     </row>
   </sheetData>
